--- a/docs/10-31-2013-energy-cost-calculator-hydrogen-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-hydrogen-model.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A826658D-4130-4301-86D7-926517A1CE49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E14BA-6ED9-49A8-9D35-FDF188F8153A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_LCOE" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,101 @@
     <sheet name="3_SensitivityDiagram_Relative" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="AmountOfCapitalFinancing">'1_LCOE'!$F$66</definedName>
+    <definedName name="AnnualDebtRepayment">'1_LCOE'!$F$75</definedName>
+    <definedName name="AnnualDebtReserveInterest">'1_LCOE'!$F$91</definedName>
+    <definedName name="AnnualEquityRepayment">'1_LCOE'!$F$81</definedName>
+    <definedName name="AnnualFeedstockCost">'1_LCOE'!$F$29</definedName>
     <definedName name="AnnualFeedstockEnergyInput">'1_LCOE'!$F$14</definedName>
     <definedName name="AnnualFeedstockSupply">'1_LCOE'!$F$13</definedName>
     <definedName name="AnnualHours">'1_LCOE'!$F$12</definedName>
     <definedName name="AnnualHydrogenEnergy">'1_LCOE'!$F$17</definedName>
     <definedName name="AnnualHydrogenProductionKg">'1_LCOE'!$F$16</definedName>
     <definedName name="AnnualHydrogenProductionMg">'1_LCOE'!$F$15</definedName>
+    <definedName name="AnnualTotalCapitalRecovery">'1_LCOE'!$F$86</definedName>
+    <definedName name="Capacity">'1_LCOE'!$F$37</definedName>
     <definedName name="CapacityFactor">'1_LCOE'!$F$11</definedName>
+    <definedName name="CapitalCost">'1_LCOE'!$F$24</definedName>
+    <definedName name="CapitalCostUnitDaily">'1_LCOE'!$F$25</definedName>
+    <definedName name="CapitalCostUnitYear">'1_LCOE'!$I$24</definedName>
+    <definedName name="CapitalRecoveryFactorDebt">'1_LCOE'!$F$74</definedName>
+    <definedName name="CapitalRecoveryFactorEquity">'1_LCOE'!$F$80</definedName>
+    <definedName name="CapitalRecoveryFactorEquityConstant">'1_LCOE'!$F$84</definedName>
+    <definedName name="CombinedTaxRate">'1_LCOE'!$F$47</definedName>
+    <definedName name="DebtInterest">'1_LCOE'!$G$117</definedName>
+    <definedName name="DebtPrincipalPaid">'1_LCOE'!$G$118</definedName>
+    <definedName name="DebtPrincipalRemaining">'1_LCOE'!$G$119</definedName>
+    <definedName name="DebtRatio">'1_LCOE'!$F$61</definedName>
+    <definedName name="DebtRecovery">'1_LCOE'!$G$116</definedName>
+    <definedName name="DebtReserve">'1_LCOE'!$F$77</definedName>
+    <definedName name="DebtReserve1">'1_LCOE'!$G$122</definedName>
+    <definedName name="Depreciation">'1_LCOE'!$G$124</definedName>
     <definedName name="DesignHydrogenProductionRateMg">'1_LCOE'!$F$7</definedName>
     <definedName name="DesignHydrogenProductionRateMW">'1_LCOE'!$F$6</definedName>
+    <definedName name="EconomicLife">'1_LCOE'!$F$65</definedName>
+    <definedName name="ElectricalEnergy">'1_LCOE'!$F$35</definedName>
+    <definedName name="EnergyRevenueRequired">'1_LCOE'!$G$134</definedName>
+    <definedName name="EquityInterest">'1_LCOE'!$G$113</definedName>
+    <definedName name="EquityPrincipalPaid">'1_LCOE'!$G$114</definedName>
+    <definedName name="EquityPrincipalRemaining">'1_LCOE'!$G$115</definedName>
+    <definedName name="EquityRatio">'1_LCOE'!$F$67</definedName>
+    <definedName name="EquityRecovery">'1_LCOE'!$G$112</definedName>
+    <definedName name="EscalationCapacityPayment">'1_LCOE'!$F$54</definedName>
+    <definedName name="EscalationElectricalEnergy">'1_LCOE'!$F$52</definedName>
+    <definedName name="EscalationFeedstock">'1_LCOE'!$F$51</definedName>
+    <definedName name="EscalationHeatSales">'1_LCOE'!$F$56</definedName>
+    <definedName name="EscalationIncentivePayments">'1_LCOE'!$F$53</definedName>
+    <definedName name="EscalationOther">'1_LCOE'!$F$58</definedName>
+    <definedName name="EscalationProductionTaxCredit">'1_LCOE'!$F$55</definedName>
+    <definedName name="EscalationResidueSales">'1_LCOE'!$F$57</definedName>
+    <definedName name="Expenses">'1_LCOE'!$G$123</definedName>
+    <definedName name="FederalTaxRate">'1_LCOE'!$F$43</definedName>
     <definedName name="Feedstock">'1_LCOE'!$I$6</definedName>
+    <definedName name="FeedstockCost">'1_LCOE'!$F$28</definedName>
     <definedName name="FeedstockInput">'1_LCOE'!$F$9</definedName>
     <definedName name="FeedstockSupply">'1_LCOE'!$F$10</definedName>
+    <definedName name="FuelCost">'1_LCOE'!$G$120</definedName>
+    <definedName name="GeneralInflation">'1_LCOE'!$F$50</definedName>
     <definedName name="GrossDesignHydrogenCapacity">'1_LCOE'!$F$4</definedName>
+    <definedName name="Heat">'1_LCOE'!$F$38</definedName>
     <definedName name="HydrogenEnergy">'1_LCOE'!$F$5</definedName>
     <definedName name="HydrogenHHV">'1_LCOE'!$I$4</definedName>
     <definedName name="HydrogenLHV">'1_LCOE'!$I$5</definedName>
+    <definedName name="IncentivePayments">'1_LCOE'!$F$36</definedName>
+    <definedName name="IncomeCapacity">'1_LCOE'!$G$127</definedName>
+    <definedName name="IncomeElectricalEnergy">'1_LCOE'!$G$125</definedName>
+    <definedName name="IncomeHeat">'1_LCOE'!$G$128</definedName>
+    <definedName name="IncomeIncentivePayments">'1_LCOE'!$G$126</definedName>
+    <definedName name="IncomeResidue">'1_LCOE'!$G$129</definedName>
+    <definedName name="InterestOnDebtReserve">'1_LCOE'!$G$130</definedName>
+    <definedName name="InterestRateOnDebt">'1_LCOE'!$F$62</definedName>
+    <definedName name="InterestRateOnDebtReserve">'1_LCOE'!$F$90</definedName>
+    <definedName name="MARR">'1_LCOE'!$F$64</definedName>
+    <definedName name="NegativeTaxesOffset">'1_LCOE'!$F$46</definedName>
+    <definedName name="NonFuelExpenses">'1_LCOE'!$G$121</definedName>
+    <definedName name="OneYearDebtReserveRequired">'1_LCOE'!$F$63</definedName>
+    <definedName name="OperatingExpenses">'1_LCOE'!$F$31</definedName>
+    <definedName name="OperatingExpensesRate">'1_LCOE'!$F$30</definedName>
     <definedName name="OverallProductionEfficiency">'1_LCOE'!$F$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1_LCOE'!$E$156:$O$183</definedName>
+    <definedName name="ProductionTaxCredit">'1_LCOE'!$F$45</definedName>
+    <definedName name="RealCostOfEquityConstant">'1_LCOE'!$F$83</definedName>
+    <definedName name="RealCostOfMoney">'1_LCOE'!$F$70</definedName>
+    <definedName name="Residues">'1_LCOE'!$F$39</definedName>
+    <definedName name="StateTaxRate">'1_LCOE'!$F$44</definedName>
+    <definedName name="TaxCredit">'1_LCOE'!$G$132</definedName>
+    <definedName name="Taxes">'1_LCOE'!$G$133</definedName>
+    <definedName name="TaxesWoCredit">'1_LCOE'!$G$131</definedName>
+    <definedName name="TotalAnnualExpenses">'1_LCOE'!$F$32</definedName>
+    <definedName name="TotalCapitalRecovery">'1_LCOE'!$F$87</definedName>
+    <definedName name="TotalDebtPrincipal">'1_LCOE'!$F$73</definedName>
+    <definedName name="TotalDebtRepayment">'1_LCOE'!$F$76</definedName>
+    <definedName name="TotalEquityPrincipal">'1_LCOE'!$F$79</definedName>
+    <definedName name="TotalEquityRepayment">'1_LCOE'!$F$82</definedName>
+    <definedName name="WeightedCapitalRecoveryFactorConstant">'1_LCOE'!$F$71</definedName>
+    <definedName name="WeightedCapitalRecoveryFactorCurrent">'1_LCOE'!$F$69</definedName>
+    <definedName name="WeightedCostOfMoney">'1_LCOE'!$F$68</definedName>
+    <definedName name="Year">'1_LCOE'!$G$111</definedName>
   </definedNames>
   <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
@@ -46,6 +123,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kzl0049</author>
+  </authors>
+  <commentList>
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{BD9FD4DC-E90A-438F-8437-4BDD9FF2D5A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kzl0049:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+input</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,15 +681,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="Helv"/>
@@ -709,13 +820,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,6 +879,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1242,7 +1366,7 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1280,7 +1404,7 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1470,6 +1594,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1494,84 +1690,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1744,67 +1874,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.71618327228883227</c:v>
+                  <c:v>0.7116630690889163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74854299069908437</c:v>
+                  <c:v>0.74402278749916817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78090270910933657</c:v>
+                  <c:v>0.77638250590942059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81326242751958866</c:v>
+                  <c:v>0.80874222431967258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84562214592984097</c:v>
+                  <c:v>0.84110194272992511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87798186434009295</c:v>
+                  <c:v>0.87346166114017709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91034158275034549</c:v>
+                  <c:v>0.9058213795504293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94270130116059725</c:v>
+                  <c:v>0.9381810979606815</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97506101957084956</c:v>
+                  <c:v>0.97054081637093359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.007420737981102</c:v>
+                  <c:v>1.0029005347811857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.039780456391354</c:v>
+                  <c:v>1.0352602531914381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1004678516208048</c:v>
+                  <c:v>1.0959476484208883</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1611552468502551</c:v>
+                  <c:v>1.1566350436503392</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2218426420797057</c:v>
+                  <c:v>1.2173224388797899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2825300373091564</c:v>
+                  <c:v>1.2780098341092405</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3432174325386073</c:v>
+                  <c:v>1.338697229338691</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4039048277680573</c:v>
+                  <c:v>1.3993846245681416</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4645922229975081</c:v>
+                  <c:v>1.460072019797592</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5252796182269583</c:v>
+                  <c:v>1.5207594150270423</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5859670134564088</c:v>
+                  <c:v>1.5814468102564929</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6466544086858599</c:v>
+                  <c:v>1.6421342054859438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,67 +2042,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.58023699697929565</c:v>
+                  <c:v>0.57571679377937945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62619134292050149</c:v>
+                  <c:v>0.62167113972058552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67214568886170722</c:v>
+                  <c:v>0.66762548566179114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71810003480291307</c:v>
+                  <c:v>0.71357983160299709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76405438074411891</c:v>
+                  <c:v>0.75953417754420283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81000872668532486</c:v>
+                  <c:v>0.80548852348540856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85596307262653049</c:v>
+                  <c:v>0.85144286942661462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90191741856773644</c:v>
+                  <c:v>0.89739721536782047</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94787176450894195</c:v>
+                  <c:v>0.94335156130902598</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99382611045014824</c:v>
+                  <c:v>0.98930590725023215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.039780456391354</c:v>
+                  <c:v>1.0352602531914381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1125711904015847</c:v>
+                  <c:v>1.1080509872016684</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1853619244118148</c:v>
+                  <c:v>1.1808417212118987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2581526584220453</c:v>
+                  <c:v>1.2536324552221292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3309433924322758</c:v>
+                  <c:v>1.3264231892323595</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4037341264425061</c:v>
+                  <c:v>1.39921392324259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4765248604527359</c:v>
+                  <c:v>1.4720046572528207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5493155944629671</c:v>
+                  <c:v>1.544795391263051</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6221063284731976</c:v>
+                  <c:v>1.6175861252732813</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6948970624834279</c:v>
+                  <c:v>1.6903768592835113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7676877964936584</c:v>
+                  <c:v>1.7631675932937421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,67 +2210,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.4497295483906483</c:v>
+                  <c:v>1.4452093451907324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.408734639190719</c:v>
+                  <c:v>1.4042144359908026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3677397299907894</c:v>
+                  <c:v>1.3632195267908731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3267448207908599</c:v>
+                  <c:v>1.322224617590944</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2857499115909305</c:v>
+                  <c:v>1.2812297083910142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2447550023910012</c:v>
+                  <c:v>1.2402347991910854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2037600931910719</c:v>
+                  <c:v>1.1992398899911558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1627651839911426</c:v>
+                  <c:v>1.1582449807912263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1217702747912126</c:v>
+                  <c:v>1.1172500715912967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0807753655912837</c:v>
+                  <c:v>1.0762551623913674</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.039780456391354</c:v>
+                  <c:v>1.0352602531914381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0361364644624713</c:v>
+                  <c:v>1.0316162612625557</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0324924725335889</c:v>
+                  <c:v>1.0279722693336726</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.028848480604706</c:v>
+                  <c:v>1.0243282774047902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0252044886758236</c:v>
+                  <c:v>1.0206842854759075</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0215604967469409</c:v>
+                  <c:v>1.0170402935470251</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0179165048180587</c:v>
+                  <c:v>1.0133963016181422</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0142725128891756</c:v>
+                  <c:v>1.0097523096892598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0106285209602928</c:v>
+                  <c:v>1.0061083177603771</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0069845290314106</c:v>
+                  <c:v>1.0024643258314943</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0033405371025279</c:v>
+                  <c:v>0.99882033390261216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,67 +2378,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.96213798796768735</c:v>
+                  <c:v>0.95761778476777126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96920957102500682</c:v>
+                  <c:v>0.96468936782509107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97643805650829596</c:v>
+                  <c:v>0.97191785330837999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98382249332440186</c:v>
+                  <c:v>0.97930229012448589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99136183133325506</c:v>
+                  <c:v>0.9868416281333392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99905492504841964</c:v>
+                  <c:v>0.99453472184850356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.006900537477601</c:v>
+                  <c:v>1.0023803342776845</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0148973440845741</c:v>
+                  <c:v>1.0103771408846576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0230439368541417</c:v>
+                  <c:v>1.0185237336542257</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0313388284419511</c:v>
+                  <c:v>1.0268186252420355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.039780456391354</c:v>
+                  <c:v>1.0352602531914381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0615156165949251</c:v>
+                  <c:v>1.056995413395009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0841302374739359</c:v>
+                  <c:v>1.0796100342740196</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1075948887070182</c:v>
+                  <c:v>1.1030746855071021</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1318783762956866</c:v>
+                  <c:v>1.1273581730957702</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1569481448647523</c:v>
+                  <c:v>1.1524279416648369</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1827706604628663</c:v>
+                  <c:v>1.1782504572629504</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2093117685819894</c:v>
+                  <c:v>1.2047915653820735</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2365370234554069</c:v>
+                  <c:v>1.2320168202554906</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2644119859634033</c:v>
+                  <c:v>1.2598917827634877</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2929024886346345</c:v>
+                  <c:v>1.2883822854347187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,67 +2546,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.91588595641083792</c:v>
+                  <c:v>0.9133611239989623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92706065124341319</c:v>
+                  <c:v>0.9243339402086338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93855907147561746</c:v>
+                  <c:v>0.93562807795125968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95036441478336198</c:v>
+                  <c:v>0.94722794409702271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96245725782843539</c:v>
+                  <c:v>0.95911528379009081</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97481614186019949</c:v>
+                  <c:v>0.97126974254158338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98741816867780563</c:v>
+                  <c:v>0.98366944312888838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0002395787407632</c:v>
+                  <c:v>0.99629154942872988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0132562883441243</c:v>
+                  <c:v>1.0091127941036577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0264443687610829</c:v>
+                  <c:v>1.0221099527686175</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.039780456391354</c:v>
+                  <c:v>1.0352602531914381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0669906740104129</c:v>
+                  <c:v>1.0621138222543294</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0945431003843622</c:v>
+                  <c:v>1.0893349316609788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1222936406686659</c:v>
+                  <c:v>1.1167807013481585</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1501236339923189</c:v>
+                  <c:v>1.1443325346925433</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1779388539941726</c:v>
+                  <c:v>1.1718954298053001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2056669816073395</c:v>
+                  <c:v>1.1993957279564038</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2332543887473761</c:v>
+                  <c:v>1.2267781221446412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2606628055134688</c:v>
+                  <c:v>1.254002496020443</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2878662113643042</c:v>
+                  <c:v>1.2810409387125352</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3148481179795142</c:v>
+                  <c:v>1.307875111602306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,67 +2714,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6366701997182398</c:v>
+                  <c:v>1.6282812984791977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4888696086468862</c:v>
+                  <c:v>1.4814979794053527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3823812584679713</c:v>
+                  <c:v>1.3757261258106701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3021003497940997</c:v>
+                  <c:v>1.2959738887553915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2394873711973011</c:v>
+                  <c:v>1.2337645251351319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1893516709804879</c:v>
+                  <c:v>1.1839450591900047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1483565970424483</c:v>
+                  <c:v>1.1432028267058694</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1142595246408329</c:v>
+                  <c:v>1.1093112048829721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0854973002463322</c:v>
+                  <c:v>1.0807181265156496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0609468754367903</c:v>
+                  <c:v>1.056308468338923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.039780456391354</c:v>
+                  <c:v>1.0352602531914381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0114002761689649</c:v>
+                  <c:v>1.0070243376757295</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99103187898154599</c:v>
+                  <c:v>0.98676973168990134</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97101920445518963</c:v>
+                  <c:v>0.96684780231901346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95713627448523098</c:v>
+                  <c:v>0.95303786648606004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94255916557126618</c:v>
+                  <c:v>0.93851988844534018</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93258988937496312</c:v>
+                  <c:v>0.92859878152848718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9217286295663264</c:v>
+                  <c:v>0.91777694511711538</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91430051549361235</c:v>
+                  <c:v>0.91038121623422452</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90607290195169465</c:v>
+                  <c:v>0.902180290379761</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.90039202497799797</c:v>
+                  <c:v>0.89652146064173677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2752,67 +2882,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.8971019381817569</c:v>
+                  <c:v>2.892581734981841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2302298334439565</c:v>
+                  <c:v>2.2257096302440402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.861452632667292</c:v>
+                  <c:v>1.8569324294673759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6274075918730635</c:v>
+                  <c:v>1.6228873886731474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4656630891585802</c:v>
+                  <c:v>1.4611428859586644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3471991844118347</c:v>
+                  <c:v>1.3426789812119182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2566939141187004</c:v>
+                  <c:v>1.2521737109187838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1852942177503407</c:v>
+                  <c:v>1.1807740145504251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1275279279720027</c:v>
+                  <c:v>1.1230077247720867</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0798305152978855</c:v>
+                  <c:v>1.0753103120979695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.039780456391354</c:v>
+                  <c:v>1.0352602531914381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0290243947909101</c:v>
+                  <c:v>1.0245041915909938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0187603296990044</c:v>
+                  <c:v>1.0142401264990883</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0089552590368061</c:v>
+                  <c:v>1.0044350558368895</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.99957906778517114</c:v>
+                  <c:v>0.99505886458525483</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9906042190372959</c:v>
+                  <c:v>0.98608401583737981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.98200548389301723</c:v>
+                  <c:v>0.97748528069310081</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.97375970461453287</c:v>
+                  <c:v>0.96923950141461701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.96584558636111995</c:v>
+                  <c:v>0.96132538316120375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95824351355889492</c:v>
+                  <c:v>0.95372331035897895</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95093538757168938</c:v>
+                  <c:v>0.94641518437177352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,67 +3050,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.5791306629893938</c:v>
+                  <c:v>2.5746099675639194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1347356726591933</c:v>
+                  <c:v>2.1302151193343088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8443877017660566</c:v>
+                  <c:v>1.8398672412833932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6398196552743487</c:v>
+                  <c:v>1.6352992602047538</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4879101743909708</c:v>
+                  <c:v>1.4833898278962414</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3706452491203358</c:v>
+                  <c:v>1.3661249401224624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2773864043656542</c:v>
+                  <c:v>1.272866125188407</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2014464624563208</c:v>
+                  <c:v>1.1969262075617741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1384109403159401</c:v>
+                  <c:v>1.1338907055777525</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0852481647945613</c:v>
+                  <c:v>1.080727947055804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0398071485210532</c:v>
+                  <c:v>1.0352869453126021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.034343651296397</c:v>
+                  <c:v>1.0298234498349637</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0289820779797318</c:v>
+                  <c:v>1.0244618782327253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0237196027772619</c:v>
+                  <c:v>1.0191994047129951</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0185535033971349</c:v>
+                  <c:v>1.01403330698479</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0134811563536574</c:v>
+                  <c:v>1.008960961563256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0085000325248694</c:v>
+                  <c:v>1.0039798393272412</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0036076929476594</c:v>
+                  <c:v>0.99908750131441526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99880178483574733</c:v>
+                  <c:v>0.99428159473924949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99408003780685927</c:v>
+                  <c:v>0.98955984922019646</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98944026030639243</c:v>
+                  <c:v>0.9849200732033534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,67 +3532,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-31.121683631715207</c:v>
+                  <c:v>-31.257568626338728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-28.009515268543694</c:v>
+                  <c:v>-28.131811763704885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-24.897346905372171</c:v>
+                  <c:v>-25.006054901070986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.785178542200654</c:v>
+                  <c:v>-21.880298038437132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-18.673010179029124</c:v>
+                  <c:v>-18.754541175803226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-15.560841815857621</c:v>
+                  <c:v>-15.628784313169373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.448673452686064</c:v>
+                  <c:v>-12.503027450535498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3365050895145831</c:v>
+                  <c:v>-9.3772705879016236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.224336726343048</c:v>
+                  <c:v>-6.2515137252677597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.1121683631715027</c:v>
+                  <c:v>-3.1257568626338958</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8365585596859182</c:v>
+                  <c:v>5.8620424228947998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.673117119371772</c:v>
+                  <c:v>11.724084845789664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.509675679057672</c:v>
+                  <c:v>17.586127268684507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.34623423874357</c:v>
+                  <c:v>23.448169691579348</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.182792798429485</c:v>
+                  <c:v>29.310212114474172</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.019351358115323</c:v>
+                  <c:v>35.172254537369014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.855909917801235</c:v>
+                  <c:v>41.034296960263831</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.69246847748709</c:v>
+                  <c:v>46.896339383158633</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52.529027037172973</c:v>
+                  <c:v>52.758381806053478</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.365585596858907</c:v>
+                  <c:v>58.620424228948345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3570,67 +3700,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-44.196200898691899</c:v>
+                  <c:v>-44.389172480582126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-39.776580808822708</c:v>
+                  <c:v>-39.950255232523887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-35.35696071895353</c:v>
+                  <c:v>-35.511337984465705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-30.937340629084336</c:v>
+                  <c:v>-31.07242073640748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-26.517720539215144</c:v>
+                  <c:v>-26.63350348834928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-22.098100449345946</c:v>
+                  <c:v>-22.194586240291084</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-17.678480359476776</c:v>
+                  <c:v>-17.755668992232852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.258860269607572</c:v>
+                  <c:v>-13.31675174417464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.8392401797384146</c:v>
+                  <c:v>-8.8778344961164635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.4196200898691806</c:v>
+                  <c:v>-4.4389172480582211</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0005868606972221</c:v>
+                  <c:v>7.0311531603609216</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.001173721394377</c:v>
+                  <c:v>14.062306320721843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.001760582091581</c:v>
+                  <c:v>21.093459481082789</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.002347442788778</c:v>
+                  <c:v>28.124612641443708</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.002934303485958</c:v>
+                  <c:v>35.155765801804655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.003521164183091</c:v>
+                  <c:v>42.18691896216562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.00410802488036</c:v>
+                  <c:v>49.218072122526543</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56.004694885577557</c:v>
+                  <c:v>56.249225282887458</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63.005281746274733</c:v>
+                  <c:v>63.280378443248367</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70.00586860697193</c:v>
+                  <c:v>70.311531603609339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,67 +3868,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>39.426504843345228</c:v>
+                  <c:v>39.598650748498059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.483854359010721</c:v>
+                  <c:v>35.638785673648222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.541203874676182</c:v>
+                  <c:v>31.678920598798406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.59855339034165</c:v>
+                  <c:v>27.719055523948633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.655902906007135</c:v>
+                  <c:v>23.759190449098792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.713252421672625</c:v>
+                  <c:v>19.79932537424904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.770601937338114</c:v>
+                  <c:v>15.839460299399224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.8279514530036</c:v>
+                  <c:v>11.879595224549407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.885300968669025</c:v>
+                  <c:v>7.91973014969959</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9426504843345547</c:v>
+                  <c:v>3.959865074849795</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.3504578208297387</c:v>
+                  <c:v>-0.35198800665329794</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.70091564165945597</c:v>
+                  <c:v>-0.70397601330666026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.0513734624892161</c:v>
+                  <c:v>-1.0559640199599583</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.4018312833189335</c:v>
+                  <c:v>-1.4079520266132777</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.7522891041486723</c:v>
+                  <c:v>-1.7599400332665758</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.1027469249783679</c:v>
+                  <c:v>-2.1119280399199165</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.4532047458081494</c:v>
+                  <c:v>-2.4639160465732144</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.8036625666379096</c:v>
+                  <c:v>-2.815904053226534</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.1541203874676058</c:v>
+                  <c:v>-3.1678920598798745</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.5045782082973447</c:v>
+                  <c:v>-3.5198800665331405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3906,67 +4036,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-7.4671982865624713</c:v>
+                  <c:v>-7.4998019275168071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.7870948076163478</c:v>
+                  <c:v>-6.8167289479911313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.091901371458083</c:v>
+                  <c:v>-6.1185001247551014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.3817094486617831</c:v>
+                  <c:v>-5.4052073277659769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.656620035554413</c:v>
+                  <c:v>-4.6769519943257629</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.9167432983185444</c:v>
+                  <c:v>-3.9338447716299672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.1621982036347855</c:v>
+                  <c:v>-3.1760051457972427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.3931121376467113</c:v>
+                  <c:v>-2.4035610591706158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6096205150169616</c:v>
+                  <c:v>-1.6166485176667518</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.81186637982216225</c:v>
+                  <c:v>-0.81541118992825967</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0903605246635282</c:v>
+                  <c:v>2.0994875575071164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2653024309094612</c:v>
+                  <c:v>4.2839257999003282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5219952826407148</c:v>
+                  <c:v>6.5504719326961238</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8574390236152549</c:v>
+                  <c:v>8.8961128006622694</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.268502668345844</c:v>
+                  <c:v>11.317703747651979</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.751961117616299</c:v>
+                  <c:v>13.812005592865242</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.304529590699193</c:v>
+                  <c:v>16.375719213406921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.922895295311982</c:v>
+                  <c:v>19.005517352521089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.603746078441606</c:v>
+                  <c:v>21.698073395512772</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.343795912625822</c:v>
+                  <c:v>24.450086967308092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,67 +4204,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-11.915448037031046</c:v>
+                  <c:v>-11.77473285743295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10.840731276979795</c:v>
+                  <c:v>-10.714823894846473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.7348805022777505</c:v>
+                  <c:v>-9.6238771780369561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.5995116621366332</c:v>
+                  <c:v>-8.5033989108569248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.4364927795695728</c:v>
+                  <c:v>-7.3551524041043939</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.2478876316466483</c:v>
+                  <c:v>-6.1811037806762714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.0358984333362145</c:v>
+                  <c:v>-4.9833662505161076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.8028102382132416</c:v>
+                  <c:v>-3.7641456476840336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.5509392760933447</c:v>
+                  <c:v>-2.525689458971748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2825868719013123</c:v>
+                  <c:v>-1.2702410222242821</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6169195094793678</c:v>
+                  <c:v>2.5938954944043009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2667506545628502</c:v>
+                  <c:v>5.2232932060168018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9356352362767906</c:v>
+                  <c:v>7.8743917681968467</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.61216114639433</c:v>
+                  <c:v>10.535735450565562</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.287266244867602</c:v>
+                  <c:v>13.19814763414816</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.953995307019792</c:v>
+                  <c:v>15.854513322517573</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.607190697494914</c:v>
+                  <c:v>18.49949018740006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.243171841169787</c:v>
+                  <c:v>21.12920322737007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.859436234640615</c:v>
+                  <c:v>23.740956417810803</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.454398127736102</c:v>
+                  <c:v>26.332978356936543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4242,67 +4372,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>57.405362801147675</c:v>
+                  <c:v>57.282315578100281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.190766809960458</c:v>
+                  <c:v>43.103917574182887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.949340408420682</c:v>
+                  <c:v>32.886983883488647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.228392377478333</c:v>
+                  <c:v>25.183390819867864</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.206642477109725</c:v>
+                  <c:v>19.174335277700148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.384884200289113</c:v>
+                  <c:v>14.362070362520923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.442217872407126</c:v>
+                  <c:v>10.426612359710747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1629609685072202</c:v>
+                  <c:v>7.1528827136224109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3967785289639298</c:v>
+                  <c:v>4.3909609379937722</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0356623280741606</c:v>
+                  <c:v>2.033132739579127</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7294396666085552</c:v>
+                  <c:v>-2.7274219626093634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.6883529220191384</c:v>
+                  <c:v>-4.6838967643211546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.613054853406851</c:v>
+                  <c:v>-6.6082369782406749</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.9482338216806472</c:v>
+                  <c:v>-7.9421948685760748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.3501748587872573</c:v>
+                  <c:v>-9.3445454365578655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.308961507932626</c:v>
+                  <c:v>-10.302865519480859</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-11.353533921452652</c:v>
+                  <c:v>-11.348190729060855</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.067926467211199</c:v>
+                  <c:v>-12.062574272724563</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-12.85921019363094</c:v>
+                  <c:v>-12.854735067962494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13.405563699198131</c:v>
+                  <c:v>-13.401344456334119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4410,67 +4540,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>178.62631196554648</c:v>
+                  <c:v>179.40623877568601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.49045514705651</c:v>
+                  <c:v>114.99034888886696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.023621883375355</c:v>
+                  <c:v>79.36865862887484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.514539378929975</c:v>
+                  <c:v>56.761295883832851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.958899558978821</c:v>
+                  <c:v>41.137736279775147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.565734394297376</c:v>
+                  <c:v>29.694825728389368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.861467090866746</c:v>
+                  <c:v>20.9525534336567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.994662090880663</c:v>
+                  <c:v>14.055766258813268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4390383605769816</c:v>
+                  <c:v>8.4758852964890643</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8517803119255274</c:v>
+                  <c:v>3.8685981407155769</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0344550654254137</c:v>
+                  <c:v>-1.0389717529757516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.021592785586841</c:v>
+                  <c:v>-2.030419561414647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9645871073139198</c:v>
+                  <c:v>-2.9775312303860328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.8663343169292825</c:v>
+                  <c:v>-3.8832156921173056</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.7294827529965664</c:v>
+                  <c:v>-4.7501328484756122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.5564587835060557</c:v>
+                  <c:v>-5.5807196615761185</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6.3494895841716152</c:v>
+                  <c:v>-6.3772130315344659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.110623168166792</c:v>
+                  <c:v>-7.1416699136581734</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.8417460466067919</c:v>
+                  <c:v>-7.875985056038032</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8.5445988404137658</c:v>
+                  <c:v>-8.5819066795792018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4578,67 +4708,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>148.03932793285404</c:v>
+                  <c:v>148.68564017162632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.3011152784906</c:v>
+                  <c:v>105.76084041039424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.377863230636663</c:v>
+                  <c:v>77.715680624935359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.704210593926973</c:v>
+                  <c:v>57.956136471032153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.094820660472202</c:v>
+                  <c:v>43.282964651731007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.817255831510966</c:v>
+                  <c:v>31.956164067148034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.848396087920406</c:v>
+                  <c:v>22.948147945985014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.545124320906215</c:v>
+                  <c:v>15.612991449473506</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4828922781627281</c:v>
+                  <c:v>9.5242928264083577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3701388606666338</c:v>
+                  <c:v>4.3892180761036332</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.52543370493528496</c:v>
+                  <c:v>-0.5277276510029576</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0410652164411558</c:v>
+                  <c:v>-1.045610314018617</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.5471662958533221</c:v>
+                  <c:v>-1.5539209368422446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.0439987505517641</c:v>
+                  <c:v>-2.0529224698563788</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.5318148855621856</c:v>
+                  <c:v>-2.5428683196036124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.0108579307915639</c:v>
+                  <c:v>-3.0240027778876133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.4813624454189673</c:v>
+                  <c:v>-3.496561427929195</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-3.9435547008528369</c:v>
+                  <c:v>-3.9607715289958754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.3976530435699388</c:v>
+                  <c:v>-4.4168523808245732</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.8438682390574996</c:v>
+                  <c:v>-4.8650156690656026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4935,12 +5065,12 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="12"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4950,7 +5080,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="41"/>
   </sheetPr>
@@ -5440,7 +5570,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8572500" cy="5833009"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5798,14 +5928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
   <dimension ref="A1:AM344"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="S150" sqref="S150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5980,10 +6110,10 @@
       <c r="F4" s="62">
         <v>158366.51870640452</v>
       </c>
-      <c r="G4" s="172" t="s">
+      <c r="G4" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="172"/>
+      <c r="H4" s="196"/>
       <c r="I4" s="113">
         <v>141.93</v>
       </c>
@@ -6029,10 +6159,10 @@
         <f>GrossDesignHydrogenCapacity*HydrogenHHV</f>
         <v>22476959.999999993</v>
       </c>
-      <c r="G5" s="172" t="s">
+      <c r="G5" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="172"/>
+      <c r="H5" s="196"/>
       <c r="I5" s="113">
         <v>119.98</v>
       </c>
@@ -6078,10 +6208,10 @@
         <f>HydrogenEnergy/24/3600</f>
         <v>260.14999999999992</v>
       </c>
-      <c r="G6" s="172" t="s">
+      <c r="G6" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="172"/>
+      <c r="H6" s="196"/>
       <c r="I6" s="144">
         <v>19.349843720930231</v>
       </c>
@@ -6540,10 +6670,10 @@
         <f>AnnualHydrogenProductionMg*1000</f>
         <v>52788839.568801507</v>
       </c>
-      <c r="G16" s="173" t="s">
+      <c r="G16" s="197" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="173"/>
+      <c r="H16" s="197"/>
       <c r="I16" s="143">
         <f>F16/F13</f>
         <v>82.481895660979291</v>
@@ -6887,7 +7017,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="6"/>
       <c r="I24" s="145">
-        <f>F24/F16</f>
+        <f>CapitalCost/AnnualHydrogenProductionKg</f>
         <v>3.911811695175861</v>
       </c>
       <c r="J24" s="2"/>
@@ -6929,7 +7059,7 @@
         <v>162</v>
       </c>
       <c r="F25" s="146">
-        <f>F24/F4</f>
+        <f>CapitalCost/GrossDesignHydrogenCapacity</f>
         <v>1303.9372317252871</v>
       </c>
       <c r="G25" s="15"/>
@@ -7107,7 +7237,7 @@
         <v>122</v>
       </c>
       <c r="F29" s="25">
-        <f>F28*F13</f>
+        <f>FeedstockCost*AnnualFeedstockSupply</f>
         <v>24768200.038824897</v>
       </c>
       <c r="G29" s="77"/>
@@ -7151,7 +7281,7 @@
       <c r="E30" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="206">
         <v>4</v>
       </c>
       <c r="G30" s="77"/>
@@ -7196,7 +7326,7 @@
         <v>138</v>
       </c>
       <c r="F31" s="25">
-        <f>F24*F30/100</f>
+        <f>CapitalCost*OperatingExpensesRate/100</f>
         <v>8260000</v>
       </c>
       <c r="G31" s="77"/>
@@ -7241,7 +7371,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="70">
-        <f>F29+F31</f>
+        <f>AnnualFeedstockCost+OperatingExpenses</f>
         <v>33028200.038824897</v>
       </c>
       <c r="G32" s="77"/>
@@ -7372,7 +7502,7 @@
         <v>78</v>
       </c>
       <c r="F35" s="146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -7416,7 +7546,7 @@
         <v>77</v>
       </c>
       <c r="F36" s="146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="156">
         <f>F65</f>
@@ -7463,7 +7593,7 @@
         <v>45</v>
       </c>
       <c r="F37" s="146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -7507,7 +7637,7 @@
         <v>44</v>
       </c>
       <c r="F38" s="146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -7551,7 +7681,7 @@
         <v>124</v>
       </c>
       <c r="F39" s="146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -7595,8 +7725,8 @@
         <v>6</v>
       </c>
       <c r="F40" s="70">
-        <f>SUM(F35:F39)</f>
-        <v>0</v>
+        <f>ElectricalEnergy+IncentivePayments+Capacity+Heat+Residues</f>
+        <v>10</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -7812,7 +7942,7 @@
         <v>140</v>
       </c>
       <c r="F45" s="81">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -7900,7 +8030,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="10">
-        <f>F44+F43*(1-F44/100)</f>
+        <f>StateTaxRate+FederalTaxRate*(1-StateTaxRate/100)</f>
         <v>40.138000000000005</v>
       </c>
       <c r="G47" s="6"/>
@@ -8687,12 +8817,12 @@
       <c r="F65" s="85">
         <v>15</v>
       </c>
-      <c r="G65" s="196" t="str">
+      <c r="G65" s="205" t="str">
         <f>IF(F65&lt;=30,"  30 years or fewer","  Enter 30 years or fewer!")</f>
         <v xml:space="preserve">  30 years or fewer</v>
       </c>
-      <c r="H65" s="196"/>
-      <c r="I65" s="196"/>
+      <c r="H65" s="205"/>
+      <c r="I65" s="205"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -8732,7 +8862,7 @@
         <v>80</v>
       </c>
       <c r="F66" s="73">
-        <f>F24</f>
+        <f>CapitalCost</f>
         <v>206500000</v>
       </c>
       <c r="G66" s="87"/>
@@ -8777,7 +8907,7 @@
         <v>4</v>
       </c>
       <c r="F67" s="84">
-        <f>100-F61</f>
+        <f>100-DebtRatio</f>
         <v>10</v>
       </c>
       <c r="G67" s="6"/>
@@ -8822,7 +8952,7 @@
         <v>150</v>
       </c>
       <c r="F68" s="84">
-        <f>F61/100*F62+F67/100*F64</f>
+        <f>DebtRatio/100*InterestRateOnDebt+EquityRatio/100*MARR</f>
         <v>6</v>
       </c>
       <c r="G68" s="6"/>
@@ -8867,10 +8997,10 @@
         <v>151</v>
       </c>
       <c r="F69" s="150">
-        <f>((F68/100)*(1+F68/100)^F65)/((1+F68/100)^F65-1)</f>
+        <f>((WeightedCostOfMoney/100)*(1+WeightedCostOfMoney/100)^EconomicLife)/((1+WeightedCostOfMoney/100)^EconomicLife-1)</f>
         <v>0.10296276395531262</v>
       </c>
-      <c r="G69" s="6"/>
+      <c r="G69" s="116"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="2"/>
@@ -8912,10 +9042,10 @@
         <v>152</v>
       </c>
       <c r="F70" s="84">
-        <f>((1+F68/100)/(1+F50/100)-1)*100</f>
+        <f>((1+WeightedCostOfMoney/100)/(1+GeneralInflation/100)-1)*100</f>
         <v>3.8197845249755336</v>
       </c>
-      <c r="G70" s="6"/>
+      <c r="G70" s="207"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="2"/>
@@ -8957,10 +9087,10 @@
         <v>153</v>
       </c>
       <c r="F71" s="150">
-        <f>((F70/100)*(1+F70/100)^F65)/((1+F70/100)^F65-1)</f>
+        <f>((RealCostOfMoney/100)*(1+RealCostOfMoney/100)^EconomicLife)/((1+RealCostOfMoney/100)^EconomicLife-1)</f>
         <v>8.8811407667396244E-2</v>
       </c>
-      <c r="G71" s="6"/>
+      <c r="G71" s="116"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="2"/>
@@ -9002,9 +9132,9 @@
         <v>55</v>
       </c>
       <c r="F72" s="96"/>
-      <c r="G72" s="198"/>
-      <c r="H72" s="198"/>
-      <c r="I72" s="198"/>
+      <c r="G72" s="184"/>
+      <c r="H72" s="184"/>
+      <c r="I72" s="184"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -9044,15 +9174,15 @@
         <v>61</v>
       </c>
       <c r="F73" s="8">
-        <f>F66*F61/100</f>
+        <f>AmountOfCapitalFinancing*DebtRatio/100</f>
         <v>185850000</v>
       </c>
-      <c r="G73" s="199" t="str">
+      <c r="G73" s="185" t="str">
         <f>IF((F79+F73)&lt;&gt;F66,"  Error: Does not sum to capital cost","  No error on sum")</f>
         <v xml:space="preserve">  No error on sum</v>
       </c>
-      <c r="H73" s="199"/>
-      <c r="I73" s="199"/>
+      <c r="H73" s="185"/>
+      <c r="I73" s="185"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -9092,7 +9222,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="86">
-        <f>F62/100*(1+F62/100)^F65/((1+F62/100)^F65-1)</f>
+        <f>InterestRateOnDebt/100*(1+InterestRateOnDebt/100)^EconomicLife/((1+InterestRateOnDebt/100)^EconomicLife-1)</f>
         <v>9.6342287609244348E-2</v>
       </c>
       <c r="G74" s="6"/>
@@ -9137,7 +9267,7 @@
         <v>62</v>
       </c>
       <c r="F75" s="8">
-        <f>F73*F74</f>
+        <f>TotalDebtPrincipal*CapitalRecoveryFactorDebt</f>
         <v>17905214.15217806</v>
       </c>
       <c r="G75" s="6"/>
@@ -9182,7 +9312,7 @@
         <v>92</v>
       </c>
       <c r="F76" s="8">
-        <f>F75*F65</f>
+        <f>AnnualDebtRepayment*EconomicLife</f>
         <v>268578212.28267092</v>
       </c>
       <c r="G76" s="6"/>
@@ -9227,7 +9357,7 @@
         <v>60</v>
       </c>
       <c r="F77" s="8">
-        <f>IF((OR(LEFT(F63,1)="Y",LEFT(F63,1)="y")),F75,0)</f>
+        <f>IF((OR(LEFT(OneYearDebtReserveRequired,1)="Y",LEFT(OneYearDebtReserveRequired,1)="y")),AnnualDebtRepayment,0)</f>
         <v>17905214.15217806</v>
       </c>
       <c r="G77" s="6"/>
@@ -9314,7 +9444,7 @@
         <v>57</v>
       </c>
       <c r="F79" s="8">
-        <f>F66*F67/100</f>
+        <f>AmountOfCapitalFinancing*EquityRatio/100</f>
         <v>20650000</v>
       </c>
       <c r="G79" s="6"/>
@@ -9359,10 +9489,10 @@
         <v>59</v>
       </c>
       <c r="F80" s="86">
-        <f>F64/100*(1+F64/100)^F65/((1+F64/100)^F65-1)</f>
+        <f>MARR/100*(1+MARR/100)^EconomicLife/((1+MARR/100)^EconomicLife-1)</f>
         <v>0.1710170526463011</v>
       </c>
-      <c r="G80" s="6"/>
+      <c r="G80" s="116"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="2"/>
@@ -9404,10 +9534,10 @@
         <v>63</v>
       </c>
       <c r="F81" s="8">
-        <f>F79*F80</f>
+        <f>TotalEquityPrincipal*CapitalRecoveryFactorEquity</f>
         <v>3531502.1371461176</v>
       </c>
-      <c r="G81" s="6"/>
+      <c r="G81" s="208"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="2"/>
@@ -9449,10 +9579,10 @@
         <v>134</v>
       </c>
       <c r="F82" s="8">
-        <f>F81*F65</f>
+        <f>AnnualEquityRepayment*EconomicLife</f>
         <v>52972532.057191767</v>
       </c>
-      <c r="G82" s="6"/>
+      <c r="G82" s="208"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="2"/>
@@ -9494,10 +9624,10 @@
         <v>170</v>
       </c>
       <c r="F83" s="84">
-        <f>((1+F64/100)/(1+F50/100)-1)*100</f>
+        <f>((1+MARR/100)/(1+GeneralInflation/100)-1)*100</f>
         <v>12.634671890303629</v>
       </c>
-      <c r="G83" s="6"/>
+      <c r="G83" s="207"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="2"/>
@@ -9539,10 +9669,10 @@
         <v>171</v>
       </c>
       <c r="F84" s="150">
-        <f>((F83/100)*(1+F83/100)^F65)/((1+F83/100)^F65-1)</f>
+        <f>((RealCostOfEquityConstant/100)*(1+RealCostOfEquityConstant/100)^EconomicLife)/((1+RealCostOfEquityConstant/100)^EconomicLife-1)</f>
         <v>0.15183146481647911</v>
       </c>
-      <c r="G84" s="6"/>
+      <c r="G84" s="116"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="2"/>
@@ -9626,7 +9756,7 @@
         <v>133</v>
       </c>
       <c r="F86" s="8">
-        <f>F75+F81</f>
+        <f>AnnualDebtRepayment+AnnualEquityRepayment</f>
         <v>21436716.289324179</v>
       </c>
       <c r="G86" s="6"/>
@@ -9671,7 +9801,7 @@
         <v>135</v>
       </c>
       <c r="F87" s="8">
-        <f>F76+F82</f>
+        <f>TotalDebtRepayment+TotalEquityRepayment</f>
         <v>321550744.3398627</v>
       </c>
       <c r="G87" s="6"/>
@@ -9844,7 +9974,7 @@
         <v>65</v>
       </c>
       <c r="F91" s="8">
-        <f>F77*F90/100</f>
+        <f>DebtReserve*InterestRateOnDebtReserve/100</f>
         <v>358104.28304356121</v>
       </c>
       <c r="G91" s="6"/>
@@ -9964,14 +10094,14 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="193"/>
-      <c r="C94" s="193"/>
-      <c r="D94" s="193"/>
-      <c r="E94" s="197" t="s">
+      <c r="B94" s="192"/>
+      <c r="C94" s="192"/>
+      <c r="D94" s="192"/>
+      <c r="E94" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="F94" s="197"/>
-      <c r="G94" s="197"/>
+      <c r="F94" s="195"/>
+      <c r="G94" s="195"/>
       <c r="H94" s="26">
         <f>F66</f>
         <v>206500000</v>
@@ -10009,15 +10139,15 @@
     </row>
     <row r="95" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="194" t="s">
+      <c r="B95" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="194"/>
-      <c r="D95" s="194"/>
-      <c r="E95" s="195"/>
-      <c r="F95" s="195"/>
-      <c r="G95" s="195"/>
-      <c r="H95" s="195"/>
+      <c r="C95" s="193"/>
+      <c r="D95" s="193"/>
+      <c r="E95" s="194"/>
+      <c r="F95" s="194"/>
+      <c r="G95" s="194"/>
+      <c r="H95" s="194"/>
       <c r="I95" s="122"/>
       <c r="J95" s="7"/>
       <c r="K95" s="6"/>
@@ -10051,19 +10181,19 @@
     </row>
     <row r="96" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
-      <c r="B96" s="200" t="s">
+      <c r="B96" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="201"/>
-      <c r="D96" s="201"/>
-      <c r="E96" s="180" t="str">
+      <c r="C96" s="187"/>
+      <c r="D96" s="187"/>
+      <c r="E96" s="188" t="str">
         <f>IF(F65&gt;30,"Error: Economic life greater than 30 years, depreciation cannot be computed","")</f>
         <v/>
       </c>
-      <c r="F96" s="180"/>
-      <c r="G96" s="180"/>
-      <c r="H96" s="180"/>
-      <c r="I96" s="180"/>
+      <c r="F96" s="188"/>
+      <c r="G96" s="188"/>
+      <c r="H96" s="188"/>
+      <c r="I96" s="188"/>
       <c r="J96" s="7"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -10096,19 +10226,19 @@
     </row>
     <row r="97" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" s="200" t="s">
+      <c r="B97" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="C97" s="201"/>
-      <c r="D97" s="201"/>
-      <c r="E97" s="180" t="str">
+      <c r="C97" s="187"/>
+      <c r="D97" s="187"/>
+      <c r="E97" s="188" t="str">
         <f>IF(C98=1,IF(F65&lt;6,"Will not fully depreciate for economic life chosen! Enter life of 6 years or greater.",""),IF(C98=2,IF(F65&lt;11,"Will not fully depreciate for economic life chosen! Enter life of 11 years or greater",""),""))</f>
         <v/>
       </c>
-      <c r="F97" s="180"/>
-      <c r="G97" s="180"/>
-      <c r="H97" s="180"/>
-      <c r="I97" s="180"/>
+      <c r="F97" s="188"/>
+      <c r="G97" s="188"/>
+      <c r="H97" s="188"/>
+      <c r="I97" s="188"/>
       <c r="J97" s="7"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -10145,10 +10275,10 @@
       <c r="C98" s="118">
         <v>3</v>
       </c>
-      <c r="D98" s="181" t="s">
+      <c r="D98" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="E98" s="181"/>
+      <c r="E98" s="204"/>
       <c r="F98" s="121"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -10289,7 +10419,7 @@
     </row>
     <row r="100" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="202" t="s">
+      <c r="B100" s="189" t="s">
         <v>54</v>
       </c>
       <c r="C100" s="120">
@@ -10353,7 +10483,7 @@
     </row>
     <row r="101" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
-      <c r="B101" s="202"/>
+      <c r="B101" s="189"/>
       <c r="C101" s="120">
         <v>2</v>
       </c>
@@ -10425,7 +10555,7 @@
     </row>
     <row r="102" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="202"/>
+      <c r="B102" s="189"/>
       <c r="C102" s="120">
         <v>3</v>
       </c>
@@ -10568,7 +10698,7 @@
     </row>
     <row r="103" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="202"/>
+      <c r="B103" s="189"/>
       <c r="C103" s="120">
         <v>4</v>
       </c>
@@ -10818,7 +10948,10 @@
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="91"/>
-      <c r="G105" s="2"/>
+      <c r="G105" s="2">
+        <f>1/EconomicLife</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -11336,11 +11469,11 @@
       </c>
       <c r="F112" s="108"/>
       <c r="G112" s="8">
-        <f t="shared" ref="G112:AJ112" si="5">IF(G111&lt;=$F$65,$F$81,0)</f>
+        <f>IF(G111&lt;=$F$65,AnnualEquityRepayment,0)</f>
         <v>3531502.1371461176</v>
       </c>
       <c r="H112" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G112:AJ112" si="5">IF(H111&lt;=$F$65,$F$81,0)</f>
         <v>3531502.1371461176</v>
       </c>
       <c r="I112" s="8">
@@ -11471,11 +11604,11 @@
       </c>
       <c r="F113" s="108"/>
       <c r="G113" s="8">
-        <f>IF(G111&lt;=$F$65,F79*$F$64/100,0)</f>
+        <f>IF(G111&lt;=$F$65,TotalEquityPrincipal*MARR/100,0)</f>
         <v>3097500</v>
       </c>
       <c r="H113" s="8">
-        <f>IF(H111&lt;=$F$65,$F$64/100*G115,0)</f>
+        <f>IF(H111&lt;=$F$65,MARR/100*EquityPrincipalRemaining,0)</f>
         <v>3032399.679428082</v>
       </c>
       <c r="I113" s="8">
@@ -11606,7 +11739,7 @@
       </c>
       <c r="F114" s="108"/>
       <c r="G114" s="8">
-        <f>IF(G111&lt;=$F$65,G112-G113,0)</f>
+        <f>IF(G111&lt;=$F$65,EquityRecovery-EquityInterest,0)</f>
         <v>434002.13714611763</v>
       </c>
       <c r="H114" s="8">
@@ -11741,7 +11874,7 @@
       </c>
       <c r="F115" s="108"/>
       <c r="G115" s="8">
-        <f>IF(G111&lt;=$F$65,F79-G114,0)</f>
+        <f>IF(G111&lt;=$F$65,TotalEquityPrincipal-EquityPrincipalPaid,0)</f>
         <v>20215997.862853881</v>
       </c>
       <c r="H115" s="8">
@@ -11875,11 +12008,11 @@
       </c>
       <c r="F116" s="108"/>
       <c r="G116" s="8">
-        <f t="shared" ref="G116:AJ116" si="9">IF(G111&lt;=$F$65,$F$75,0)</f>
+        <f>IF(G111&lt;=$F$65,AnnualDebtRepayment,0)</f>
         <v>17905214.15217806</v>
       </c>
       <c r="H116" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="G116:AJ116" si="9">IF(H111&lt;=$F$65,$F$75,0)</f>
         <v>17905214.15217806</v>
       </c>
       <c r="I116" s="8">
@@ -12011,7 +12144,7 @@
       </c>
       <c r="F117" s="108"/>
       <c r="G117" s="8">
-        <f>IF(G111&lt;=$F$65,$F$62/100*F73,0)</f>
+        <f>IF(G111&lt;=$F$65,InterestRateOnDebt/100*TotalDebtPrincipal,0)</f>
         <v>9292500</v>
       </c>
       <c r="H117" s="8">
@@ -12147,7 +12280,7 @@
       </c>
       <c r="F118" s="108"/>
       <c r="G118" s="8">
-        <f>IF(G111&lt;=$F$65,G116-G117,"")</f>
+        <f>IF(G111&lt;=$F$65,DebtRecovery-DebtInterest,"")</f>
         <v>8612714.1521780603</v>
       </c>
       <c r="H118" s="8">
@@ -12283,7 +12416,7 @@
       </c>
       <c r="F119" s="108"/>
       <c r="G119" s="8">
-        <f>IF(G111&lt;=$F$65,$F$73-G118,0)</f>
+        <f>IF(G111&lt;=EconomicLife,TotalDebtPrincipal-DebtPrincipalPaid,0)</f>
         <v>177237285.84782195</v>
       </c>
       <c r="H119" s="8">
@@ -12418,15 +12551,15 @@
       </c>
       <c r="F120" s="108"/>
       <c r="G120" s="8">
-        <f>IF(G111&lt;=$F$65,F29,0)</f>
+        <f>IF(G111&lt;=$F$65,AnnualFeedstockCost,0)</f>
         <v>24768200.038824897</v>
       </c>
       <c r="H120" s="8">
-        <f t="shared" ref="H120:AJ120" si="13">IF(H111&lt;=$F$65,$G$120*(1+$F$51/100)^(H111-1),0)</f>
+        <f>IF(H111&lt;=$F$65,FuelCost*(1+EscalationFeedstock/100)^(H111-1),0)</f>
         <v>25288332.239640217</v>
       </c>
       <c r="I120" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H120:AJ120" si="13">IF(I111&lt;=$F$65,$G$120*(1+$F$51/100)^(I111-1),0)</f>
         <v>25819387.216672659</v>
       </c>
       <c r="J120" s="8">
@@ -12554,15 +12687,15 @@
       </c>
       <c r="F121" s="108"/>
       <c r="G121" s="8">
-        <f>IF(G111&lt;=$F$65,F31,0)</f>
+        <f>IF(G111&lt;=$F$65,OperatingExpenses,0)</f>
         <v>8260000</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" ref="H121:AJ121" si="14">IF(H111&lt;=$F$65,$G$121*(1+$F$58/100)^(H111-1),0)</f>
+        <f>IF(H111&lt;=$F$65,NonFuelExpenses*(1+EscalationOther/100)^(H111-1),0)</f>
         <v>8433460</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H121:AJ121" si="14">IF(I111&lt;=$F$65,$G$121*(1+$F$58/100)^(I111-1),0)</f>
         <v>8610562.6599999983</v>
       </c>
       <c r="J121" s="8">
@@ -12690,7 +12823,7 @@
       </c>
       <c r="F122" s="108"/>
       <c r="G122" s="8">
-        <f>IF(G111&lt;=$F$65,$F$77,0)</f>
+        <f>IF(G111&lt;=$F$65,DebtReserve,0)</f>
         <v>17905214.15217806</v>
       </c>
       <c r="H122" s="8">
@@ -12826,7 +12959,7 @@
       </c>
       <c r="F123" s="108"/>
       <c r="G123" s="8">
-        <f>IF(G111&lt;=$F$65,SUM(G120:G121),0)</f>
+        <f>IF(G111&lt;=$F$65,FuelCost+NonFuelExpenses,0)</f>
         <v>33028200.038824897</v>
       </c>
       <c r="H123" s="8">
@@ -12962,11 +13095,11 @@
       </c>
       <c r="F124" s="108"/>
       <c r="G124" s="8">
-        <f t="shared" ref="G124:AJ124" si="18">IF(G111&lt;=$F$65,$H$94*G104,0)</f>
+        <f>IF(G111&lt;=$F$65,AmountOfCapitalFinancing*G104,0)</f>
         <v>13766666.666666666</v>
       </c>
       <c r="H124" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G124:AJ124" si="18">IF(H111&lt;=$F$65,$H$94*H104,0)</f>
         <v>13766666.666666666</v>
       </c>
       <c r="I124" s="8">
@@ -13097,65 +13230,65 @@
         <v>90</v>
       </c>
       <c r="F125" s="108"/>
-      <c r="G125" s="8">
-        <f>IF(G111&lt;=$F$65,F35,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="8">
-        <f t="shared" ref="H125:AJ125" si="19">IF(H111&lt;=$F$65,$G$125*(1+$F$52/100)^(H111-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="8">
+      <c r="G125" s="209">
+        <f>IF(G111&lt;=$F$65,ElectricalEnergy,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H125" s="209">
+        <f>IF(H111&lt;=$F$65,IncomeElectricalEnergy*(1+EscalationElectricalEnergy/100)^(H111-1),0)</f>
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="I125" s="209">
+        <f t="shared" ref="H125:AJ125" si="19">IF(I111&lt;=$F$65,$G$125*(1+$F$52/100)^(I111-1),0)</f>
+        <v>2.0848819999999995</v>
+      </c>
+      <c r="J125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="8">
+        <v>2.1286645219999993</v>
+      </c>
+      <c r="K125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="8">
+        <v>2.1733664769619989</v>
+      </c>
+      <c r="L125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="8">
+        <v>2.2190071729782006</v>
+      </c>
+      <c r="M125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="8">
+        <v>2.2656063236107427</v>
+      </c>
+      <c r="N125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="8">
+        <v>2.313184056406568</v>
+      </c>
+      <c r="O125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O125" s="8">
+        <v>2.3617609215911055</v>
+      </c>
+      <c r="P125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P125" s="8">
+        <v>2.4113579009445183</v>
+      </c>
+      <c r="Q125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="8">
+        <v>2.4619964168643529</v>
+      </c>
+      <c r="R125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="8">
+        <v>2.5136983416185044</v>
+      </c>
+      <c r="S125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S125" s="8">
+        <v>2.5664860067924922</v>
+      </c>
+      <c r="T125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T125" s="8">
+        <v>2.6203822129351342</v>
+      </c>
+      <c r="U125" s="209">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U125" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.675410239406772</v>
       </c>
       <c r="V125" s="8">
         <f t="shared" si="19"/>
@@ -13219,7 +13352,7 @@
       </c>
       <c r="AK125" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>34.837802592110393</v>
       </c>
       <c r="AL125" s="9"/>
       <c r="AM125" s="29"/>
@@ -13233,65 +13366,65 @@
         <v>74</v>
       </c>
       <c r="F126" s="108"/>
-      <c r="G126" s="8">
-        <f>IF(G111&lt;=$F$65,IF(G111&lt;=$G$36,F36,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H126" s="8">
-        <f t="shared" ref="H126:AJ126" si="20">IF(H111&lt;=$F$65,IF(H111&lt;=$G$36,$G$126*(1+$F$53/100)^(H111-1),0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I126" s="8">
+      <c r="G126" s="209">
+        <f>IF(G111&lt;=$F$65,IF(G111&lt;=$G$36,IncentivePayments,0),0)</f>
+        <v>2</v>
+      </c>
+      <c r="H126" s="209">
+        <f>IF(H111&lt;=$F$65,IF(H111&lt;=$G$36,$G$126*(1+$F$53/100)^(H111-1),0),0)</f>
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="I126" s="209">
+        <f t="shared" ref="H126:AJ126" si="20">IF(I111&lt;=$F$65,IF(I111&lt;=$G$36,$G$126*(1+$F$53/100)^(I111-1),0),0)</f>
+        <v>2.0848819999999995</v>
+      </c>
+      <c r="J126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="8">
+        <v>2.1286645219999993</v>
+      </c>
+      <c r="K126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K126" s="8">
+        <v>2.1733664769619989</v>
+      </c>
+      <c r="L126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="8">
+        <v>2.2190071729782006</v>
+      </c>
+      <c r="M126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="8">
+        <v>2.2656063236107427</v>
+      </c>
+      <c r="N126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N126" s="8">
+        <v>2.313184056406568</v>
+      </c>
+      <c r="O126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O126" s="8">
+        <v>2.3617609215911055</v>
+      </c>
+      <c r="P126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P126" s="8">
+        <v>2.4113579009445183</v>
+      </c>
+      <c r="Q126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q126" s="8">
+        <v>2.4619964168643529</v>
+      </c>
+      <c r="R126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R126" s="8">
+        <v>2.5136983416185044</v>
+      </c>
+      <c r="S126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S126" s="8">
+        <v>2.5664860067924922</v>
+      </c>
+      <c r="T126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T126" s="8">
+        <v>2.6203822129351342</v>
+      </c>
+      <c r="U126" s="209">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.675410239406772</v>
       </c>
       <c r="V126" s="8">
         <f t="shared" si="20"/>
@@ -13355,7 +13488,7 @@
       </c>
       <c r="AK126" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>34.837802592110393</v>
       </c>
       <c r="AL126" s="9"/>
       <c r="AM126" s="29"/>
@@ -13369,65 +13502,65 @@
         <v>29</v>
       </c>
       <c r="F127" s="108"/>
-      <c r="G127" s="8">
-        <f>IF(G111&lt;=$F$65,F37,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="8">
+      <c r="G127" s="209">
+        <f>IF(G111&lt;=$F$65,Capacity,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H127" s="209">
         <f t="shared" ref="H127:AJ127" si="21">IF(H111&lt;=$F$65,$G$127*(1+$F$54/100)^(H$111-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I127" s="8">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="I127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="8">
+        <v>2.0848819999999995</v>
+      </c>
+      <c r="J127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="8">
+        <v>2.1286645219999993</v>
+      </c>
+      <c r="K127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="8">
+        <v>2.1733664769619989</v>
+      </c>
+      <c r="L127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M127" s="8">
+        <v>2.2190071729782006</v>
+      </c>
+      <c r="M127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N127" s="8">
+        <v>2.2656063236107427</v>
+      </c>
+      <c r="N127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O127" s="8">
+        <v>2.313184056406568</v>
+      </c>
+      <c r="O127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P127" s="8">
+        <v>2.3617609215911055</v>
+      </c>
+      <c r="P127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q127" s="8">
+        <v>2.4113579009445183</v>
+      </c>
+      <c r="Q127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="R127" s="8">
+        <v>2.4619964168643529</v>
+      </c>
+      <c r="R127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S127" s="8">
+        <v>2.5136983416185044</v>
+      </c>
+      <c r="S127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T127" s="8">
+        <v>2.5664860067924922</v>
+      </c>
+      <c r="T127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U127" s="8">
+        <v>2.6203822129351342</v>
+      </c>
+      <c r="U127" s="209">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.675410239406772</v>
       </c>
       <c r="V127" s="8">
         <f t="shared" si="21"/>
@@ -13491,7 +13624,7 @@
       </c>
       <c r="AK127" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>34.837802592110393</v>
       </c>
       <c r="AL127" s="9"/>
       <c r="AM127" s="29"/>
@@ -13505,65 +13638,65 @@
         <v>30</v>
       </c>
       <c r="F128" s="108"/>
-      <c r="G128" s="8">
-        <f>IF(G111&lt;=$F$65,F38,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="8">
+      <c r="G128" s="209">
+        <f>IF(G111&lt;=$F$65,Heat,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H128" s="209">
         <f t="shared" ref="H128:AJ128" si="22">IF(H111&lt;=$F$65,$G128*(1+$F$56/100)^(H$111-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I128" s="8">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="I128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="8">
+        <v>2.0848819999999995</v>
+      </c>
+      <c r="J128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K128" s="8">
+        <v>2.1286645219999993</v>
+      </c>
+      <c r="K128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L128" s="8">
+        <v>2.1733664769619989</v>
+      </c>
+      <c r="L128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="8">
+        <v>2.2190071729782006</v>
+      </c>
+      <c r="M128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="8">
+        <v>2.2656063236107427</v>
+      </c>
+      <c r="N128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O128" s="8">
+        <v>2.313184056406568</v>
+      </c>
+      <c r="O128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P128" s="8">
+        <v>2.3617609215911055</v>
+      </c>
+      <c r="P128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q128" s="8">
+        <v>2.4113579009445183</v>
+      </c>
+      <c r="Q128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R128" s="8">
+        <v>2.4619964168643529</v>
+      </c>
+      <c r="R128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S128" s="8">
+        <v>2.5136983416185044</v>
+      </c>
+      <c r="S128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T128" s="8">
+        <v>2.5664860067924922</v>
+      </c>
+      <c r="T128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="8">
+        <v>2.6203822129351342</v>
+      </c>
+      <c r="U128" s="209">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.675410239406772</v>
       </c>
       <c r="V128" s="8">
         <f t="shared" si="22"/>
@@ -13627,7 +13760,7 @@
       </c>
       <c r="AK128" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>34.837802592110393</v>
       </c>
       <c r="AL128" s="9"/>
       <c r="AM128" s="29"/>
@@ -13641,65 +13774,65 @@
         <v>139</v>
       </c>
       <c r="F129" s="108"/>
-      <c r="G129" s="8">
-        <f>IF(G111&lt;=$F$65,F39,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="8">
+      <c r="G129" s="209">
+        <f>IF(G111&lt;=$F$65,Residues,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H129" s="209">
         <f t="shared" ref="H129:AJ129" si="23">IF(H111&lt;=$F$65,$G$129*(1+$F$57/100)^(H$111-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I129" s="8">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="I129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="8">
+        <v>2.0848819999999995</v>
+      </c>
+      <c r="J129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K129" s="8">
+        <v>2.1286645219999993</v>
+      </c>
+      <c r="K129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L129" s="8">
+        <v>2.1733664769619989</v>
+      </c>
+      <c r="L129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M129" s="8">
+        <v>2.2190071729782006</v>
+      </c>
+      <c r="M129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="8">
+        <v>2.2656063236107427</v>
+      </c>
+      <c r="N129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="O129" s="8">
+        <v>2.313184056406568</v>
+      </c>
+      <c r="O129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="P129" s="8">
+        <v>2.3617609215911055</v>
+      </c>
+      <c r="P129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Q129" s="8">
+        <v>2.4113579009445183</v>
+      </c>
+      <c r="Q129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R129" s="8">
+        <v>2.4619964168643529</v>
+      </c>
+      <c r="R129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S129" s="8">
+        <v>2.5136983416185044</v>
+      </c>
+      <c r="S129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T129" s="8">
+        <v>2.5664860067924922</v>
+      </c>
+      <c r="T129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U129" s="8">
+        <v>2.6203822129351342</v>
+      </c>
+      <c r="U129" s="209">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2.675410239406772</v>
       </c>
       <c r="V129" s="8">
         <f t="shared" si="23"/>
@@ -13763,7 +13896,7 @@
       </c>
       <c r="AK129" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>34.837802592110393</v>
       </c>
       <c r="AL129" s="9"/>
       <c r="AM129" s="29"/>
@@ -13778,11 +13911,11 @@
       </c>
       <c r="F130" s="108"/>
       <c r="G130" s="8">
-        <f t="shared" ref="G130:AJ130" si="24">IF(G111&lt;=$F$65,$F$91,0)</f>
+        <f>IF(G111&lt;=$F$65,AnnualDebtReserveInterest,0)</f>
         <v>358104.28304356121</v>
       </c>
       <c r="H130" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="G130:AJ130" si="24">IF(H111&lt;=$F$65,$F$91,0)</f>
         <v>358104.28304356121</v>
       </c>
       <c r="I130" s="8">
@@ -13914,7 +14047,7 @@
       </c>
       <c r="F131" s="108"/>
       <c r="G131" s="8">
-        <f>IF(G111&lt;=$F$65,(($F$47/100)/(1-($F$47/100)))*(G$114+G$118+G$113-G$124+G$122),0)</f>
+        <f>IF(G111&lt;=$F$65,(($F$47/100)/(1-(CombinedTaxRate/100)))*(EquityPrincipalPaid+DebtPrincipalPaid+EquityInterest-Depreciation+DebtReserve1),0)</f>
         <v>10917737.001676362</v>
       </c>
       <c r="H131" s="8">
@@ -14050,24 +14183,24 @@
       </c>
       <c r="F132" s="108"/>
       <c r="G132" s="8">
-        <f>IF(G111&lt;=$F$65,$F$17*$F$45*G108/100,0)</f>
-        <v>0</v>
+        <f>IF(G111&lt;=$F$65,AnnualHydrogenEnergy*ProductionTaxCredit*G108/100,0)</f>
+        <v>674308.79999999981</v>
       </c>
       <c r="H132" s="8">
-        <f t="shared" ref="H132:AJ132" si="26">IF(H111&lt;=$F$65,$F$17*$F$45*((1+$F$55/100)^(H111-1))*H108/100,0)</f>
-        <v>0</v>
+        <f>IF(H111&lt;=$F$65,AnnualHydrogenEnergy*$F$45*((1+$F$55/100)^(H111-1))*H108/100,0)</f>
+        <v>688469.28479999979</v>
       </c>
       <c r="I132" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" ref="H132:AJ132" si="26">IF(I111&lt;=$F$65,$F$17*$F$45*((1+$F$55/100)^(I111-1))*I108/100,0)</f>
+        <v>702927.13978079963</v>
       </c>
       <c r="J132" s="8">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>717688.60971619631</v>
       </c>
       <c r="K132" s="8">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>732760.07052023639</v>
       </c>
       <c r="L132" s="8">
         <f t="shared" si="26"/>
@@ -14171,7 +14304,7 @@
       </c>
       <c r="AK132" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3516153.9048172319</v>
       </c>
       <c r="AL132" s="9"/>
       <c r="AM132" s="29"/>
@@ -14189,24 +14322,24 @@
         <v>Yes</v>
       </c>
       <c r="G133" s="8">
-        <f>IF(G111&lt;=$F$65,IF((G131-G132)&lt;0,IF(OR(LEFT($F$46,1)="Y",LEFT($F$46,1)="y"),(($F$47/100)/(1-($F$47/100)))*(G$114+G$118+G$113-G$124+G$122-G$132),0),(($F$47/100)/(1-($F$47/100)))*(G$114+G$118+G$113-G$124+G$122-G$132)),0)</f>
-        <v>10917737.001676362</v>
+        <f>IF(G111&lt;=$F$65,IF((TaxesWoCredit-TaxCredit)&lt;0,IF(OR(LEFT($F$46,1)="Y",LEFT($F$46,1)="y"),((CombinedTaxRate/100)/(1-(CombinedTaxRate/100)))*(EquityPrincipalPaid+DebtPrincipalPaid+EquityInterest-Depreciation+DebtReserve1-TaxCredit),0),((CombinedTaxRate/100)/(1-(CombinedTaxRate/100)))*(EquityPrincipalPaid+DebtPrincipalPaid+EquityInterest-Depreciation+DebtReserve1-TaxCredit)),0)</f>
+        <v>10465606.992415061</v>
       </c>
       <c r="H133" s="8">
         <f t="shared" ref="H133:AJ133" si="27">IF(H111&lt;=$F$65,IF((H131-H132)&lt;0,IF(OR(LEFT($F$46,1)="Y",LEFT($F$46,1)="y"),(($F$47/100)/(1-($F$47/100)))*(H$114+H$118+H$113-H$124+H$122-H$132),0),(($F$47/100)/(1-($F$47/100)))*(H$114+H$118+H$113-H$124+H$122-H$132)),0)</f>
-        <v>-799122.26811277075</v>
+        <v>-1260747.0075685591</v>
       </c>
       <c r="I133" s="8">
         <f t="shared" si="27"/>
-        <v>-495939.9682630098</v>
+        <v>-967258.82724736957</v>
       </c>
       <c r="J133" s="8">
         <f t="shared" si="27"/>
-        <v>-177598.55342075852</v>
+        <v>-658815.10844378977</v>
       </c>
       <c r="K133" s="8">
         <f t="shared" si="27"/>
-        <v>156659.93216360389</v>
+        <v>-334662.17051491101</v>
       </c>
       <c r="L133" s="8">
         <f t="shared" si="27"/>
@@ -14310,7 +14443,7 @@
       </c>
       <c r="AK133" s="32">
         <f t="shared" si="15"/>
-        <v>21672543.378296018</v>
+        <v>19314931.112893023</v>
       </c>
       <c r="AL133" s="9"/>
       <c r="AM133" s="29"/>
@@ -14325,64 +14458,64 @@
       </c>
       <c r="F134" s="126"/>
       <c r="G134" s="35">
-        <f>IF(G111&lt;=$F$65,G112+G116+G120+G121+G122+G133-G125-G126-G127-G128-G129-G130,0)</f>
-        <v>82929763.198959947</v>
+        <f>IF(G111&lt;=$F$65,EquityRecovery+DebtRecovery+FuelCost+NonFuelExpenses+DebtReserve1+Taxes-G125-G126-G127-G128-G129-InterestOnDebtReserve,0)</f>
+        <v>82477623.189698637</v>
       </c>
       <c r="H134" s="35">
         <f t="shared" ref="H134:AJ134" si="28">IF(H111&lt;=$F$65,H112+H116+H120+H121+H122+H133-H125-H126-H127-H128-H129-H130,0)</f>
-        <v>54001281.977808066</v>
+        <v>53539647.028352261</v>
       </c>
       <c r="I134" s="35">
         <f t="shared" si="28"/>
-        <v>55012621.914690264</v>
+        <v>54541292.631295912</v>
       </c>
       <c r="J134" s="35">
         <f t="shared" si="28"/>
-        <v>56053992.276942633</v>
+        <v>55572765.078596987</v>
       </c>
       <c r="K134" s="35">
         <f t="shared" si="28"/>
-        <v>57126463.317832731</v>
+        <v>56635130.348321818</v>
       </c>
       <c r="L134" s="35">
         <f t="shared" si="28"/>
-        <v>58231149.746663466</v>
+        <v>58231138.651627608</v>
       </c>
       <c r="M134" s="35">
         <f t="shared" si="28"/>
-        <v>59369212.761385687</v>
+        <v>59369201.43335408</v>
       </c>
       <c r="N134" s="35">
         <f t="shared" si="28"/>
-        <v>60541862.178847432</v>
+        <v>60541850.612927169</v>
       </c>
       <c r="O134" s="35">
         <f t="shared" si="28"/>
-        <v>61750358.667477719</v>
+        <v>61750346.858673111</v>
       </c>
       <c r="P134" s="35">
         <f t="shared" si="28"/>
-        <v>62996016.087441213</v>
+        <v>62996004.030651703</v>
       </c>
       <c r="Q134" s="35">
         <f t="shared" si="28"/>
-        <v>64280203.943549484</v>
+        <v>64280191.633567415</v>
       </c>
       <c r="R134" s="35">
         <f t="shared" si="28"/>
-        <v>65604349.956477873</v>
+        <v>65604337.387986176</v>
       </c>
       <c r="S134" s="35">
         <f t="shared" si="28"/>
-        <v>66969942.758111671</v>
+        <v>66969929.925681666</v>
       </c>
       <c r="T134" s="35">
         <f t="shared" si="28"/>
-        <v>68378534.7171354</v>
+        <v>68378521.615224302</v>
       </c>
       <c r="U134" s="35">
         <f t="shared" si="28"/>
-        <v>39920926.431838877</v>
+        <v>39920913.054787673</v>
       </c>
       <c r="V134" s="35">
         <f t="shared" si="28"/>
@@ -14446,7 +14579,7 @@
       </c>
       <c r="AK134" s="151">
         <f t="shared" si="15"/>
-        <v>913166679.93516254</v>
+        <v>910808893.48074651</v>
       </c>
       <c r="AL134" s="9"/>
       <c r="AM134" s="29"/>
@@ -14462,63 +14595,63 @@
       <c r="F135" s="125"/>
       <c r="G135" s="106">
         <f>IF(G111&lt;=$F$65,G134*(1+$F$64/100)^-G111,0)</f>
-        <v>72112837.564313009</v>
+        <v>71719672.33886838</v>
       </c>
       <c r="H135" s="106">
         <f>IF(H111&lt;=$F$65,H134*(1+$F$64/100)^-H111,0)</f>
-        <v>40832727.393427655</v>
+        <v>40483665.049793772</v>
       </c>
       <c r="I135" s="106">
         <f t="shared" ref="I135:AJ135" si="29">IF(I111&lt;=$F$65,I134*(1+$F$64/100)^-I111,0)</f>
-        <v>36171691.89755258</v>
+        <v>35861785.242900252</v>
       </c>
       <c r="J135" s="106">
         <f t="shared" si="29"/>
-        <v>32049052.01278878</v>
+        <v>31773908.800267015</v>
       </c>
       <c r="K135" s="106">
         <f t="shared" si="29"/>
-        <v>28401948.53149759</v>
+        <v>28157669.209771741</v>
       </c>
       <c r="L135" s="106">
         <f t="shared" si="29"/>
-        <v>25174932.977140855</v>
+        <v>25174928.180450678</v>
       </c>
       <c r="M135" s="106">
         <f t="shared" si="29"/>
-        <v>22319086.108079635</v>
+        <v>22319081.849452965</v>
       </c>
       <c r="N135" s="106">
         <f t="shared" si="29"/>
-        <v>19791242.138215426</v>
+        <v>19791238.357295576</v>
       </c>
       <c r="O135" s="106">
         <f t="shared" si="29"/>
-        <v>17553305.899161335</v>
+        <v>17553302.542362057</v>
       </c>
       <c r="P135" s="106">
         <f t="shared" si="29"/>
-        <v>15571651.72342249</v>
+        <v>15571648.743168518</v>
       </c>
       <c r="Q135" s="106">
         <f t="shared" si="29"/>
-        <v>13816594.192382507</v>
+        <v>13816591.546435289</v>
       </c>
       <c r="R135" s="106">
         <f t="shared" si="29"/>
-        <v>12261922.09021401</v>
+        <v>12261919.741073046</v>
       </c>
       <c r="S135" s="106">
         <f t="shared" si="29"/>
-        <v>10884487.955724182</v>
+        <v>10884485.870095555</v>
       </c>
       <c r="T135" s="106">
         <f t="shared" si="29"/>
-        <v>9663846.5466312207</v>
+        <v>9663844.6949557085</v>
       </c>
       <c r="U135" s="106">
         <f t="shared" si="29"/>
-        <v>4906061.7027609497</v>
+        <v>4906060.058795128</v>
       </c>
       <c r="V135" s="106">
         <f t="shared" si="29"/>
@@ -14582,7 +14715,7 @@
       </c>
       <c r="AK135" s="32">
         <f t="shared" si="15"/>
-        <v>361511388.73331219</v>
+        <v>359939802.22568578</v>
       </c>
       <c r="AL135" s="9"/>
       <c r="AM135" s="29"/>
@@ -14597,7 +14730,7 @@
       </c>
       <c r="F136" s="107">
         <f>SUM(G135:AJ135)</f>
-        <v>361511388.73331219</v>
+        <v>359939802.22568578</v>
       </c>
       <c r="G136" s="152" t="str">
         <f>IF(F136&lt;&gt;AK135,"  Error on sum","  No error on sum")</f>
@@ -14644,8 +14777,8 @@
         <v>142</v>
       </c>
       <c r="F137" s="107">
-        <f>F136*F80</f>
-        <v>61824612.199242271</v>
+        <f>F136*CapitalRecoveryFactorEquity</f>
+        <v>61555844.106729306</v>
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
@@ -14689,8 +14822,8 @@
         <v>145</v>
       </c>
       <c r="F138" s="107">
-        <f>F136*F84</f>
-        <v>54888803.699218392</v>
+        <f>F136*CapitalRecoveryFactorEquityConstant</f>
+        <v>54650187.41767966</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
@@ -14735,7 +14868,7 @@
       </c>
       <c r="F139" s="155">
         <f>F137/F16</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
@@ -14780,7 +14913,7 @@
       </c>
       <c r="F140" s="155">
         <f>F138/F16</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
@@ -14825,7 +14958,7 @@
       </c>
       <c r="F141" s="155">
         <f>F137/F17</f>
-        <v>8.2517313995187447</v>
+        <v>8.2158589204317654</v>
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
@@ -14870,7 +15003,7 @@
       </c>
       <c r="F142" s="155">
         <f>F138/F17</f>
-        <v>7.3260089931047263</v>
+        <v>7.2941608764280854</v>
       </c>
       <c r="G142" s="131"/>
       <c r="H142" s="35"/>
@@ -15036,21 +15169,21 @@
       <c r="C146" s="135"/>
       <c r="D146" s="135"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="174" t="s">
+      <c r="F146" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="G146" s="175"/>
-      <c r="H146" s="175"/>
-      <c r="I146" s="175"/>
-      <c r="J146" s="175"/>
-      <c r="K146" s="175"/>
-      <c r="L146" s="175"/>
-      <c r="M146" s="175"/>
-      <c r="N146" s="175"/>
-      <c r="O146" s="175"/>
-      <c r="P146" s="175"/>
-      <c r="Q146" s="175"/>
-      <c r="R146" s="176"/>
+      <c r="G146" s="199"/>
+      <c r="H146" s="199"/>
+      <c r="I146" s="199"/>
+      <c r="J146" s="199"/>
+      <c r="K146" s="199"/>
+      <c r="L146" s="199"/>
+      <c r="M146" s="199"/>
+      <c r="N146" s="199"/>
+      <c r="O146" s="199"/>
+      <c r="P146" s="199"/>
+      <c r="Q146" s="199"/>
+      <c r="R146" s="200"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
@@ -15079,23 +15212,23 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="177" t="s">
+      <c r="F147" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="G147" s="178"/>
-      <c r="H147" s="178"/>
-      <c r="I147" s="178"/>
-      <c r="J147" s="178"/>
-      <c r="K147" s="179"/>
+      <c r="G147" s="202"/>
+      <c r="H147" s="202"/>
+      <c r="I147" s="202"/>
+      <c r="J147" s="202"/>
+      <c r="K147" s="203"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="177" t="s">
+      <c r="M147" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="N147" s="178"/>
-      <c r="O147" s="178"/>
-      <c r="P147" s="178"/>
-      <c r="Q147" s="178"/>
-      <c r="R147" s="179"/>
+      <c r="N147" s="202"/>
+      <c r="O147" s="202"/>
+      <c r="P147" s="202"/>
+      <c r="Q147" s="202"/>
+      <c r="R147" s="203"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
@@ -15124,33 +15257,33 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="182" t="s">
+      <c r="F148" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="G148" s="183"/>
-      <c r="H148" s="184" t="s">
+      <c r="G148" s="176"/>
+      <c r="H148" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="I148" s="184"/>
-      <c r="J148" s="185">
+      <c r="I148" s="177"/>
+      <c r="J148" s="178">
         <f>F66</f>
         <v>206500000</v>
       </c>
-      <c r="K148" s="186"/>
+      <c r="K148" s="179"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="182" t="s">
+      <c r="M148" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="N148" s="183"/>
-      <c r="O148" s="184" t="s">
+      <c r="N148" s="176"/>
+      <c r="O148" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P148" s="184"/>
-      <c r="Q148" s="185">
+      <c r="P148" s="177"/>
+      <c r="Q148" s="178">
         <f>$F$61</f>
         <v>90</v>
       </c>
-      <c r="R148" s="186"/>
+      <c r="R148" s="179"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
@@ -15312,11 +15445,11 @@
       <c r="H151" s="41"/>
       <c r="I151" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="J151" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="K151" s="42"/>
       <c r="L151" s="2"/>
@@ -15327,11 +15460,11 @@
       <c r="O151" s="41"/>
       <c r="P151" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q151" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R151" s="42"/>
       <c r="S151" s="2"/>
@@ -15374,15 +15507,15 @@
         <v>50000000</v>
       </c>
       <c r="I152" s="23">
-        <f t="dataTable" ref="I152:J172" dt2D="0" dtr="0" r1="F66"/>
-        <v>0.80668096385332411</v>
+        <f t="dataTable" ref="I152:J172" dt2D="0" dtr="0" r1="F66" ca="1"/>
+        <v>0.80158958289650872</v>
       </c>
       <c r="J152" s="23">
-        <v>0.71618327228883227</v>
+        <v>0.7116630690889163</v>
       </c>
       <c r="K152" s="46">
         <f>(J152-J162)/J162*100</f>
-        <v>-31.121683631715207</v>
+        <v>-31.257568626338728</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="43">
@@ -15397,15 +15530,15 @@
         <v>0</v>
       </c>
       <c r="P152" s="23">
-        <f t="dataTable" ref="P152:Q172" dt2D="0" dtr="0" r1="F61" ca="1"/>
-        <v>1.6329189394286392</v>
+        <f t="dataTable" ref="P152:Q172" dt2D="0" dtr="0" r1="F61"/>
+        <v>1.627827558471824</v>
       </c>
       <c r="Q152" s="23">
-        <v>1.4497295483906483</v>
+        <v>1.4452093451907324</v>
       </c>
       <c r="R152" s="46">
         <f>(Q152-Q162)/Q162*100</f>
-        <v>39.426504843345228</v>
+        <v>39.598650748498059</v>
       </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
@@ -15448,14 +15581,14 @@
         <v>65650000</v>
       </c>
       <c r="I153" s="23">
-        <v>0.84312969122136117</v>
+        <v>0.83803831026454556</v>
       </c>
       <c r="J153" s="23">
-        <v>0.74854299069908437</v>
+        <v>0.74402278749916817</v>
       </c>
       <c r="K153" s="46">
         <f>(J153-J162)/J162*100</f>
-        <v>-28.009515268543694</v>
+        <v>-28.131811763704885</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="43">
@@ -15471,14 +15604,14 @@
         <v>9</v>
       </c>
       <c r="P153" s="23">
-        <v>1.5867438692391449</v>
+        <v>1.5816524882823293</v>
       </c>
       <c r="Q153" s="23">
-        <v>1.408734639190719</v>
+        <v>1.4042144359908026</v>
       </c>
       <c r="R153" s="46">
         <f>(Q153-Q162)/Q162*100</f>
-        <v>35.483854359010721</v>
+        <v>35.638785673648222</v>
       </c>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -15521,14 +15654,14 @@
         <v>81300000</v>
       </c>
       <c r="I154" s="23">
-        <v>0.87957841858939845</v>
+        <v>0.87448703763258284</v>
       </c>
       <c r="J154" s="23">
-        <v>0.78090270910933657</v>
+        <v>0.77638250590942059</v>
       </c>
       <c r="K154" s="46">
         <f>(J154-J162)/J162*100</f>
-        <v>-24.897346905372171</v>
+        <v>-25.006054901070986</v>
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="43">
@@ -15544,14 +15677,14 @@
         <v>18</v>
       </c>
       <c r="P154" s="23">
-        <v>1.5405687990496506</v>
+        <v>1.5354774180928346</v>
       </c>
       <c r="Q154" s="23">
-        <v>1.3677397299907894</v>
+        <v>1.3632195267908731</v>
       </c>
       <c r="R154" s="46">
         <f>(Q154-Q162)/Q162*100</f>
-        <v>31.541203874676182</v>
+        <v>31.678920598798406</v>
       </c>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
@@ -15594,14 +15727,14 @@
         <v>96950000</v>
       </c>
       <c r="I155" s="23">
-        <v>0.9160271459574354</v>
+        <v>0.9109357650006199</v>
       </c>
       <c r="J155" s="23">
-        <v>0.81326242751958866</v>
+        <v>0.80874222431967258</v>
       </c>
       <c r="K155" s="46">
         <f>(J155-J162)/J162*100</f>
-        <v>-21.785178542200654</v>
+        <v>-21.880298038437132</v>
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="43">
@@ -15617,14 +15750,14 @@
         <v>27</v>
       </c>
       <c r="P155" s="23">
-        <v>1.4943937288601561</v>
+        <v>1.4893023479033407</v>
       </c>
       <c r="Q155" s="23">
-        <v>1.3267448207908599</v>
+        <v>1.322224617590944</v>
       </c>
       <c r="R155" s="46">
         <f>(Q155-Q162)/Q162*100</f>
-        <v>27.59855339034165</v>
+        <v>27.719055523948633</v>
       </c>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
@@ -15667,14 +15800,14 @@
         <v>112600000</v>
       </c>
       <c r="I156" s="23">
-        <v>0.95247587332547268</v>
+        <v>0.9473844923686574</v>
       </c>
       <c r="J156" s="23">
-        <v>0.84562214592984097</v>
+        <v>0.84110194272992511</v>
       </c>
       <c r="K156" s="46">
         <f>(J156-J162)/J162*100</f>
-        <v>-18.673010179029124</v>
+        <v>-18.754541175803226</v>
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="43">
@@ -15690,14 +15823,14 @@
         <v>36</v>
       </c>
       <c r="P156" s="23">
-        <v>1.4482186586706618</v>
+        <v>1.4431272777138464</v>
       </c>
       <c r="Q156" s="23">
-        <v>1.2857499115909305</v>
+        <v>1.2812297083910142</v>
       </c>
       <c r="R156" s="46">
         <f>(Q156-Q162)/Q162*100</f>
-        <v>23.655902906007135</v>
+        <v>23.759190449098792</v>
       </c>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -15740,14 +15873,14 @@
         <v>128250000</v>
       </c>
       <c r="I157" s="23">
-        <v>0.98892460069350974</v>
+        <v>0.98383321973669446</v>
       </c>
       <c r="J157" s="23">
-        <v>0.87798186434009295</v>
+        <v>0.87346166114017709</v>
       </c>
       <c r="K157" s="46">
         <f>(J157-J162)/J162*100</f>
-        <v>-15.560841815857621</v>
+        <v>-15.628784313169373</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="43">
@@ -15763,14 +15896,14 @@
         <v>45</v>
       </c>
       <c r="P157" s="23">
-        <v>1.4020435884811677</v>
+        <v>1.3969522075243523</v>
       </c>
       <c r="Q157" s="23">
-        <v>1.2447550023910012</v>
+        <v>1.2402347991910854</v>
       </c>
       <c r="R157" s="46">
         <f>(Q157-Q162)/Q162*100</f>
-        <v>19.713252421672625</v>
+        <v>19.79932537424904</v>
       </c>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
@@ -15813,14 +15946,14 @@
         <v>143900000</v>
       </c>
       <c r="I158" s="23">
-        <v>1.0253733280615474</v>
+        <v>1.0202819471047315</v>
       </c>
       <c r="J158" s="23">
-        <v>0.91034158275034549</v>
+        <v>0.9058213795504293</v>
       </c>
       <c r="K158" s="46">
         <f>(J158-J162)/J162*100</f>
-        <v>-12.448673452686064</v>
+        <v>-12.503027450535498</v>
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="43">
@@ -15836,14 +15969,14 @@
         <v>54</v>
       </c>
       <c r="P158" s="23">
-        <v>1.3558685182916732</v>
+        <v>1.3507771373348578</v>
       </c>
       <c r="Q158" s="23">
-        <v>1.2037600931910719</v>
+        <v>1.1992398899911558</v>
       </c>
       <c r="R158" s="46">
         <f>(Q158-Q162)/Q162*100</f>
-        <v>15.770601937338114</v>
+        <v>15.839460299399224</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
@@ -15886,14 +16019,14 @@
         <v>159550000</v>
       </c>
       <c r="I159" s="23">
-        <v>1.0618220554295841</v>
+        <v>1.0567306744727687</v>
       </c>
       <c r="J159" s="23">
-        <v>0.94270130116059725</v>
+        <v>0.9381810979606815</v>
       </c>
       <c r="K159" s="46">
         <f>(J159-J162)/J162*100</f>
-        <v>-9.3365050895145831</v>
+        <v>-9.3772705879016236</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="43">
@@ -15909,14 +16042,14 @@
         <v>63</v>
       </c>
       <c r="P159" s="23">
-        <v>1.3096934481021791</v>
+        <v>1.3046020671453635</v>
       </c>
       <c r="Q159" s="23">
-        <v>1.1627651839911426</v>
+        <v>1.1582449807912263</v>
       </c>
       <c r="R159" s="46">
         <f>(Q159-Q162)/Q162*100</f>
-        <v>11.8279514530036</v>
+        <v>11.879595224549407</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -15959,14 +16092,14 @@
         <v>175200000</v>
       </c>
       <c r="I160" s="23">
-        <v>1.0982707827976212</v>
+        <v>1.0931794018408061</v>
       </c>
       <c r="J160" s="23">
-        <v>0.97506101957084956</v>
+        <v>0.97054081637093359</v>
       </c>
       <c r="K160" s="46">
         <f>(J160-J162)/J162*100</f>
-        <v>-6.224336726343048</v>
+        <v>-6.2515137252677597</v>
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="43">
@@ -15982,14 +16115,14 @@
         <v>72</v>
       </c>
       <c r="P160" s="23">
-        <v>1.2635183779126842</v>
+        <v>1.258426996955869</v>
       </c>
       <c r="Q160" s="23">
-        <v>1.1217702747912126</v>
+        <v>1.1172500715912967</v>
       </c>
       <c r="R160" s="46">
         <f>(Q160-Q162)/Q162*100</f>
-        <v>7.885300968669025</v>
+        <v>7.91973014969959</v>
       </c>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
@@ -16031,14 +16164,14 @@
         <v>190850000</v>
       </c>
       <c r="I161" s="23">
-        <v>1.1347195101656589</v>
+        <v>1.1296281292088428</v>
       </c>
       <c r="J161" s="23">
-        <v>1.007420737981102</v>
+        <v>1.0029005347811857</v>
       </c>
       <c r="K161" s="46">
         <f>(J161-J162)/J162*100</f>
-        <v>-3.1121683631715027</v>
+        <v>-3.1257568626338958</v>
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="43">
@@ -16053,14 +16186,14 @@
         <v>81</v>
       </c>
       <c r="P161" s="23">
-        <v>1.2173433077231903</v>
+        <v>1.2122519267663745</v>
       </c>
       <c r="Q161" s="23">
-        <v>1.0807753655912837</v>
+        <v>1.0762551623913674</v>
       </c>
       <c r="R161" s="46">
         <f>(Q161-Q162)/Q162*100</f>
-        <v>3.9426504843345547</v>
+        <v>3.959865074849795</v>
       </c>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
@@ -16101,10 +16234,10 @@
         <v>206500000</v>
       </c>
       <c r="I162" s="23">
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="J162" s="23">
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="K162" s="46">
         <f>(J162-J162)/J162*100</f>
@@ -16122,10 +16255,10 @@
         <v>90</v>
       </c>
       <c r="P162" s="23">
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q162" s="23">
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R162" s="46">
         <f>(Q162-Q162)/Q162*100</f>
@@ -16171,14 +16304,14 @@
         <v>235850000</v>
       </c>
       <c r="I163" s="23">
-        <v>1.2395241575497913</v>
+        <v>1.2344327765929755</v>
       </c>
       <c r="J163" s="23">
-        <v>1.1004678516208048</v>
+        <v>1.0959476484208883</v>
       </c>
       <c r="K163" s="46">
         <f>(J163-J162)/J162*100</f>
-        <v>5.8365585596859182</v>
+        <v>5.8620424228947998</v>
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="43">
@@ -16193,14 +16326,14 @@
         <v>90.8</v>
       </c>
       <c r="P163" s="23">
-        <v>1.167063786850185</v>
+        <v>1.16197240589337</v>
       </c>
       <c r="Q163" s="23">
-        <v>1.0361364644624713</v>
+        <v>1.0316162612625557</v>
       </c>
       <c r="R163" s="46">
         <f>(Q163-Q162)/Q162*100</f>
-        <v>-0.3504578208297387</v>
+        <v>-0.35198800665329794</v>
       </c>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
@@ -16243,14 +16376,14 @@
         <v>265200000</v>
       </c>
       <c r="I164" s="23">
-        <v>1.3078800775658861</v>
+        <v>1.3027886966090709</v>
       </c>
       <c r="J164" s="23">
-        <v>1.1611552468502551</v>
+        <v>1.1566350436503392</v>
       </c>
       <c r="K164" s="46">
         <f>(J164-J162)/J162*100</f>
-        <v>11.673117119371772</v>
+        <v>11.724084845789664</v>
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="43">
@@ -16266,14 +16399,14 @@
         <v>91.6</v>
       </c>
       <c r="P164" s="23">
-        <v>1.1629593361666748</v>
+        <v>1.157867955209859</v>
       </c>
       <c r="Q164" s="23">
-        <v>1.0324924725335889</v>
+        <v>1.0279722693336726</v>
       </c>
       <c r="R164" s="46">
         <f>(Q164-Q162)/Q162*100</f>
-        <v>-0.70091564165945597</v>
+        <v>-0.70397601330666026</v>
       </c>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
@@ -16316,14 +16449,14 @@
         <v>294550000</v>
       </c>
       <c r="I165" s="23">
-        <v>1.3762359975819816</v>
+        <v>1.3711446166251662</v>
       </c>
       <c r="J165" s="23">
-        <v>1.2218426420797057</v>
+        <v>1.2173224388797899</v>
       </c>
       <c r="K165" s="46">
         <f>(J165-J162)/J162*100</f>
-        <v>17.509675679057672</v>
+        <v>17.586127268684507</v>
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="43">
@@ -16339,14 +16472,14 @@
         <v>92.4</v>
       </c>
       <c r="P165" s="23">
-        <v>1.1588548854831637</v>
+        <v>1.1537635045263483</v>
       </c>
       <c r="Q165" s="23">
-        <v>1.028848480604706</v>
+        <v>1.0243282774047902</v>
       </c>
       <c r="R165" s="46">
         <f>(Q165-Q162)/Q162*100</f>
-        <v>-1.0513734624892161</v>
+        <v>-1.0559640199599583</v>
       </c>
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
@@ -16389,14 +16522,14 @@
         <v>323900000</v>
       </c>
       <c r="I166" s="23">
-        <v>1.4445919175980768</v>
+        <v>1.4395005366412617</v>
       </c>
       <c r="J166" s="23">
-        <v>1.2825300373091564</v>
+        <v>1.2780098341092405</v>
       </c>
       <c r="K166" s="46">
         <f>(J166-J162)/J162*100</f>
-        <v>23.34623423874357</v>
+        <v>23.448169691579348</v>
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="43">
@@ -16412,14 +16545,14 @@
         <v>93.2</v>
       </c>
       <c r="P166" s="23">
-        <v>1.1547504347996533</v>
+        <v>1.1496590538428377</v>
       </c>
       <c r="Q166" s="23">
-        <v>1.0252044886758236</v>
+        <v>1.0206842854759075</v>
       </c>
       <c r="R166" s="46">
         <f>(Q166-Q162)/Q162*100</f>
-        <v>-1.4018312833189335</v>
+        <v>-1.4079520266132777</v>
       </c>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
@@ -16462,14 +16595,14 @@
         <v>353250000</v>
       </c>
       <c r="I167" s="23">
-        <v>1.5129478376141723</v>
+        <v>1.5078564566573569</v>
       </c>
       <c r="J167" s="23">
-        <v>1.3432174325386073</v>
+        <v>1.338697229338691</v>
       </c>
       <c r="K167" s="46">
         <f>(J167-J162)/J162*100</f>
-        <v>29.182792798429485</v>
+        <v>29.310212114474172</v>
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="43">
@@ -16485,14 +16618,14 @@
         <v>94</v>
       </c>
       <c r="P167" s="23">
-        <v>1.1506459841161427</v>
+        <v>1.1455546031593276</v>
       </c>
       <c r="Q167" s="23">
-        <v>1.0215604967469409</v>
+        <v>1.0170402935470251</v>
       </c>
       <c r="R167" s="46">
         <f>(Q167-Q162)/Q162*100</f>
-        <v>-1.7522891041486723</v>
+        <v>-1.7599400332665758</v>
       </c>
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
@@ -16535,14 +16668,14 @@
         <v>382600000</v>
       </c>
       <c r="I168" s="23">
-        <v>1.5813037576302673</v>
+        <v>1.5762123766734522</v>
       </c>
       <c r="J168" s="23">
-        <v>1.4039048277680573</v>
+        <v>1.3993846245681416</v>
       </c>
       <c r="K168" s="46">
         <f>(J168-J162)/J162*100</f>
-        <v>35.019351358115323</v>
+        <v>35.172254537369014</v>
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="43">
@@ -16558,14 +16691,14 @@
         <v>94.8</v>
       </c>
       <c r="P168" s="23">
-        <v>1.1465415334326325</v>
+        <v>1.1414501524758167</v>
       </c>
       <c r="Q168" s="23">
-        <v>1.0179165048180587</v>
+        <v>1.0133963016181422</v>
       </c>
       <c r="R168" s="46">
         <f>(Q168-Q162)/Q162*100</f>
-        <v>-2.1027469249783679</v>
+        <v>-2.1119280399199165</v>
       </c>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
@@ -16608,14 +16741,14 @@
         <v>411950000</v>
       </c>
       <c r="I169" s="23">
-        <v>1.6496596776463628</v>
+        <v>1.6445682966895472</v>
       </c>
       <c r="J169" s="23">
-        <v>1.4645922229975081</v>
+        <v>1.460072019797592</v>
       </c>
       <c r="K169" s="46">
         <f>(J169-J162)/J162*100</f>
-        <v>40.855909917801235</v>
+        <v>41.034296960263831</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="43">
@@ -16631,14 +16764,14 @@
         <v>95.6</v>
       </c>
       <c r="P169" s="23">
-        <v>1.1424370827491215</v>
+        <v>1.1373457017923061</v>
       </c>
       <c r="Q169" s="23">
-        <v>1.0142725128891756</v>
+        <v>1.0097523096892598</v>
       </c>
       <c r="R169" s="46">
         <f>(Q169-Q162)/Q162*100</f>
-        <v>-2.4532047458081494</v>
+        <v>-2.4639160465732144</v>
       </c>
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
@@ -16681,14 +16814,14 @@
         <v>441300000</v>
       </c>
       <c r="I170" s="23">
-        <v>1.7180155976624578</v>
+        <v>1.712924216705642</v>
       </c>
       <c r="J170" s="23">
-        <v>1.5252796182269583</v>
+        <v>1.5207594150270423</v>
       </c>
       <c r="K170" s="46">
         <f>(J170-J162)/J162*100</f>
-        <v>46.69246847748709</v>
+        <v>46.896339383158633</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="43">
@@ -16704,14 +16837,14 @@
         <v>96.4</v>
       </c>
       <c r="P170" s="23">
-        <v>1.1383326320656104</v>
+        <v>1.1332412511087955</v>
       </c>
       <c r="Q170" s="23">
-        <v>1.0106285209602928</v>
+        <v>1.0061083177603771</v>
       </c>
       <c r="R170" s="46">
         <f>(Q170-Q162)/Q162*100</f>
-        <v>-2.8036625666379096</v>
+        <v>-2.815904053226534</v>
       </c>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
@@ -16754,14 +16887,14 @@
         <v>470650000</v>
       </c>
       <c r="I171" s="23">
-        <v>1.7863715176785531</v>
+        <v>1.7812801367217375</v>
       </c>
       <c r="J171" s="23">
-        <v>1.5859670134564088</v>
+        <v>1.5814468102564929</v>
       </c>
       <c r="K171" s="46">
         <f>(J171-J162)/J162*100</f>
-        <v>52.529027037172973</v>
+        <v>52.758381806053478</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="43">
@@ -16777,14 +16910,14 @@
         <v>97.2</v>
       </c>
       <c r="P171" s="23">
-        <v>1.1342281813821005</v>
+        <v>1.1291368004252849</v>
       </c>
       <c r="Q171" s="23">
-        <v>1.0069845290314106</v>
+        <v>1.0024643258314943</v>
       </c>
       <c r="R171" s="46">
         <f>(Q171-Q162)/Q162*100</f>
-        <v>-3.1541203874676058</v>
+        <v>-3.1678920598798745</v>
       </c>
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
@@ -16826,14 +16959,14 @@
         <v>500000000</v>
       </c>
       <c r="I172" s="158">
-        <v>1.8547274376946488</v>
+        <v>1.8496360567378332</v>
       </c>
       <c r="J172" s="158">
-        <v>1.6466544086858599</v>
+        <v>1.6421342054859438</v>
       </c>
       <c r="K172" s="52">
         <f>(J172-J162)/J162*100</f>
-        <v>58.365585596858907</v>
+        <v>58.620424228948345</v>
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="49">
@@ -16848,14 +16981,14 @@
         <v>98</v>
       </c>
       <c r="P172" s="158">
-        <v>1.1301237306985896</v>
+        <v>1.1250323497417747</v>
       </c>
       <c r="Q172" s="158">
-        <v>1.0033405371025279</v>
+        <v>0.99882033390261216</v>
       </c>
       <c r="R172" s="52">
         <f>(Q172-Q162)/Q162*100</f>
-        <v>-3.5045782082973447</v>
+        <v>-3.5198800665331405</v>
       </c>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
@@ -16967,23 +17100,23 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="187" t="s">
+      <c r="F175" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="G175" s="188"/>
-      <c r="H175" s="188"/>
-      <c r="I175" s="188"/>
-      <c r="J175" s="188"/>
-      <c r="K175" s="189"/>
+      <c r="G175" s="173"/>
+      <c r="H175" s="173"/>
+      <c r="I175" s="173"/>
+      <c r="J175" s="173"/>
+      <c r="K175" s="174"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="187" t="s">
+      <c r="M175" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="N175" s="188"/>
-      <c r="O175" s="188"/>
-      <c r="P175" s="188"/>
-      <c r="Q175" s="188"/>
-      <c r="R175" s="189"/>
+      <c r="N175" s="173"/>
+      <c r="O175" s="173"/>
+      <c r="P175" s="173"/>
+      <c r="Q175" s="173"/>
+      <c r="R175" s="174"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
@@ -17012,33 +17145,33 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="182" t="s">
+      <c r="F176" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="G176" s="183"/>
-      <c r="H176" s="184" t="s">
+      <c r="G176" s="176"/>
+      <c r="H176" s="177" t="s">
         <v>158</v>
       </c>
-      <c r="I176" s="184"/>
-      <c r="J176" s="191">
+      <c r="I176" s="177"/>
+      <c r="J176" s="190">
         <f>F28</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="K176" s="192"/>
+      <c r="K176" s="191"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="182" t="s">
+      <c r="M176" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="N176" s="183"/>
-      <c r="O176" s="184" t="s">
+      <c r="N176" s="176"/>
+      <c r="O176" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P176" s="184"/>
-      <c r="Q176" s="185">
+      <c r="P176" s="177"/>
+      <c r="Q176" s="178">
         <f>$F$62</f>
         <v>5</v>
       </c>
-      <c r="R176" s="186"/>
+      <c r="R176" s="179"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
@@ -17200,11 +17333,11 @@
       <c r="H179" s="41"/>
       <c r="I179" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="J179" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="K179" s="42"/>
       <c r="L179" s="2"/>
@@ -17215,11 +17348,11 @@
       <c r="O179" s="41"/>
       <c r="P179" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q179" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R179" s="42"/>
       <c r="S179" s="2"/>
@@ -17263,14 +17396,14 @@
       </c>
       <c r="I180" s="23">
         <f t="dataTable" ref="I180:J200" dt2D="0" dtr="0" r1="F28" ca="1"/>
-        <v>0.65355637041163439</v>
+        <v>0.64846498945481879</v>
       </c>
       <c r="J180" s="23">
-        <v>0.58023699697929565</v>
+        <v>0.57571679377937945</v>
       </c>
       <c r="K180" s="46">
         <f>(J180-J190)/J190*100</f>
-        <v>-44.196200898691899</v>
+        <v>-44.389172480582126</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="43">
@@ -17286,14 +17419,14 @@
       </c>
       <c r="P180" s="23">
         <f t="dataTable" ref="P180:Q200" dt2D="0" dtr="0" r1="F62" ca="1"/>
-        <v>1.0837147829678158</v>
+        <v>1.0786234020110002</v>
       </c>
       <c r="Q180" s="23">
-        <v>0.96213798796768735</v>
+        <v>0.95761778476777126</v>
       </c>
       <c r="R180" s="46">
         <f>(Q180-Q190)/Q190*100</f>
-        <v>-7.4671982865624713</v>
+        <v>-7.4998019275168071</v>
       </c>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
@@ -17336,14 +17469,14 @@
         <v>3.8700000000000045</v>
       </c>
       <c r="I181" s="23">
-        <v>0.70531755712384048</v>
+        <v>0.7002261761670252</v>
       </c>
       <c r="J181" s="23">
-        <v>0.62619134292050149</v>
+        <v>0.62167113972058552</v>
       </c>
       <c r="K181" s="46">
         <f>(J181-J190)/J190*100</f>
-        <v>-39.776580808822708</v>
+        <v>-39.950255232523887</v>
       </c>
       <c r="L181" s="2"/>
       <c r="M181" s="43">
@@ -17359,14 +17492,14 @@
         <v>1.4</v>
       </c>
       <c r="P181" s="23">
-        <v>1.0916799388955944</v>
+        <v>1.0865885579387793</v>
       </c>
       <c r="Q181" s="23">
-        <v>0.96920957102500682</v>
+        <v>0.96468936782509107</v>
       </c>
       <c r="R181" s="46">
         <f>(Q181-Q190)/Q190*100</f>
-        <v>-6.7870948076163478</v>
+        <v>-6.8167289479911313</v>
       </c>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
@@ -17409,14 +17542,14 @@
         <v>7.740000000000002</v>
       </c>
       <c r="I182" s="23">
-        <v>0.75707874383604656</v>
+        <v>0.75198736287923107</v>
       </c>
       <c r="J182" s="23">
-        <v>0.67214568886170722</v>
+        <v>0.66762548566179114</v>
       </c>
       <c r="K182" s="46">
         <f>(J182-J190)/J190*100</f>
-        <v>-35.35696071895353</v>
+        <v>-35.511337984465705</v>
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="43">
@@ -17432,14 +17565,14 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="P182" s="23">
-        <v>1.0998218236092991</v>
+        <v>1.0947304426524835</v>
       </c>
       <c r="Q182" s="23">
-        <v>0.97643805650829596</v>
+        <v>0.97191785330837999</v>
       </c>
       <c r="R182" s="46">
         <f>(Q182-Q190)/Q190*100</f>
-        <v>-6.091901371458083</v>
+        <v>-6.1185001247551014</v>
       </c>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
@@ -17482,14 +17615,14 @@
         <v>11.61</v>
       </c>
       <c r="I183" s="23">
-        <v>0.80883993054825265</v>
+        <v>0.80374854959143727</v>
       </c>
       <c r="J183" s="23">
-        <v>0.71810003480291307</v>
+        <v>0.71357983160299709</v>
       </c>
       <c r="K183" s="46">
         <f>(J183-J190)/J190*100</f>
-        <v>-30.937340629084336</v>
+        <v>-31.07242073640748</v>
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="43">
@@ -17505,14 +17638,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P183" s="23">
-        <v>1.108139365834619</v>
+        <v>1.1030479848778036</v>
       </c>
       <c r="Q183" s="23">
-        <v>0.98382249332440186</v>
+        <v>0.97930229012448589</v>
       </c>
       <c r="R183" s="46">
         <f>(Q183-Q190)/Q190*100</f>
-        <v>-5.3817094486617831</v>
+        <v>-5.4052073277659769</v>
       </c>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
@@ -17555,14 +17688,14 @@
         <v>15.48</v>
       </c>
       <c r="I184" s="23">
-        <v>0.86060111726045896</v>
+        <v>0.85550973630364335</v>
       </c>
       <c r="J184" s="23">
-        <v>0.76405438074411891</v>
+        <v>0.75953417754420283</v>
       </c>
       <c r="K184" s="46">
         <f>(J184-J190)/J190*100</f>
-        <v>-26.517720539215144</v>
+        <v>-26.63350348834928</v>
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="43">
@@ -17578,14 +17711,14 @@
         <v>2.6</v>
       </c>
       <c r="P184" s="23">
-        <v>1.1166313827346521</v>
+        <v>1.1115400017778367</v>
       </c>
       <c r="Q184" s="23">
-        <v>0.99136183133325506</v>
+        <v>0.9868416281333392</v>
       </c>
       <c r="R184" s="46">
         <f>(Q184-Q190)/Q190*100</f>
-        <v>-4.656620035554413</v>
+        <v>-4.6769519943257629</v>
       </c>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
@@ -17628,14 +17761,14 @@
         <v>19.350000000000001</v>
       </c>
       <c r="I185" s="23">
-        <v>0.91236230397266516</v>
+        <v>0.90727092301584944</v>
       </c>
       <c r="J185" s="23">
-        <v>0.81000872668532486</v>
+        <v>0.80548852348540856</v>
       </c>
       <c r="K185" s="46">
         <f>(J185-J190)/J190*100</f>
-        <v>-22.098100449345946</v>
+        <v>-22.194586240291084</v>
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="43">
@@ -17651,14 +17784,14 @@
         <v>3</v>
       </c>
       <c r="P185" s="23">
-        <v>1.1252965840780593</v>
+        <v>1.1202052031212437</v>
       </c>
       <c r="Q185" s="23">
-        <v>0.99905492504841964</v>
+        <v>0.99453472184850356</v>
       </c>
       <c r="R185" s="46">
         <f>(Q185-Q190)/Q190*100</f>
-        <v>-3.9167432983185444</v>
+        <v>-3.9338447716299672</v>
       </c>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
@@ -17701,14 +17834,14 @@
         <v>23.220000000000002</v>
       </c>
       <c r="I186" s="23">
-        <v>0.96412349068487113</v>
+        <v>0.95903210972805586</v>
       </c>
       <c r="J186" s="23">
-        <v>0.85596307262653049</v>
+        <v>0.85144286942661462</v>
       </c>
       <c r="K186" s="46">
         <f>(J186-J190)/J190*100</f>
-        <v>-17.678480359476776</v>
+        <v>-17.755668992232852</v>
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="43">
@@ -17724,14 +17857,14 @@
         <v>3.4</v>
       </c>
       <c r="P186" s="23">
-        <v>1.1341335765648641</v>
+        <v>1.1290421956080481</v>
       </c>
       <c r="Q186" s="23">
-        <v>1.006900537477601</v>
+        <v>1.0023803342776845</v>
       </c>
       <c r="R186" s="46">
         <f>(Q186-Q190)/Q190*100</f>
-        <v>-3.1621982036347855</v>
+        <v>-3.1760051457972427</v>
       </c>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
@@ -17774,14 +17907,14 @@
         <v>27.090000000000003</v>
       </c>
       <c r="I187" s="23">
-        <v>1.0158846773970771</v>
+        <v>1.0107932964402619</v>
       </c>
       <c r="J187" s="23">
-        <v>0.90191741856773644</v>
+        <v>0.89739721536782047</v>
       </c>
       <c r="K187" s="46">
         <f>(J187-J190)/J190*100</f>
-        <v>-13.258860269607572</v>
+        <v>-13.31675174417464</v>
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="43">
@@ -17797,14 +17930,14 @@
         <v>3.8</v>
       </c>
       <c r="P187" s="23">
-        <v>1.1431408682890136</v>
+        <v>1.1380494873321978</v>
       </c>
       <c r="Q187" s="23">
-        <v>1.0148973440845741</v>
+        <v>1.0103771408846576</v>
       </c>
       <c r="R187" s="46">
         <f>(Q187-Q190)/Q190*100</f>
-        <v>-2.3931121376467113</v>
+        <v>-2.4035610591706158</v>
       </c>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
@@ -17847,14 +17980,14 @@
         <v>30.96</v>
       </c>
       <c r="I188" s="23">
-        <v>1.067645864109283</v>
+        <v>1.0625544831524678</v>
       </c>
       <c r="J188" s="23">
-        <v>0.94787176450894195</v>
+        <v>0.94335156130902598</v>
       </c>
       <c r="K188" s="46">
         <f>(J188-J190)/J190*100</f>
-        <v>-8.8392401797384146</v>
+        <v>-8.8778344961164635</v>
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="43">
@@ -17870,14 +18003,14 @@
         <v>4.2</v>
       </c>
       <c r="P188" s="23">
-        <v>1.1523168733169906</v>
+        <v>1.1472254923601752</v>
       </c>
       <c r="Q188" s="23">
-        <v>1.0230439368541417</v>
+        <v>1.0185237336542257</v>
       </c>
       <c r="R188" s="46">
         <f>(Q188-Q190)/Q190*100</f>
-        <v>-1.6096205150169616</v>
+        <v>-1.6166485176667518</v>
       </c>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
@@ -17919,14 +18052,14 @@
         <v>34.830000000000005</v>
       </c>
       <c r="I189" s="23">
-        <v>1.1194070508214897</v>
+        <v>1.1143156698646741</v>
       </c>
       <c r="J189" s="23">
-        <v>0.99382611045014824</v>
+        <v>0.98930590725023215</v>
       </c>
       <c r="K189" s="46">
         <f>(J189-J190)/J190*100</f>
-        <v>-4.4196200898691806</v>
+        <v>-4.4389172480582211</v>
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="43">
@@ -17941,14 +18074,14 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="P189" s="23">
-        <v>1.1616599163620041</v>
+        <v>1.1565685354051887</v>
       </c>
       <c r="Q189" s="23">
-        <v>1.0313388284419511</v>
+        <v>1.0268186252420355</v>
       </c>
       <c r="R189" s="46">
         <f>(Q189-Q190)/Q190*100</f>
-        <v>-0.81186637982216225</v>
+        <v>-0.81541118992825967</v>
       </c>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
@@ -17989,10 +18122,10 @@
         <v>38.700000000000003</v>
       </c>
       <c r="I190" s="23">
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="J190" s="23">
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="K190" s="46">
         <f>(J190-J190)/J190*100</f>
@@ -18010,10 +18143,10 @@
         <v>5</v>
       </c>
       <c r="P190" s="23">
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q190" s="23">
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R190" s="46">
         <f>(Q190-Q190)/Q190*100</f>
@@ -18059,14 +18192,14 @@
         <v>44.830000000000005</v>
       </c>
       <c r="I191" s="23">
-        <v>1.2531568872871388</v>
+        <v>1.2480655063303232</v>
       </c>
       <c r="J191" s="23">
-        <v>1.1125711904015847</v>
+        <v>1.1080509872016684</v>
       </c>
       <c r="K191" s="46">
         <f>(J191-J190)/J190*100</f>
-        <v>7.0005868606972221</v>
+        <v>7.0311531603609216</v>
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="43">
@@ -18081,14 +18214,14 @@
         <v>6</v>
       </c>
       <c r="P191" s="23">
-        <v>1.1956498760484977</v>
+        <v>1.1905584950916823</v>
       </c>
       <c r="Q191" s="23">
-        <v>1.0615156165949251</v>
+        <v>1.056995413395009</v>
       </c>
       <c r="R191" s="46">
         <f>(Q191-Q190)/Q190*100</f>
-        <v>2.0903605246635282</v>
+        <v>2.0994875575071164</v>
       </c>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
@@ -18131,14 +18264,14 @@
         <v>50.96</v>
       </c>
       <c r="I192" s="23">
-        <v>1.3351455370405811</v>
+        <v>1.3300541560837658</v>
       </c>
       <c r="J192" s="23">
-        <v>1.1853619244118148</v>
+        <v>1.1808417212118987</v>
       </c>
       <c r="K192" s="46">
         <f>(J192-J190)/J190*100</f>
-        <v>14.001173721394377</v>
+        <v>14.062306320721843</v>
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="43">
@@ -18154,14 +18287,14 @@
         <v>7</v>
       </c>
       <c r="P192" s="23">
-        <v>1.22112210483926</v>
+        <v>1.2160307238824442</v>
       </c>
       <c r="Q192" s="23">
-        <v>1.0841302374739359</v>
+        <v>1.0796100342740196</v>
       </c>
       <c r="R192" s="46">
         <f>(Q192-Q190)/Q190*100</f>
-        <v>4.2653024309094612</v>
+        <v>4.2839257999003282</v>
       </c>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
@@ -18204,14 +18337,14 @@
         <v>57.09</v>
       </c>
       <c r="I193" s="23">
-        <v>1.4171341867940239</v>
+        <v>1.4120428058372085</v>
       </c>
       <c r="J193" s="23">
-        <v>1.2581526584220453</v>
+        <v>1.2536324552221292</v>
       </c>
       <c r="K193" s="46">
         <f>(J193-J190)/J190*100</f>
-        <v>21.001760582091581</v>
+        <v>21.093459481082789</v>
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="43">
@@ -18227,14 +18360,14 @@
         <v>8</v>
       </c>
       <c r="P193" s="23">
-        <v>1.2475517747374298</v>
+        <v>1.2424603937806142</v>
       </c>
       <c r="Q193" s="23">
-        <v>1.1075948887070182</v>
+        <v>1.1030746855071021</v>
       </c>
       <c r="R193" s="46">
         <f>(Q193-Q190)/Q190*100</f>
-        <v>6.5219952826407148</v>
+        <v>6.5504719326961238</v>
       </c>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
@@ -18277,14 +18410,14 @@
         <v>63.22</v>
       </c>
       <c r="I194" s="23">
-        <v>1.4991228365474671</v>
+        <v>1.4940314555906511</v>
       </c>
       <c r="J194" s="23">
-        <v>1.3309433924322758</v>
+        <v>1.3264231892323595</v>
       </c>
       <c r="K194" s="46">
         <f>(J194-J190)/J190*100</f>
-        <v>28.002347442788778</v>
+        <v>28.124612641443708</v>
       </c>
       <c r="L194" s="2"/>
       <c r="M194" s="43">
@@ -18300,14 +18433,14 @@
         <v>9</v>
       </c>
       <c r="P194" s="23">
-        <v>1.274903750037192</v>
+        <v>1.2698123690803766</v>
       </c>
       <c r="Q194" s="23">
-        <v>1.1318783762956866</v>
+        <v>1.1273581730957702</v>
       </c>
       <c r="R194" s="46">
         <f>(Q194-Q190)/Q190*100</f>
-        <v>8.8574390236152549</v>
+        <v>8.8961128006622694</v>
       </c>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
@@ -18350,14 +18483,14 @@
         <v>69.349999999999994</v>
       </c>
       <c r="I195" s="23">
-        <v>1.5811114863009095</v>
+        <v>1.5760201053440941</v>
       </c>
       <c r="J195" s="23">
-        <v>1.4037341264425061</v>
+        <v>1.39921392324259</v>
       </c>
       <c r="K195" s="46">
         <f>(J195-J190)/J190*100</f>
-        <v>35.002934303485958</v>
+        <v>35.155765801804655</v>
       </c>
       <c r="L195" s="2"/>
       <c r="M195" s="43">
@@ -18373,14 +18506,14 @@
         <v>10</v>
       </c>
       <c r="P195" s="23">
-        <v>1.3031413616309995</v>
+        <v>1.2980499806741843</v>
       </c>
       <c r="Q195" s="23">
-        <v>1.1569481448647523</v>
+        <v>1.1524279416648369</v>
       </c>
       <c r="R195" s="46">
         <f>(Q195-Q190)/Q190*100</f>
-        <v>11.268502668345844</v>
+        <v>11.317703747651979</v>
       </c>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
@@ -18423,14 +18556,14 @@
         <v>75.47999999999999</v>
       </c>
       <c r="I196" s="23">
-        <v>1.663100136054352</v>
+        <v>1.6580087550975371</v>
       </c>
       <c r="J196" s="23">
-        <v>1.4765248604527359</v>
+        <v>1.4720046572528207</v>
       </c>
       <c r="K196" s="46">
         <f>(J196-J190)/J190*100</f>
-        <v>42.003521164183091</v>
+        <v>42.18691896216562</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="43">
@@ -18446,14 +18579,14 @@
         <v>11</v>
       </c>
       <c r="P196" s="23">
-        <v>1.3322268381812015</v>
+        <v>1.3271354572243863</v>
       </c>
       <c r="Q196" s="23">
-        <v>1.1827706604628663</v>
+        <v>1.1782504572629504</v>
       </c>
       <c r="R196" s="46">
         <f>(Q196-Q190)/Q190*100</f>
-        <v>13.751961117616299</v>
+        <v>13.812005592865242</v>
       </c>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
@@ -18496,14 +18629,14 @@
         <v>81.61</v>
       </c>
       <c r="I197" s="23">
-        <v>1.7450887858077953</v>
+        <v>1.7399974048509799</v>
       </c>
       <c r="J197" s="23">
-        <v>1.5493155944629671</v>
+        <v>1.544795391263051</v>
       </c>
       <c r="K197" s="46">
         <f>(J197-J190)/J190*100</f>
-        <v>49.00410802488036</v>
+        <v>49.218072122526543</v>
       </c>
       <c r="L197" s="2"/>
       <c r="M197" s="43">
@@ -18519,14 +18652,14 @@
         <v>12</v>
       </c>
       <c r="P197" s="23">
-        <v>1.3621217093792475</v>
+        <v>1.3570303284224321</v>
       </c>
       <c r="Q197" s="23">
-        <v>1.2093117685819894</v>
+        <v>1.2047915653820735</v>
       </c>
       <c r="R197" s="46">
         <f>(Q197-Q190)/Q190*100</f>
-        <v>16.304529590699193</v>
+        <v>16.375719213406921</v>
       </c>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
@@ -18569,14 +18702,14 @@
         <v>87.740000000000009</v>
       </c>
       <c r="I198" s="23">
-        <v>1.827077435561238</v>
+        <v>1.8219860546044226</v>
       </c>
       <c r="J198" s="23">
-        <v>1.6221063284731976</v>
+        <v>1.6175861252732813</v>
       </c>
       <c r="K198" s="46">
         <f>(J198-J190)/J190*100</f>
-        <v>56.004694885577557</v>
+        <v>56.249225282887458</v>
       </c>
       <c r="L198" s="2"/>
       <c r="M198" s="43">
@@ -18592,14 +18725,14 @@
         <v>13</v>
       </c>
       <c r="P198" s="23">
-        <v>1.3927871768541478</v>
+        <v>1.3876957958973319</v>
       </c>
       <c r="Q198" s="23">
-        <v>1.2365370234554069</v>
+        <v>1.2320168202554906</v>
       </c>
       <c r="R198" s="46">
         <f>(Q198-Q190)/Q190*100</f>
-        <v>18.922895295311982</v>
+        <v>19.005517352521089</v>
       </c>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
@@ -18642,14 +18775,14 @@
         <v>93.87</v>
       </c>
       <c r="I199" s="23">
-        <v>1.9090660853146808</v>
+        <v>1.9039747043578652</v>
       </c>
       <c r="J199" s="23">
-        <v>1.6948970624834279</v>
+        <v>1.6903768592835113</v>
       </c>
       <c r="K199" s="46">
         <f>(J199-J190)/J190*100</f>
-        <v>63.005281746274733</v>
+        <v>63.280378443248367</v>
       </c>
       <c r="L199" s="2"/>
       <c r="M199" s="43">
@@ -18665,14 +18798,14 @@
         <v>14</v>
       </c>
       <c r="P199" s="23">
-        <v>1.4241844497218352</v>
+        <v>1.4190930687650201</v>
       </c>
       <c r="Q199" s="23">
-        <v>1.2644119859634033</v>
+        <v>1.2598917827634877</v>
       </c>
       <c r="R199" s="46">
         <f>(Q199-Q190)/Q190*100</f>
-        <v>21.603746078441606</v>
+        <v>21.698073395512772</v>
       </c>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
@@ -18714,14 +18847,14 @@
         <v>100</v>
       </c>
       <c r="I200" s="158">
-        <v>1.9910547350681238</v>
+        <v>1.985963354111308</v>
       </c>
       <c r="J200" s="158">
-        <v>1.7676877964936584</v>
+        <v>1.7631675932937421</v>
       </c>
       <c r="K200" s="52">
         <f>(J200-J190)/J190*100</f>
-        <v>70.00586860697193</v>
+        <v>70.311531603609339</v>
       </c>
       <c r="L200" s="2"/>
       <c r="M200" s="49">
@@ -18736,14 +18869,14 @@
         <v>15</v>
       </c>
       <c r="P200" s="158">
-        <v>1.4562750430723952</v>
+        <v>1.45118366211558</v>
       </c>
       <c r="Q200" s="158">
-        <v>1.2929024886346345</v>
+        <v>1.2883822854347187</v>
       </c>
       <c r="R200" s="52">
         <f>(Q200-Q190)/Q190*100</f>
-        <v>24.343795912625822</v>
+        <v>24.450086967308092</v>
       </c>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
@@ -18814,23 +18947,23 @@
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="187" t="s">
+      <c r="F202" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="G202" s="188"/>
-      <c r="H202" s="188"/>
-      <c r="I202" s="188"/>
-      <c r="J202" s="188"/>
-      <c r="K202" s="189"/>
+      <c r="G202" s="173"/>
+      <c r="H202" s="173"/>
+      <c r="I202" s="173"/>
+      <c r="J202" s="173"/>
+      <c r="K202" s="174"/>
       <c r="L202" s="2"/>
-      <c r="M202" s="187" t="s">
+      <c r="M202" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="N202" s="188"/>
-      <c r="O202" s="188"/>
-      <c r="P202" s="188"/>
-      <c r="Q202" s="188"/>
-      <c r="R202" s="189"/>
+      <c r="N202" s="173"/>
+      <c r="O202" s="173"/>
+      <c r="P202" s="173"/>
+      <c r="Q202" s="173"/>
+      <c r="R202" s="174"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
@@ -18859,33 +18992,33 @@
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="182" t="s">
+      <c r="F203" s="175" t="s">
         <v>159</v>
       </c>
-      <c r="G203" s="183"/>
-      <c r="H203" s="184" t="s">
+      <c r="G203" s="176"/>
+      <c r="H203" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="I203" s="184"/>
-      <c r="J203" s="191">
+      <c r="I203" s="177"/>
+      <c r="J203" s="190">
         <f>F8</f>
         <v>60.5</v>
       </c>
-      <c r="K203" s="192"/>
+      <c r="K203" s="191"/>
       <c r="L203" s="2"/>
-      <c r="M203" s="182" t="s">
+      <c r="M203" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="N203" s="183"/>
-      <c r="O203" s="184" t="s">
+      <c r="N203" s="176"/>
+      <c r="O203" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="P203" s="184"/>
-      <c r="Q203" s="185">
+      <c r="P203" s="177"/>
+      <c r="Q203" s="178">
         <f>F64</f>
         <v>15</v>
       </c>
-      <c r="R203" s="186"/>
+      <c r="R203" s="179"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
@@ -19047,11 +19180,11 @@
       <c r="H206" s="41"/>
       <c r="I206" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="J206" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="K206" s="42"/>
       <c r="L206" s="2"/>
@@ -19062,11 +19195,11 @@
       <c r="O206" s="41"/>
       <c r="P206" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q206" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R206" s="42"/>
       <c r="S206" s="2"/>
@@ -19110,14 +19243,14 @@
       </c>
       <c r="I207" s="23">
         <f t="dataTable" ref="I207:J227" dt2D="0" dtr="0" r1="F8" ca="1"/>
-        <v>3.2631828671520271</v>
+        <v>3.2580914861952119</v>
       </c>
       <c r="J207" s="23">
-        <v>2.8971019381817569</v>
+        <v>2.892581734981841</v>
       </c>
       <c r="K207" s="46">
         <f>(J207-J217)/J217*100</f>
-        <v>178.62631196554648</v>
+        <v>179.40623877568601</v>
       </c>
       <c r="L207" s="2"/>
       <c r="M207" s="43">
@@ -19133,14 +19266,14 @@
       </c>
       <c r="P207" s="23">
         <f t="dataTable" ref="P207:Q227" dt2D="0" dtr="0" r1="F64" ca="1"/>
-        <v>1.0854966789856337</v>
+        <v>1.0825042789178061</v>
       </c>
       <c r="Q207" s="23">
-        <v>0.91588595641083792</v>
+        <v>0.9133611239989623</v>
       </c>
       <c r="R207" s="46">
         <f>(Q207-Q217)/Q217*100</f>
-        <v>-11.915448037031046</v>
+        <v>-11.77473285743295</v>
       </c>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
@@ -19183,14 +19316,14 @@
         <v>16.850000000000001</v>
       </c>
       <c r="I208" s="23">
-        <v>2.5120440832237838</v>
+        <v>2.5069527022669678</v>
       </c>
       <c r="J208" s="23">
-        <v>2.2302298334439565</v>
+        <v>2.2257096302440402</v>
       </c>
       <c r="K208" s="46">
         <f>(J208-J217)/J217*100</f>
-        <v>114.49045514705651</v>
+        <v>114.99034888886696</v>
       </c>
       <c r="L208" s="2"/>
       <c r="M208" s="43">
@@ -19206,14 +19339,14 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="P208" s="23">
-        <v>1.0924649497981329</v>
+        <v>1.0892517444595942</v>
       </c>
       <c r="Q208" s="23">
-        <v>0.92706065124341319</v>
+        <v>0.9243339402086338</v>
       </c>
       <c r="R208" s="46">
         <f>(Q208-Q217)/Q217*100</f>
-        <v>-10.840731276979795</v>
+        <v>-10.714823894846473</v>
       </c>
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
@@ -19256,14 +19389,14 @@
         <v>21.700000000000003</v>
       </c>
       <c r="I209" s="23">
-        <v>2.0966677971805145</v>
+        <v>2.0915764162236994</v>
       </c>
       <c r="J209" s="23">
-        <v>1.861452632667292</v>
+        <v>1.8569324294673759</v>
       </c>
       <c r="K209" s="46">
         <f>(J209-J217)/J217*100</f>
-        <v>79.023621883375355</v>
+        <v>79.36865862887484</v>
       </c>
       <c r="L209" s="2"/>
       <c r="M209" s="43">
@@ -19279,14 +19412,14 @@
         <v>3.08</v>
       </c>
       <c r="P209" s="23">
-        <v>1.0998001243077651</v>
+        <v>1.0963655967000721</v>
       </c>
       <c r="Q209" s="23">
-        <v>0.93855907147561746</v>
+        <v>0.93562807795125968</v>
       </c>
       <c r="R209" s="46">
         <f>(Q209-Q217)/Q217*100</f>
-        <v>-9.7348805022777505</v>
+        <v>-9.6238771780369561</v>
       </c>
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
@@ -19329,14 +19462,14 @@
         <v>26.549999999999997</v>
       </c>
       <c r="I210" s="23">
-        <v>1.8330485723281966</v>
+        <v>1.827957191371381</v>
       </c>
       <c r="J210" s="23">
-        <v>1.6274075918730635</v>
+        <v>1.6228873886731474</v>
       </c>
       <c r="K210" s="46">
         <f>(J210-J217)/J217*100</f>
-        <v>56.514539378929975</v>
+        <v>56.761295883832851</v>
       </c>
       <c r="L210" s="2"/>
       <c r="M210" s="43">
@@ -19352,14 +19485,14 @@
         <v>4.57</v>
       </c>
       <c r="P210" s="23">
-        <v>1.1075051638353079</v>
+        <v>1.1038500843444259</v>
       </c>
       <c r="Q210" s="23">
-        <v>0.95036441478336198</v>
+        <v>0.94722794409702271</v>
       </c>
       <c r="R210" s="46">
         <f>(Q210-Q217)/Q217*100</f>
-        <v>-8.5995116621366332</v>
+        <v>-8.5033989108569248</v>
       </c>
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
@@ -19402,14 +19535,14 @@
         <v>31.4</v>
       </c>
       <c r="I211" s="23">
-        <v>1.6508658596117847</v>
+        <v>1.6457744786549695</v>
       </c>
       <c r="J211" s="23">
-        <v>1.4656630891585802</v>
+        <v>1.4611428859586644</v>
       </c>
       <c r="K211" s="46">
         <f>(J211-J217)/J217*100</f>
-        <v>40.958899558978821</v>
+        <v>41.137736279775147</v>
       </c>
       <c r="L211" s="2"/>
       <c r="M211" s="43">
@@ -19425,14 +19558,14 @@
         <v>6.0599999999999987</v>
       </c>
       <c r="P211" s="23">
-        <v>1.1155782368865457</v>
+        <v>1.1117045755108406</v>
       </c>
       <c r="Q211" s="23">
-        <v>0.96245725782843539</v>
+        <v>0.95911528379009081</v>
       </c>
       <c r="R211" s="46">
         <f>(Q211-Q217)/Q217*100</f>
-        <v>-7.4364927795695728</v>
+        <v>-7.3551524041043939</v>
       </c>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
@@ -19475,14 +19608,14 @@
         <v>36.25</v>
       </c>
       <c r="I212" s="23">
-        <v>1.5174327279532818</v>
+        <v>1.5123413469964659</v>
       </c>
       <c r="J212" s="23">
-        <v>1.3471991844118347</v>
+        <v>1.3426789812119182</v>
       </c>
       <c r="K212" s="46">
         <f>(J212-J217)/J217*100</f>
-        <v>29.565734394297376</v>
+        <v>29.694825728389368</v>
       </c>
       <c r="L212" s="2"/>
       <c r="M212" s="43">
@@ -19498,14 +19631,14 @@
         <v>7.55</v>
       </c>
       <c r="P212" s="23">
-        <v>1.1240131731870715</v>
+        <v>1.1199239922837889</v>
       </c>
       <c r="Q212" s="23">
-        <v>0.97481614186019949</v>
+        <v>0.97126974254158338</v>
       </c>
       <c r="R212" s="46">
         <f>(Q212-Q217)/Q217*100</f>
-        <v>-6.2478876316466483</v>
+        <v>-6.1811037806762714</v>
       </c>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
@@ -19548,14 +19681,14 @@
         <v>41.1</v>
       </c>
       <c r="I213" s="23">
-        <v>1.4154911139854718</v>
+        <v>1.4103997330286557</v>
       </c>
       <c r="J213" s="23">
-        <v>1.2566939141187004</v>
+        <v>1.2521737109187838</v>
       </c>
       <c r="K213" s="46">
         <f>(J213-J217)/J217*100</f>
-        <v>20.861467090866746</v>
+        <v>20.9525534336567</v>
       </c>
       <c r="L213" s="2"/>
       <c r="M213" s="43">
@@ -19571,14 +19704,14 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="P213" s="23">
-        <v>1.1328000095268516</v>
+        <v>1.1284993429275998</v>
       </c>
       <c r="Q213" s="23">
-        <v>0.98741816867780563</v>
+        <v>0.98366944312888838</v>
       </c>
       <c r="R213" s="46">
         <f>(Q213-Q217)/Q217*100</f>
-        <v>-5.0358984333362145</v>
+        <v>-4.9833662505161076</v>
       </c>
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
@@ -19621,14 +19754,14 @@
         <v>45.95</v>
       </c>
       <c r="I214" s="23">
-        <v>1.3350692748922588</v>
+        <v>1.3299778939354441</v>
       </c>
       <c r="J214" s="23">
-        <v>1.1852942177503407</v>
+        <v>1.1807740145504251</v>
       </c>
       <c r="K214" s="46">
         <f>(J214-J217)/J217*100</f>
-        <v>13.994662090880663</v>
+        <v>14.055766258813268</v>
       </c>
       <c r="L214" s="2"/>
       <c r="M214" s="43">
@@ -19644,14 +19777,14 @@
         <v>10.53</v>
       </c>
       <c r="P214" s="23">
-        <v>1.1419255895987608</v>
+        <v>1.1374183137463372</v>
       </c>
       <c r="Q214" s="23">
-        <v>1.0002395787407632</v>
+        <v>0.99629154942872988</v>
       </c>
       <c r="R214" s="46">
         <f>(Q214-Q217)/Q217*100</f>
-        <v>-3.8028102382132416</v>
+        <v>-3.7641456476840336</v>
       </c>
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
@@ -19694,14 +19827,14 @@
         <v>50.8</v>
       </c>
       <c r="I215" s="23">
-        <v>1.2700035743660576</v>
+        <v>1.264912193409242</v>
       </c>
       <c r="J215" s="23">
-        <v>1.1275279279720027</v>
+        <v>1.1230077247720867</v>
       </c>
       <c r="K215" s="46">
         <f>(J215-J217)/J217*100</f>
-        <v>8.4390383605769816</v>
+        <v>8.4758852964890643</v>
       </c>
       <c r="L215" s="2"/>
       <c r="M215" s="43">
@@ -19717,14 +19850,14 @@
         <v>12.02</v>
       </c>
       <c r="P215" s="23">
-        <v>1.1513741830991062</v>
+        <v>1.1466658853553149</v>
       </c>
       <c r="Q215" s="23">
-        <v>1.0132562883441243</v>
+        <v>1.0091127941036577</v>
       </c>
       <c r="R215" s="46">
         <f>(Q215-Q217)/Q217*100</f>
-        <v>-2.5509392760933447</v>
+        <v>-2.525689458971748</v>
       </c>
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
@@ -19766,14 +19899,14 @@
         <v>55.65</v>
       </c>
       <c r="I216" s="23">
-        <v>1.2162790651265438</v>
+        <v>1.2111876841697284</v>
       </c>
       <c r="J216" s="23">
-        <v>1.0798305152978855</v>
+        <v>1.0753103120979695</v>
       </c>
       <c r="K216" s="46">
         <f>(J216-J217)/J217*100</f>
-        <v>3.8517803119255274</v>
+        <v>3.8685981407155769</v>
       </c>
       <c r="L216" s="2"/>
       <c r="M216" s="43">
@@ -19788,14 +19921,14 @@
         <v>13.51</v>
       </c>
       <c r="P216" s="23">
-        <v>1.1611280944320579</v>
+        <v>1.1562249429949452</v>
       </c>
       <c r="Q216" s="23">
-        <v>1.0264443687610829</v>
+        <v>1.0221099527686175</v>
       </c>
       <c r="R216" s="46">
         <f>(Q216-Q217)/Q217*100</f>
-        <v>-1.2825868719013123</v>
+        <v>-1.2702410222242821</v>
       </c>
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
@@ -19836,10 +19969,10 @@
         <v>60.5</v>
       </c>
       <c r="I217" s="23">
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="J217" s="23">
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="K217" s="46">
         <f>(J217-J217)/J217*100</f>
@@ -19857,10 +19990,10 @@
         <v>15</v>
       </c>
       <c r="P217" s="23">
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q217" s="23">
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R217" s="46">
         <f>(Q217-Q217)/Q217*100</f>
@@ -19906,14 +20039,14 @@
         <v>61.95</v>
       </c>
       <c r="I218" s="23">
-        <v>1.1590530283758749</v>
+        <v>1.153961647419059</v>
       </c>
       <c r="J218" s="23">
-        <v>1.0290243947909101</v>
+        <v>1.0245041915909938</v>
       </c>
       <c r="K218" s="46">
         <f>(J218-J217)/J217*100</f>
-        <v>-1.0344550654254137</v>
+        <v>-1.0389717529757516</v>
       </c>
       <c r="L218" s="2"/>
       <c r="M218" s="43">
@@ -19928,14 +20061,14 @@
         <v>18</v>
       </c>
       <c r="P218" s="23">
-        <v>1.1921702260371818</v>
+        <v>1.1867212210908242</v>
       </c>
       <c r="Q218" s="23">
-        <v>1.0669906740104129</v>
+        <v>1.0621138222543294</v>
       </c>
       <c r="R218" s="46">
         <f>(Q218-Q217)/Q217*100</f>
-        <v>2.6169195094793678</v>
+        <v>2.5938954944043009</v>
       </c>
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
@@ -19978,14 +20111,14 @@
         <v>63.4</v>
       </c>
       <c r="I219" s="23">
-        <v>1.1474919849366301</v>
+        <v>1.1424006039798142</v>
       </c>
       <c r="J219" s="23">
-        <v>1.0187603296990044</v>
+        <v>1.0142401264990883</v>
       </c>
       <c r="K219" s="46">
         <f>(J219-J217)/J217*100</f>
-        <v>-2.021592785586841</v>
+        <v>-2.030419561414647</v>
       </c>
       <c r="L219" s="2"/>
       <c r="M219" s="43">
@@ -20001,14 +20134,14 @@
         <v>21</v>
       </c>
       <c r="P219" s="23">
-        <v>1.2140858201680589</v>
+        <v>1.2083088308527163</v>
       </c>
       <c r="Q219" s="23">
-        <v>1.0945431003843622</v>
+        <v>1.0893349316609788</v>
       </c>
       <c r="R219" s="46">
         <f>(Q219-Q217)/Q217*100</f>
-        <v>5.2667506545628502</v>
+        <v>5.2232932060168018</v>
       </c>
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
@@ -20051,14 +20184,14 @@
         <v>64.849999999999994</v>
       </c>
       <c r="I220" s="23">
-        <v>1.1364479349588161</v>
+        <v>1.1313565540020001</v>
       </c>
       <c r="J220" s="23">
-        <v>1.0089552590368061</v>
+        <v>1.0044350558368895</v>
       </c>
       <c r="K220" s="46">
         <f>(J220-J217)/J217*100</f>
-        <v>-2.9645871073139198</v>
+        <v>-2.9775312303860328</v>
       </c>
       <c r="L220" s="2"/>
       <c r="M220" s="43">
@@ -20074,14 +20207,14 @@
         <v>24</v>
       </c>
       <c r="P220" s="23">
-        <v>1.2367543238451679</v>
+        <v>1.2306791298899826</v>
       </c>
       <c r="Q220" s="23">
-        <v>1.1222936406686659</v>
+        <v>1.1167807013481585</v>
       </c>
       <c r="R220" s="46">
         <f>(Q220-Q217)/Q217*100</f>
-        <v>7.9356352362767906</v>
+        <v>7.8743917681968467</v>
       </c>
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
@@ -20124,14 +20257,14 @@
         <v>66.3</v>
       </c>
       <c r="I221" s="23">
-        <v>1.1258869580569546</v>
+        <v>1.1207955771001386</v>
       </c>
       <c r="J221" s="23">
-        <v>0.99957906778517114</v>
+        <v>0.99505886458525483</v>
       </c>
       <c r="K221" s="46">
         <f>(J221-J217)/J217*100</f>
-        <v>-3.8663343169292825</v>
+        <v>-3.8832156921173056</v>
       </c>
       <c r="L221" s="2"/>
       <c r="M221" s="43">
@@ -20147,14 +20280,14 @@
         <v>27</v>
       </c>
       <c r="P221" s="23">
-        <v>1.2600274829277445</v>
+        <v>1.2536829960757077</v>
       </c>
       <c r="Q221" s="23">
-        <v>1.1501236339923189</v>
+        <v>1.1443325346925433</v>
       </c>
       <c r="R221" s="46">
         <f>(Q221-Q217)/Q217*100</f>
-        <v>10.61216114639433</v>
+        <v>10.535735450565562</v>
       </c>
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
@@ -20197,14 +20330,14 @@
         <v>67.75</v>
       </c>
       <c r="I222" s="23">
-        <v>1.1157780377309658</v>
+        <v>1.1106866567741502</v>
       </c>
       <c r="J222" s="23">
-        <v>0.9906042190372959</v>
+        <v>0.98608401583737981</v>
       </c>
       <c r="K222" s="46">
         <f>(J222-J217)/J217*100</f>
-        <v>-4.7294827529965664</v>
+        <v>-4.7501328484756122</v>
       </c>
       <c r="L222" s="2"/>
       <c r="M222" s="43">
@@ -20220,14 +20353,14 @@
         <v>30</v>
       </c>
       <c r="P222" s="23">
-        <v>1.283773613483435</v>
+        <v>1.2771872032614997</v>
       </c>
       <c r="Q222" s="23">
-        <v>1.1779388539941726</v>
+        <v>1.1718954298053001</v>
       </c>
       <c r="R222" s="46">
         <f>(Q222-Q217)/Q217*100</f>
-        <v>13.287266244867602</v>
+        <v>13.19814763414816</v>
       </c>
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
@@ -20270,14 +20403,14 @@
         <v>69.2</v>
       </c>
       <c r="I223" s="23">
-        <v>1.1060927571296215</v>
+        <v>1.1010013761728057</v>
       </c>
       <c r="J223" s="23">
-        <v>0.98200548389301723</v>
+        <v>0.97748528069310081</v>
       </c>
       <c r="K223" s="46">
         <f>(J223-J217)/J217*100</f>
-        <v>-5.5564587835060557</v>
+        <v>-5.5807196615761185</v>
       </c>
       <c r="L223" s="2"/>
       <c r="M223" s="43">
@@ -20293,14 +20426,14 @@
         <v>33</v>
       </c>
       <c r="P223" s="23">
-        <v>1.3078790752953777</v>
+        <v>1.3010761674020277</v>
       </c>
       <c r="Q223" s="23">
-        <v>1.2056669816073395</v>
+        <v>1.1993957279564038</v>
       </c>
       <c r="R223" s="46">
         <f>(Q223-Q217)/Q217*100</f>
-        <v>15.953995307019792</v>
+        <v>15.854513322517573</v>
       </c>
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
@@ -20343,14 +20476,14 @@
         <v>70.650000000000006</v>
       </c>
       <c r="I224" s="23">
-        <v>1.0968050322783676</v>
+        <v>1.0917136513215522</v>
       </c>
       <c r="J224" s="23">
-        <v>0.97375970461453287</v>
+        <v>0.96923950141461701</v>
       </c>
       <c r="K224" s="46">
         <f>(J224-J217)/J217*100</f>
-        <v>-6.3494895841716152</v>
+        <v>-6.3772130315344659</v>
       </c>
       <c r="L224" s="2"/>
       <c r="M224" s="43">
@@ -20366,14 +20499,14 @@
         <v>36</v>
       </c>
       <c r="P224" s="23">
-        <v>1.3322479766254742</v>
+        <v>1.3252518587471962</v>
       </c>
       <c r="Q224" s="23">
-        <v>1.2332543887473761</v>
+        <v>1.2267781221446412</v>
       </c>
       <c r="R224" s="46">
         <f>(Q224-Q217)/Q217*100</f>
-        <v>18.607190697494914</v>
+        <v>18.49949018740006</v>
       </c>
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
@@ -20416,14 +20549,14 @@
         <v>72.099999999999994</v>
       </c>
       <c r="I225" s="23">
-        <v>1.0878908774974139</v>
+        <v>1.0827994965405985</v>
       </c>
       <c r="J225" s="23">
-        <v>0.96584558636111995</v>
+        <v>0.96132538316120375</v>
       </c>
       <c r="K225" s="46">
         <f>(J225-J217)/J217*100</f>
-        <v>-7.110623168166792</v>
+        <v>-7.1416699136581734</v>
       </c>
       <c r="L225" s="2"/>
       <c r="M225" s="43">
@@ -20439,14 +20572,14 @@
         <v>39</v>
       </c>
       <c r="P225" s="23">
-        <v>1.3568008350540954</v>
+        <v>1.3496326109720218</v>
       </c>
       <c r="Q225" s="23">
-        <v>1.2606628055134688</v>
+        <v>1.254002496020443</v>
       </c>
       <c r="R225" s="46">
         <f>(Q225-Q217)/Q217*100</f>
-        <v>21.243171841169787</v>
+        <v>21.12920322737007</v>
       </c>
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
@@ -20489,14 +20622,14 @@
         <v>73.55</v>
       </c>
       <c r="I226" s="23">
-        <v>1.0793281985677827</v>
+        <v>1.0742368176109673</v>
       </c>
       <c r="J226" s="23">
-        <v>0.95824351355889492</v>
+        <v>0.95372331035897895</v>
       </c>
       <c r="K226" s="46">
         <f>(J226-J217)/J217*100</f>
-        <v>-7.8417460466067919</v>
+        <v>-7.875985056038032</v>
       </c>
       <c r="L226" s="2"/>
       <c r="M226" s="43">
@@ -20512,14 +20645,14 @@
         <v>42</v>
       </c>
       <c r="P226" s="23">
-        <v>1.3814727242049671</v>
+        <v>1.3741513674363224</v>
       </c>
       <c r="Q226" s="23">
-        <v>1.2878662113643042</v>
+        <v>1.2810409387125352</v>
       </c>
       <c r="R226" s="46">
         <f>(Q226-Q217)/Q217*100</f>
-        <v>23.859436234640615</v>
+        <v>23.740956417810803</v>
       </c>
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
@@ -20561,14 +20694,14 @@
         <v>75</v>
       </c>
       <c r="I227" s="158">
-        <v>1.0710966098900971</v>
+        <v>1.0660052289332818</v>
       </c>
       <c r="J227" s="158">
-        <v>0.95093538757168938</v>
+        <v>0.94641518437177352</v>
       </c>
       <c r="K227" s="52">
         <f>(J227-J217)/J217*100</f>
-        <v>-8.5445988404137658</v>
+        <v>-8.5819066795792018</v>
       </c>
       <c r="L227" s="2"/>
       <c r="M227" s="49">
@@ -20583,14 +20716,14 @@
         <v>45</v>
       </c>
       <c r="P227" s="158">
-        <v>1.4062112593012879</v>
+        <v>1.39875372869777</v>
       </c>
       <c r="Q227" s="158">
-        <v>1.3148481179795142</v>
+        <v>1.307875111602306</v>
       </c>
       <c r="R227" s="52">
         <f>(Q227-Q217)/Q217*100</f>
-        <v>26.454398127736102</v>
+        <v>26.332978356936543</v>
       </c>
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
@@ -20661,23 +20794,23 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="187" t="s">
+      <c r="F229" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="G229" s="188"/>
-      <c r="H229" s="188"/>
-      <c r="I229" s="188"/>
-      <c r="J229" s="188"/>
-      <c r="K229" s="189"/>
+      <c r="G229" s="173"/>
+      <c r="H229" s="173"/>
+      <c r="I229" s="173"/>
+      <c r="J229" s="173"/>
+      <c r="K229" s="174"/>
       <c r="L229" s="2"/>
-      <c r="M229" s="187" t="s">
+      <c r="M229" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="N229" s="188"/>
-      <c r="O229" s="188"/>
-      <c r="P229" s="188"/>
-      <c r="Q229" s="188"/>
-      <c r="R229" s="189"/>
+      <c r="N229" s="173"/>
+      <c r="O229" s="173"/>
+      <c r="P229" s="173"/>
+      <c r="Q229" s="173"/>
+      <c r="R229" s="174"/>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
       <c r="U229" s="2"/>
@@ -20706,33 +20839,33 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="182" t="s">
+      <c r="F230" s="175" t="s">
         <v>167</v>
       </c>
-      <c r="G230" s="183"/>
-      <c r="H230" s="184" t="s">
+      <c r="G230" s="176"/>
+      <c r="H230" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="I230" s="184"/>
-      <c r="J230" s="191">
+      <c r="I230" s="177"/>
+      <c r="J230" s="190">
         <f>F11</f>
         <v>91.324200913242009</v>
       </c>
-      <c r="K230" s="192"/>
+      <c r="K230" s="191"/>
       <c r="L230" s="2"/>
-      <c r="M230" s="182" t="s">
+      <c r="M230" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="N230" s="183"/>
-      <c r="O230" s="184" t="s">
+      <c r="N230" s="176"/>
+      <c r="O230" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="P230" s="184"/>
-      <c r="Q230" s="185">
+      <c r="P230" s="177"/>
+      <c r="Q230" s="178">
         <f>F65</f>
         <v>15</v>
       </c>
-      <c r="R230" s="186"/>
+      <c r="R230" s="179"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
       <c r="U230" s="2"/>
@@ -20894,11 +21027,11 @@
       <c r="H233" s="41"/>
       <c r="I233" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="J233" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="K233" s="42"/>
       <c r="L233" s="2"/>
@@ -20909,11 +21042,11 @@
       <c r="O233" s="41"/>
       <c r="P233" s="157">
         <f>F139</f>
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q233" s="157">
         <f>F140</f>
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R233" s="42"/>
       <c r="S233" s="2"/>
@@ -20957,14 +21090,14 @@
       </c>
       <c r="I234" s="23">
         <f t="dataTable" ref="I234:J254" dt2D="0" dtr="0" r1="F11" ca="1"/>
-        <v>2.9050323983061137</v>
+        <v>2.8999404629255867</v>
       </c>
       <c r="J234" s="23">
-        <v>2.5791306629893938</v>
+        <v>2.5746099675639194</v>
       </c>
       <c r="K234" s="46">
         <f>(J234-J244)/J244*100</f>
-        <v>148.03932793285404</v>
+        <v>148.68564017162632</v>
       </c>
       <c r="L234" s="2"/>
       <c r="M234" s="43">
@@ -20980,14 +21113,14 @@
       </c>
       <c r="P234" s="23">
         <f t="dataTable" ref="P234:Q254" dt2D="0" dtr="0" r1="F65" ca="1"/>
-        <v>1.7326863107161734</v>
+        <v>1.7238052702100648</v>
       </c>
       <c r="Q234" s="23">
-        <v>1.6366701997182398</v>
+        <v>1.6282812984791977</v>
       </c>
       <c r="R234" s="46">
         <f>(Q234-Q244)/Q244*100</f>
-        <v>57.405362801147675</v>
+        <v>57.282315578100281</v>
       </c>
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
@@ -21030,14 +21163,14 @@
         <v>31.632000000000005</v>
       </c>
       <c r="I235" s="23">
-        <v>2.4044831771752131</v>
+        <v>2.3993914018512599</v>
       </c>
       <c r="J235" s="23">
-        <v>2.1347356726591933</v>
+        <v>2.1302151193343088</v>
       </c>
       <c r="K235" s="46">
         <f>(J235-J244)/J244*100</f>
-        <v>105.3011152784906</v>
+        <v>105.76084041039424</v>
       </c>
       <c r="L235" s="2"/>
       <c r="M235" s="43">
@@ -21053,14 +21186,14 @@
         <v>6</v>
       </c>
       <c r="P235" s="23">
-        <v>1.5888245367651028</v>
+        <v>1.5809580148434634</v>
       </c>
       <c r="Q235" s="23">
-        <v>1.4888696086468862</v>
+        <v>1.4814979794053527</v>
       </c>
       <c r="R235" s="46">
         <f>(Q235-Q244)/Q244*100</f>
-        <v>43.190766809960458</v>
+        <v>43.103917574182887</v>
       </c>
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
@@ -21103,14 +21236,14 @@
         <v>38.263999999999996</v>
       </c>
       <c r="I236" s="23">
-        <v>2.0774465231852361</v>
+        <v>2.0723548524351476</v>
       </c>
       <c r="J236" s="23">
-        <v>1.8443877017660566</v>
+        <v>1.8398672412833932</v>
       </c>
       <c r="K236" s="46">
         <f>(J236-J244)/J244*100</f>
-        <v>77.377863230636663</v>
+        <v>77.715680624935359</v>
       </c>
       <c r="L236" s="2"/>
       <c r="M236" s="43">
@@ -21126,14 +21259,14 @@
         <v>7</v>
       </c>
       <c r="P236" s="23">
-        <v>1.4863614415957487</v>
+        <v>1.4792057220647417</v>
       </c>
       <c r="Q236" s="23">
-        <v>1.3823812584679713</v>
+        <v>1.3757261258106701</v>
       </c>
       <c r="R236" s="46">
         <f>(Q236-Q244)/Q244*100</f>
-        <v>32.949340408420682</v>
+        <v>32.886983883488647</v>
       </c>
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
@@ -21176,14 +21309,14 @@
         <v>44.896000000000001</v>
       </c>
       <c r="I237" s="23">
-        <v>1.8470290374624327</v>
+        <v>1.8419374403910784</v>
       </c>
       <c r="J237" s="23">
-        <v>1.6398196552743487</v>
+        <v>1.6352992602047538</v>
       </c>
       <c r="K237" s="46">
         <f>(J237-J244)/J244*100</f>
-        <v>57.704210593926973</v>
+        <v>57.956136471032153</v>
       </c>
       <c r="L237" s="2"/>
       <c r="M237" s="43">
@@ -21199,14 +21332,14 @@
         <v>8</v>
       </c>
       <c r="P237" s="23">
-        <v>1.4100648775803439</v>
+        <v>1.4034304368969415</v>
       </c>
       <c r="Q237" s="23">
-        <v>1.3021003497940997</v>
+        <v>1.2959738887553915</v>
       </c>
       <c r="R237" s="46">
         <f>(Q237-Q244)/Q244*100</f>
-        <v>25.228392377478333</v>
+        <v>25.183390819867864</v>
       </c>
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
@@ -21249,14 +21382,14 @@
         <v>51.527999999999999</v>
       </c>
       <c r="I238" s="23">
-        <v>1.6759241105547842</v>
+        <v>1.6708325681962677</v>
       </c>
       <c r="J238" s="23">
-        <v>1.4879101743909708</v>
+        <v>1.4833898278962414</v>
       </c>
       <c r="K238" s="46">
         <f>(J238-J244)/J244*100</f>
-        <v>43.094820660472202</v>
+        <v>43.282964651731007</v>
       </c>
       <c r="L238" s="2"/>
       <c r="M238" s="43">
@@ -21272,14 +21405,14 @@
         <v>9</v>
       </c>
       <c r="P238" s="23">
-        <v>1.3513252941662921</v>
+        <v>1.3450860804250828</v>
       </c>
       <c r="Q238" s="23">
-        <v>1.2394873711973011</v>
+        <v>1.2337645251351319</v>
       </c>
       <c r="R238" s="46">
         <f>(Q238-Q244)/Q244*100</f>
-        <v>19.206642477109725</v>
+        <v>19.174335277700148</v>
       </c>
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
@@ -21322,14 +21455,14 @@
         <v>58.16</v>
       </c>
       <c r="I239" s="23">
-        <v>1.5438414627135559</v>
+        <v>1.5387499625900394</v>
       </c>
       <c r="J239" s="23">
-        <v>1.3706452491203358</v>
+        <v>1.3661249401224624</v>
       </c>
       <c r="K239" s="46">
         <f>(J239-J244)/J244*100</f>
-        <v>31.817255831510966</v>
+        <v>31.956164067148034</v>
       </c>
       <c r="L239" s="2"/>
       <c r="M239" s="43">
@@ -21345,14 +21478,14 @@
         <v>10</v>
       </c>
       <c r="P239" s="23">
-        <v>1.3049118627347018</v>
+        <v>1.2989799318897344</v>
       </c>
       <c r="Q239" s="23">
-        <v>1.1893516709804879</v>
+        <v>1.1839450591900047</v>
       </c>
       <c r="R239" s="46">
         <f>(Q239-Q244)/Q244*100</f>
-        <v>14.384884200289113</v>
+        <v>14.362070362520923</v>
       </c>
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
@@ -21395,14 +21528,14 @@
         <v>64.792000000000002</v>
       </c>
       <c r="I240" s="23">
-        <v>1.4387983296421456</v>
+        <v>1.4337068631074215</v>
       </c>
       <c r="J240" s="23">
-        <v>1.2773864043656542</v>
+        <v>1.272866125188407</v>
       </c>
       <c r="K240" s="46">
         <f>(J240-J244)/J244*100</f>
-        <v>22.848396087920406</v>
+        <v>22.948147945985014</v>
       </c>
       <c r="L240" s="2"/>
       <c r="M240" s="43">
@@ -21418,14 +21551,14 @@
         <v>11</v>
       </c>
       <c r="P240" s="23">
-        <v>1.2674647358283857</v>
+        <v>1.2617764137732019</v>
       </c>
       <c r="Q240" s="23">
-        <v>1.1483565970424483</v>
+        <v>1.1432028267058694</v>
       </c>
       <c r="R240" s="46">
         <f>(Q240-Q244)/Q244*100</f>
-        <v>10.442217872407126</v>
+        <v>10.426612359710747</v>
       </c>
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
@@ -21468,14 +21601,14 @@
         <v>71.423999999999992</v>
       </c>
       <c r="I241" s="23">
-        <v>1.3532625346792033</v>
+        <v>1.3481710954955681</v>
       </c>
       <c r="J241" s="23">
-        <v>1.2014464624563208</v>
+        <v>1.1969262075617741</v>
       </c>
       <c r="K241" s="46">
         <f>(J241-J244)/J244*100</f>
-        <v>15.545124320906215</v>
+        <v>15.612991449473506</v>
       </c>
       <c r="L241" s="2"/>
       <c r="M241" s="43">
@@ -21491,14 +21624,14 @@
         <v>12</v>
       </c>
       <c r="P241" s="23">
-        <v>1.2367284471747872</v>
+        <v>1.2312362546694224</v>
       </c>
       <c r="Q241" s="23">
-        <v>1.1142595246408329</v>
+        <v>1.1093112048829721</v>
       </c>
       <c r="R241" s="46">
         <f>(Q241-Q244)/Q244*100</f>
-        <v>7.1629609685072202</v>
+        <v>7.1528827136224109</v>
       </c>
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
@@ -21541,14 +21674,14 @@
         <v>78.055999999999997</v>
       </c>
       <c r="I242" s="23">
-        <v>1.2822617759003914</v>
+        <v>1.277170359420094</v>
       </c>
       <c r="J242" s="23">
-        <v>1.1384109403159401</v>
+        <v>1.1338907055777525</v>
       </c>
       <c r="K242" s="46">
         <f>(J242-J244)/J244*100</f>
-        <v>9.4828922781627281</v>
+        <v>9.5242928264083577</v>
       </c>
       <c r="L242" s="2"/>
       <c r="M242" s="43">
@@ -21564,14 +21697,14 @@
         <v>13</v>
       </c>
       <c r="P242" s="23">
-        <v>1.2111336782079738</v>
+        <v>1.2058013588572734</v>
       </c>
       <c r="Q242" s="23">
-        <v>1.0854973002463322</v>
+        <v>1.0807181265156496</v>
       </c>
       <c r="R242" s="46">
         <f>(Q242-Q244)/Q244*100</f>
-        <v>4.3967785289639298</v>
+        <v>4.3909609379937722</v>
       </c>
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
@@ -21613,14 +21746,14 @@
         <v>84.687999999999988</v>
       </c>
       <c r="I243" s="23">
-        <v>1.2223812946631689</v>
+        <v>1.2172898973303685</v>
       </c>
       <c r="J243" s="23">
-        <v>1.0852481647945613</v>
+        <v>1.080727947055804</v>
       </c>
       <c r="K243" s="46">
         <f>(J243-J244)/J244*100</f>
-        <v>4.3701388606666338</v>
+        <v>4.3892180761036332</v>
       </c>
       <c r="L243" s="2"/>
       <c r="M243" s="43">
@@ -21635,14 +21768,14 @@
         <v>14</v>
       </c>
       <c r="P243" s="23">
-        <v>1.189555715682908</v>
+        <v>1.1843550371167351</v>
       </c>
       <c r="Q243" s="23">
-        <v>1.0609468754367903</v>
+        <v>1.056308468338923</v>
       </c>
       <c r="R243" s="46">
         <f>(Q243-Q244)/Q244*100</f>
-        <v>2.0356623280741606</v>
+        <v>2.033132739579127</v>
       </c>
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
@@ -21683,10 +21816,10 @@
         <v>91.32</v>
       </c>
       <c r="I244" s="23">
-        <v>1.1711983025097237</v>
+        <v>1.1661069215432946</v>
       </c>
       <c r="J244" s="23">
-        <v>1.0398071485210532</v>
+        <v>1.0352869453126021</v>
       </c>
       <c r="K244" s="46">
         <f>(J244-J244)/J244*100</f>
@@ -21704,10 +21837,10 @@
         <v>15</v>
       </c>
       <c r="P244" s="23">
-        <v>1.1711682375336956</v>
+        <v>1.1660768565768804</v>
       </c>
       <c r="Q244" s="23">
-        <v>1.039780456391354</v>
+        <v>1.0352602531914381</v>
       </c>
       <c r="R244" s="46">
         <f>(Q244-Q244)/Q244*100</f>
@@ -21753,14 +21886,14 @@
         <v>92.187999999999988</v>
       </c>
       <c r="I245" s="23">
-        <v>1.1650444318767077</v>
+        <v>1.1599530528780515</v>
       </c>
       <c r="J245" s="23">
-        <v>1.034343651296397</v>
+        <v>1.0298234498349637</v>
       </c>
       <c r="K245" s="46">
         <f>(J245-J244)/J244*100</f>
-        <v>-0.52543370493528496</v>
+        <v>-0.5277276510029576</v>
       </c>
       <c r="L245" s="2"/>
       <c r="M245" s="43">
@@ -21775,14 +21908,14 @@
         <v>16.5</v>
       </c>
       <c r="P245" s="23">
-        <v>1.1463817162073835</v>
+        <v>1.1414217651394492</v>
       </c>
       <c r="Q245" s="23">
-        <v>1.0114002761689649</v>
+        <v>1.0070243376757295</v>
       </c>
       <c r="R245" s="46">
         <f>(Q245-Q244)/Q244*100</f>
-        <v>-2.7294396666085552</v>
+        <v>-2.7274219626093634</v>
       </c>
       <c r="S245" s="2"/>
       <c r="T245" s="2"/>
@@ -21825,14 +21958,14 @@
         <v>93.055999999999997</v>
       </c>
       <c r="I246" s="23">
-        <v>1.1590053643667459</v>
+        <v>1.1539139872991533</v>
       </c>
       <c r="J246" s="23">
-        <v>1.0289820779797318</v>
+        <v>1.0244618782327253</v>
       </c>
       <c r="K246" s="46">
         <f>(J246-J244)/J244*100</f>
-        <v>-1.0410652164411558</v>
+        <v>-1.045610314018617</v>
       </c>
       <c r="L246" s="2"/>
       <c r="M246" s="43">
@@ -21848,14 +21981,14 @@
         <v>18</v>
       </c>
       <c r="P246" s="23">
-        <v>1.1296400686505921</v>
+        <v>1.124781806811346</v>
       </c>
       <c r="Q246" s="23">
-        <v>0.99103187898154599</v>
+        <v>0.98676973168990134</v>
       </c>
       <c r="R246" s="46">
         <f>(Q246-Q244)/Q244*100</f>
-        <v>-4.6883529220191384</v>
+        <v>-4.6838967643211546</v>
       </c>
       <c r="S246" s="2"/>
       <c r="T246" s="2"/>
@@ -21898,14 +22031,14 @@
         <v>93.923999999999992</v>
       </c>
       <c r="I247" s="23">
-        <v>1.1530779171156871</v>
+        <v>1.1479865419434669</v>
       </c>
       <c r="J247" s="23">
-        <v>1.0237196027772619</v>
+        <v>1.0191994047129951</v>
       </c>
       <c r="K247" s="46">
         <f>(J247-J244)/J244*100</f>
-        <v>-1.5471662958533221</v>
+        <v>-1.5539209368422446</v>
       </c>
       <c r="L247" s="2"/>
       <c r="M247" s="43">
@@ -21921,14 +22054,14 @@
         <v>19.5</v>
       </c>
       <c r="P247" s="23">
-        <v>1.1124124071863128</v>
+        <v>1.1076335938833881</v>
       </c>
       <c r="Q247" s="23">
-        <v>0.97101920445518963</v>
+        <v>0.96684780231901346</v>
       </c>
       <c r="R247" s="46">
         <f>(Q247-Q244)/Q244*100</f>
-        <v>-6.613054853406851</v>
+        <v>-6.6082369782406749</v>
       </c>
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
@@ -21971,14 +22104,14 @@
         <v>94.792000000000002</v>
       </c>
       <c r="I248" s="23">
-        <v>1.1472590238399414</v>
+        <v>1.1421676505283822</v>
       </c>
       <c r="J248" s="23">
-        <v>1.0185535033971349</v>
+        <v>1.01403330698479</v>
       </c>
       <c r="K248" s="46">
         <f>(J248-J244)/J244*100</f>
-        <v>-2.0439987505517641</v>
+        <v>-2.0529224698563788</v>
       </c>
       <c r="L248" s="2"/>
       <c r="M248" s="43">
@@ -21994,14 +22127,14 @@
         <v>21</v>
       </c>
       <c r="P248" s="23">
-        <v>1.1014323028127535</v>
+        <v>1.0967160266870568</v>
       </c>
       <c r="Q248" s="23">
-        <v>0.95713627448523098</v>
+        <v>0.95303786648606004</v>
       </c>
       <c r="R248" s="46">
         <f>(Q248-Q244)/Q244*100</f>
-        <v>-7.9482338216806472</v>
+        <v>-7.9421948685760748</v>
       </c>
       <c r="S248" s="2"/>
       <c r="T248" s="2"/>
@@ -22044,14 +22177,14 @@
         <v>95.66</v>
       </c>
       <c r="I249" s="23">
-        <v>1.141545729547331</v>
+        <v>1.1364543580626654</v>
       </c>
       <c r="J249" s="23">
-        <v>1.0134811563536574</v>
+        <v>1.008960961563256</v>
       </c>
       <c r="K249" s="46">
         <f>(J249-J244)/J244*100</f>
-        <v>-2.5318148855621856</v>
+        <v>-2.5428683196036124</v>
       </c>
       <c r="L249" s="2"/>
       <c r="M249" s="43">
@@ -22067,14 +22200,14 @@
         <v>22.5</v>
       </c>
       <c r="P249" s="23">
-        <v>1.0889798346221145</v>
+        <v>1.084313081067267</v>
       </c>
       <c r="Q249" s="23">
-        <v>0.94255916557126618</v>
+        <v>0.93851988844534018</v>
       </c>
       <c r="R249" s="46">
         <f>(Q249-Q244)/Q244*100</f>
-        <v>-9.3501748587872573</v>
+        <v>-9.3445454365578655</v>
       </c>
       <c r="S249" s="2"/>
       <c r="T249" s="2"/>
@@ -22117,14 +22250,14 @@
         <v>96.527999999999992</v>
       </c>
       <c r="I250" s="23">
-        <v>1.1359351855333135</v>
+        <v>1.1308438158426859</v>
       </c>
       <c r="J250" s="23">
-        <v>1.0085000325248694</v>
+        <v>1.0039798393272412</v>
       </c>
       <c r="K250" s="46">
         <f>(J250-J244)/J244*100</f>
-        <v>-3.0108579307915639</v>
+        <v>-3.0240027778876133</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="43">
@@ -22140,14 +22273,14 @@
         <v>24</v>
       </c>
       <c r="P250" s="23">
-        <v>1.0812600325419952</v>
+        <v>1.0766326765636332</v>
       </c>
       <c r="Q250" s="23">
-        <v>0.93258988937496312</v>
+        <v>0.92859878152848718</v>
       </c>
       <c r="R250" s="46">
         <f>(Q250-Q244)/Q244*100</f>
-        <v>-10.308961507932626</v>
+        <v>-10.302865519480859</v>
       </c>
       <c r="S250" s="2"/>
       <c r="T250" s="2"/>
@@ -22190,14 +22323,14 @@
         <v>97.396000000000001</v>
       </c>
       <c r="I251" s="23">
-        <v>1.1304246446447657</v>
+        <v>1.1253332767161992</v>
       </c>
       <c r="J251" s="23">
-        <v>1.0036076929476594</v>
+        <v>0.99908750131441526</v>
       </c>
       <c r="K251" s="46">
         <f>(J251-J244)/J244*100</f>
-        <v>-3.4813624454189673</v>
+        <v>-3.496561427929195</v>
       </c>
       <c r="L251" s="2"/>
       <c r="M251" s="43">
@@ -22213,14 +22346,14 @@
         <v>25.5</v>
       </c>
       <c r="P251" s="23">
-        <v>1.0719900443448802</v>
+        <v>1.0673941510938052</v>
       </c>
       <c r="Q251" s="23">
-        <v>0.9217286295663264</v>
+        <v>0.91777694511711538</v>
       </c>
       <c r="R251" s="46">
         <f>(Q251-Q244)/Q244*100</f>
-        <v>-11.353533921452652</v>
+        <v>-11.348190729060855</v>
       </c>
       <c r="S251" s="2"/>
       <c r="T251" s="2"/>
@@ -22263,14 +22396,14 @@
         <v>98.263999999999996</v>
       </c>
       <c r="I252" s="23">
-        <v>1.1250114567947929</v>
+        <v>1.1199200905971578</v>
       </c>
       <c r="J252" s="23">
-        <v>0.99880178483574733</v>
+        <v>0.99428159473924949</v>
       </c>
       <c r="K252" s="46">
         <f>(J252-J244)/J244*100</f>
-        <v>-3.9435547008528369</v>
+        <v>-3.9607715289958754</v>
       </c>
       <c r="L252" s="2"/>
       <c r="M252" s="43">
@@ -22286,14 +22419,14 @@
         <v>27</v>
       </c>
       <c r="P252" s="23">
-        <v>1.0662590877826605</v>
+        <v>1.0616883931562815</v>
       </c>
       <c r="Q252" s="23">
-        <v>0.91430051549361235</v>
+        <v>0.91038121623422452</v>
       </c>
       <c r="R252" s="46">
         <f>(Q252-Q244)/Q244*100</f>
-        <v>-12.067926467211199</v>
+        <v>-12.062574272724563</v>
       </c>
       <c r="S252" s="2"/>
       <c r="T252" s="2"/>
@@ -22336,14 +22469,14 @@
         <v>99.132000000000005</v>
       </c>
       <c r="I253" s="23">
-        <v>1.1196930647131653</v>
+        <v>1.1146017002161497</v>
       </c>
       <c r="J253" s="23">
-        <v>0.99408003780685927</v>
+        <v>0.98955984922019646</v>
       </c>
       <c r="K253" s="46">
         <f>(J253-J244)/J244*100</f>
-        <v>-4.3976530435699388</v>
+        <v>-4.4168523808245732</v>
       </c>
       <c r="L253" s="2"/>
       <c r="M253" s="43">
@@ -22359,14 +22492,14 @@
         <v>28.5</v>
       </c>
       <c r="P253" s="23">
-        <v>1.0591991841217356</v>
+        <v>1.0546487213585145</v>
       </c>
       <c r="Q253" s="23">
-        <v>0.90607290195169465</v>
+        <v>0.902180290379761</v>
       </c>
       <c r="R253" s="46">
         <f>(Q253-Q244)/Q244*100</f>
-        <v>-12.85921019363094</v>
+        <v>-12.854735067962494</v>
       </c>
       <c r="S253" s="2"/>
       <c r="T253" s="2"/>
@@ -22408,14 +22541,14 @@
         <v>100</v>
       </c>
       <c r="I254" s="158">
-        <v>1.1144669999180747</v>
+        <v>1.109375637092155</v>
       </c>
       <c r="J254" s="158">
-        <v>0.98944026030639243</v>
+        <v>0.9849200732033534</v>
       </c>
       <c r="K254" s="52">
         <f>(J254-J244)/J244*100</f>
-        <v>-4.8438682390574996</v>
+        <v>-4.8650156690656026</v>
       </c>
       <c r="L254" s="2"/>
       <c r="M254" s="49">
@@ -22430,14 +22563,14 @@
         <v>30</v>
       </c>
       <c r="P254" s="158">
-        <v>1.0547680984228804</v>
+        <v>1.0502339092346973</v>
       </c>
       <c r="Q254" s="158">
-        <v>0.90039202497799797</v>
+        <v>0.89652146064173677</v>
       </c>
       <c r="R254" s="52">
         <f>(Q254-Q244)/Q244*100</f>
-        <v>-13.405563699198131</v>
+        <v>-13.401344456334119</v>
       </c>
       <c r="S254" s="2"/>
       <c r="T254" s="2"/>
@@ -22672,12 +22805,12 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="190"/>
-      <c r="G260" s="190"/>
-      <c r="H260" s="190"/>
-      <c r="I260" s="190"/>
-      <c r="J260" s="190"/>
-      <c r="K260" s="190"/>
+      <c r="F260" s="180"/>
+      <c r="G260" s="180"/>
+      <c r="H260" s="180"/>
+      <c r="I260" s="180"/>
+      <c r="J260" s="180"/>
+      <c r="K260" s="180"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -22713,12 +22846,12 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="203"/>
-      <c r="G261" s="203"/>
-      <c r="H261" s="204"/>
-      <c r="I261" s="204"/>
-      <c r="J261" s="205"/>
-      <c r="K261" s="205"/>
+      <c r="F261" s="181"/>
+      <c r="G261" s="181"/>
+      <c r="H261" s="182"/>
+      <c r="I261" s="182"/>
+      <c r="J261" s="183"/>
+      <c r="K261" s="183"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -24968,12 +25101,12 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="190"/>
-      <c r="G316" s="190"/>
-      <c r="H316" s="190"/>
-      <c r="I316" s="190"/>
-      <c r="J316" s="190"/>
-      <c r="K316" s="190"/>
+      <c r="F316" s="180"/>
+      <c r="G316" s="180"/>
+      <c r="H316" s="180"/>
+      <c r="I316" s="180"/>
+      <c r="J316" s="180"/>
+      <c r="K316" s="180"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -25009,12 +25142,12 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="203"/>
-      <c r="G317" s="203"/>
-      <c r="H317" s="204"/>
-      <c r="I317" s="204"/>
-      <c r="J317" s="205"/>
-      <c r="K317" s="205"/>
+      <c r="F317" s="181"/>
+      <c r="G317" s="181"/>
+      <c r="H317" s="182"/>
+      <c r="I317" s="182"/>
+      <c r="J317" s="183"/>
+      <c r="K317" s="183"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -26154,20 +26287,39 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="58">
-    <mergeCell ref="M229:R229"/>
-    <mergeCell ref="M230:N230"/>
-    <mergeCell ref="O230:P230"/>
-    <mergeCell ref="Q230:R230"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="F316:K316"/>
-    <mergeCell ref="M202:R202"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="F202:K202"/>
-    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="M147:R147"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F147:K147"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F146:R146"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="F229:K229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="F175:K175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E94:G94"/>
     <mergeCell ref="M175:R175"/>
     <mergeCell ref="M148:N148"/>
     <mergeCell ref="O148:P148"/>
@@ -26178,40 +26330,21 @@
     <mergeCell ref="J261:K261"/>
     <mergeCell ref="F261:G261"/>
     <mergeCell ref="H261:I261"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="F229:K229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="F175:K175"/>
     <mergeCell ref="F260:K260"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="F146:R146"/>
-    <mergeCell ref="M147:R147"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F147:K147"/>
-    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="F316:K316"/>
+    <mergeCell ref="M202:R202"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="F202:K202"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="M229:R229"/>
+    <mergeCell ref="M230:N230"/>
+    <mergeCell ref="O230:P230"/>
+    <mergeCell ref="Q230:R230"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G135:AJ135">
@@ -26237,5 +26370,6 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/10-31-2013-energy-cost-calculator-hydrogen-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-hydrogen-model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E14BA-6ED9-49A8-9D35-FDF188F8153A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4D31D5-EAE6-4431-BAC6-F2CB748ACE92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="178">
   <si>
     <t>Federal Tax Rate (%)</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>General Inflation</t>
-  </si>
-  <si>
-    <t>Escalation--feedstock</t>
   </si>
   <si>
     <t>Fraction Applied</t>
@@ -570,9 +567,6 @@
     <t>Total capital recovery ($)</t>
   </si>
   <si>
-    <t>Non-feedstock Operating Expenses</t>
-  </si>
-  <si>
     <t>Operating expenses rate (% of capital investment)</t>
   </si>
   <si>
@@ -677,6 +671,30 @@
   <si>
     <t>Capital Recovery Factor (equity, Constant)</t>
   </si>
+  <si>
+    <t>Non-fuel Expenses</t>
+  </si>
+  <si>
+    <t>Escalation--Fuel</t>
+  </si>
+  <si>
+    <t>The spreadsheet cells highlighted in green are input cells:</t>
+  </si>
+  <si>
+    <t>Input Cell</t>
+  </si>
+  <si>
+    <t>Principal results are highlighted in blue:</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>different variables from generic-power-only are hightlighted in:</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +707,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="Helv"/>
@@ -832,8 +850,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,6 +908,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1594,6 +1623,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1612,22 +1683,16 @@
     <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1642,18 +1707,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1666,42 +1719,32 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5934,8 +5977,8 @@
   </sheetPr>
   <dimension ref="A1:AM344"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B135" workbookViewId="0">
-      <selection activeCell="S150" sqref="S150"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5950,7 +5993,7 @@
     <col min="8" max="8" width="14.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="56.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="3" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="3" customWidth="1"/>
@@ -5975,7 +6018,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
@@ -6051,33 +6094,37 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="67" t="s">
-        <v>100</v>
+      <c r="E3" s="212" t="s">
+        <v>99</v>
       </c>
       <c r="F3" s="72" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>106</v>
-      </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="K3" s="213" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="214" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -6099,33 +6146,41 @@
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="62">
         <v>158366.51870640452</v>
       </c>
-      <c r="G4" s="196" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="196"/>
+      <c r="G4" s="182" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="182"/>
       <c r="I4" s="113">
         <v>141.93</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="K4" s="213" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="215" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="213"/>
+      <c r="N4" s="216" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="217" t="s">
+        <v>177</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -6153,16 +6208,16 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="59">
         <f>GrossDesignHydrogenCapacity*HydrogenHHV</f>
         <v>22476959.999999993</v>
       </c>
-      <c r="G5" s="196" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="196"/>
+      <c r="G5" s="182" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="182"/>
       <c r="I5" s="113">
         <v>119.98</v>
       </c>
@@ -6202,16 +6257,16 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="64">
         <f>HydrogenEnergy/24/3600</f>
         <v>260.14999999999992</v>
       </c>
-      <c r="G6" s="196" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="196"/>
+      <c r="G6" s="182" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="182"/>
       <c r="I6" s="144">
         <v>19.349843720930231</v>
       </c>
@@ -6251,7 +6306,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="64">
         <f>GrossDesignHydrogenCapacity/24/1000</f>
@@ -6296,7 +6351,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="61">
         <v>60.5</v>
@@ -6340,7 +6395,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="64">
         <f>DesignHydrogenProductionRateMW/(OverallProductionEfficiency/100)</f>
@@ -6385,7 +6440,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="64">
         <f>FeedstockInput/Feedstock*3600/1000</f>
@@ -6519,7 +6574,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="8">
         <f>FeedstockSupply*AnnualHours</f>
@@ -6530,7 +6585,7 @@
         <v>1920.0155068856511</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="2"/>
@@ -6569,7 +6624,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="69">
         <f>AnnualFeedstockSupply*1000*Feedstock/1000000000</f>
@@ -6614,7 +6669,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="8">
         <f>DesignHydrogenProductionRateMg*AnnualHours</f>
@@ -6625,7 +6680,7 @@
         <v>68.366093349254498</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="2"/>
@@ -6664,16 +6719,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="8">
         <f>AnnualHydrogenProductionMg*1000</f>
         <v>52788839.568801507</v>
       </c>
-      <c r="G16" s="197" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="197"/>
+      <c r="G16" s="183" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="183"/>
       <c r="I16" s="143">
         <f>F16/F13</f>
         <v>82.481895660979291</v>
@@ -6714,7 +6769,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="8">
         <f>AnnualHydrogenProductionMg*1000*HydrogenHHV/1000</f>
@@ -6799,7 +6854,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="90" t="s">
         <v>47</v>
@@ -6971,7 +7026,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="4"/>
       <c r="I23" s="79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -7009,7 +7064,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F24" s="146">
         <v>206500000</v>
@@ -7055,8 +7110,8 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="60" t="s">
-        <v>162</v>
+      <c r="E25" s="211" t="s">
+        <v>160</v>
       </c>
       <c r="F25" s="146">
         <f>CapitalCost/GrossDesignHydrogenCapacity</f>
@@ -7140,7 +7195,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="212" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="76" t="s">
@@ -7149,7 +7204,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -7187,7 +7242,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="148">
         <v>38.700000000000003</v>
@@ -7234,7 +7289,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="25">
         <f>FeedstockCost*AnnualFeedstockSupply</f>
@@ -7279,9 +7334,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="206">
+        <v>135</v>
+      </c>
+      <c r="F30" s="172">
         <v>4</v>
       </c>
       <c r="G30" s="77"/>
@@ -7323,7 +7378,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" s="25">
         <f>CapitalCost*OperatingExpensesRate/100</f>
@@ -7452,14 +7507,14 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="67" t="s">
-        <v>125</v>
+      <c r="E34" s="212" t="s">
+        <v>124</v>
       </c>
       <c r="F34" s="76" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="14"/>
@@ -7499,7 +7554,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="146">
         <v>2</v>
@@ -7543,7 +7598,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="146">
         <v>2</v>
@@ -7678,7 +7733,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39" s="146">
         <v>2</v>
@@ -7807,7 +7862,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="79" t="s">
         <v>47</v>
@@ -7939,7 +7994,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F45" s="81">
         <v>0.09</v>
@@ -7982,8 +8037,8 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="60" t="s">
-        <v>73</v>
+      <c r="E46" s="211" t="s">
+        <v>72</v>
       </c>
       <c r="F46" s="99" t="s">
         <v>40</v>
@@ -8200,7 +8255,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="60" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="F51" s="80">
         <v>2.1</v>
@@ -8243,8 +8298,8 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="60" t="s">
-        <v>67</v>
+      <c r="E52" s="211" t="s">
+        <v>66</v>
       </c>
       <c r="F52" s="80">
         <v>2.1</v>
@@ -8287,8 +8342,8 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="60" t="s">
-        <v>75</v>
+      <c r="E53" s="211" t="s">
+        <v>74</v>
       </c>
       <c r="F53" s="80">
         <v>2.1</v>
@@ -8331,8 +8386,8 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="60" t="s">
-        <v>70</v>
+      <c r="E54" s="211" t="s">
+        <v>69</v>
       </c>
       <c r="F54" s="80">
         <v>2.1</v>
@@ -8376,7 +8431,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55" s="80">
         <v>2.1</v>
@@ -8419,8 +8474,8 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="60" t="s">
-        <v>68</v>
+      <c r="E56" s="211" t="s">
+        <v>67</v>
       </c>
       <c r="F56" s="80">
         <v>2.1</v>
@@ -8463,8 +8518,8 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="60" t="s">
-        <v>126</v>
+      <c r="E57" s="211" t="s">
+        <v>125</v>
       </c>
       <c r="F57" s="80">
         <v>2.1</v>
@@ -8508,7 +8563,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" s="80">
         <v>2.1</v>
@@ -8680,7 +8735,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F62" s="80">
         <v>5</v>
@@ -8768,7 +8823,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F64" s="98">
         <v>15</v>
@@ -8817,12 +8872,12 @@
       <c r="F65" s="85">
         <v>15</v>
       </c>
-      <c r="G65" s="205" t="str">
+      <c r="G65" s="181" t="str">
         <f>IF(F65&lt;=30,"  30 years or fewer","  Enter 30 years or fewer!")</f>
         <v xml:space="preserve">  30 years or fewer</v>
       </c>
-      <c r="H65" s="205"/>
-      <c r="I65" s="205"/>
+      <c r="H65" s="181"/>
+      <c r="I65" s="181"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -8859,7 +8914,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F66" s="73">
         <f>CapitalCost</f>
@@ -8949,7 +9004,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F68" s="84">
         <f>DebtRatio/100*InterestRateOnDebt+EquityRatio/100*MARR</f>
@@ -8994,7 +9049,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F69" s="150">
         <f>((WeightedCostOfMoney/100)*(1+WeightedCostOfMoney/100)^EconomicLife)/((1+WeightedCostOfMoney/100)^EconomicLife-1)</f>
@@ -9039,13 +9094,13 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F70" s="84">
         <f>((1+WeightedCostOfMoney/100)/(1+GeneralInflation/100)-1)*100</f>
         <v>3.8197845249755336</v>
       </c>
-      <c r="G70" s="207"/>
+      <c r="G70" s="173"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="2"/>
@@ -9084,7 +9139,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F71" s="150">
         <f>((RealCostOfMoney/100)*(1+RealCostOfMoney/100)^EconomicLife)/((1+RealCostOfMoney/100)^EconomicLife-1)</f>
@@ -9129,12 +9184,12 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F72" s="96"/>
-      <c r="G72" s="184"/>
-      <c r="H72" s="184"/>
-      <c r="I72" s="184"/>
+      <c r="G72" s="198"/>
+      <c r="H72" s="198"/>
+      <c r="I72" s="198"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -9171,18 +9226,18 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F73" s="8">
         <f>AmountOfCapitalFinancing*DebtRatio/100</f>
         <v>185850000</v>
       </c>
-      <c r="G73" s="185" t="str">
+      <c r="G73" s="199" t="str">
         <f>IF((F79+F73)&lt;&gt;F66,"  Error: Does not sum to capital cost","  No error on sum")</f>
         <v xml:space="preserve">  No error on sum</v>
       </c>
-      <c r="H73" s="185"/>
-      <c r="I73" s="185"/>
+      <c r="H73" s="199"/>
+      <c r="I73" s="199"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -9264,7 +9319,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F75" s="8">
         <f>TotalDebtPrincipal*CapitalRecoveryFactorDebt</f>
@@ -9309,7 +9364,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="8">
         <f>AnnualDebtRepayment*EconomicLife</f>
@@ -9354,7 +9409,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F77" s="8">
         <f>IF((OR(LEFT(OneYearDebtReserveRequired,1)="Y",LEFT(OneYearDebtReserveRequired,1)="y")),AnnualDebtRepayment,0)</f>
@@ -9399,7 +9454,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F78" s="96"/>
       <c r="G78" s="97"/>
@@ -9441,7 +9496,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F79" s="8">
         <f>AmountOfCapitalFinancing*EquityRatio/100</f>
@@ -9486,7 +9541,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F80" s="86">
         <f>MARR/100*(1+MARR/100)^EconomicLife/((1+MARR/100)^EconomicLife-1)</f>
@@ -9531,13 +9586,13 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F81" s="8">
         <f>TotalEquityPrincipal*CapitalRecoveryFactorEquity</f>
         <v>3531502.1371461176</v>
       </c>
-      <c r="G81" s="208"/>
+      <c r="G81" s="174"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="2"/>
@@ -9576,13 +9631,13 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F82" s="8">
         <f>AnnualEquityRepayment*EconomicLife</f>
         <v>52972532.057191767</v>
       </c>
-      <c r="G82" s="208"/>
+      <c r="G82" s="174"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="2"/>
@@ -9621,13 +9676,13 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F83" s="84">
         <f>((1+MARR/100)/(1+GeneralInflation/100)-1)*100</f>
         <v>12.634671890303629</v>
       </c>
-      <c r="G83" s="207"/>
+      <c r="G83" s="173"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="2"/>
@@ -9666,7 +9721,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F84" s="150">
         <f>((RealCostOfEquityConstant/100)*(1+RealCostOfEquityConstant/100)^EconomicLife)/((1+RealCostOfEquityConstant/100)^EconomicLife-1)</f>
@@ -9711,7 +9766,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F85" s="96"/>
       <c r="G85" s="97"/>
@@ -9753,7 +9808,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F86" s="8">
         <f>AnnualDebtRepayment+AnnualEquityRepayment</f>
@@ -9798,7 +9853,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F87" s="8">
         <f>TotalDebtRepayment+TotalEquityRepayment</f>
@@ -9927,7 +9982,7 @@
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F90" s="71">
         <v>2</v>
@@ -9971,7 +10026,7 @@
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F91" s="8">
         <f>DebtReserve*InterestRateOnDebtReserve/100</f>
@@ -10094,14 +10149,14 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="192"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="195" t="s">
-        <v>93</v>
-      </c>
-      <c r="F94" s="195"/>
-      <c r="G94" s="195"/>
+      <c r="B94" s="202"/>
+      <c r="C94" s="202"/>
+      <c r="D94" s="202"/>
+      <c r="E94" s="205" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="205"/>
+      <c r="G94" s="205"/>
       <c r="H94" s="26">
         <f>F66</f>
         <v>206500000</v>
@@ -10139,15 +10194,15 @@
     </row>
     <row r="95" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="193" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="193"/>
-      <c r="D95" s="193"/>
-      <c r="E95" s="194"/>
-      <c r="F95" s="194"/>
-      <c r="G95" s="194"/>
-      <c r="H95" s="194"/>
+      <c r="B95" s="203" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="203"/>
+      <c r="D95" s="203"/>
+      <c r="E95" s="204"/>
+      <c r="F95" s="204"/>
+      <c r="G95" s="204"/>
+      <c r="H95" s="204"/>
       <c r="I95" s="122"/>
       <c r="J95" s="7"/>
       <c r="K95" s="6"/>
@@ -10181,19 +10236,19 @@
     </row>
     <row r="96" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
-      <c r="B96" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="187"/>
-      <c r="D96" s="187"/>
-      <c r="E96" s="188" t="str">
+      <c r="B96" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="201"/>
+      <c r="D96" s="201"/>
+      <c r="E96" s="179" t="str">
         <f>IF(F65&gt;30,"Error: Economic life greater than 30 years, depreciation cannot be computed","")</f>
         <v/>
       </c>
-      <c r="F96" s="188"/>
-      <c r="G96" s="188"/>
-      <c r="H96" s="188"/>
-      <c r="I96" s="188"/>
+      <c r="F96" s="179"/>
+      <c r="G96" s="179"/>
+      <c r="H96" s="179"/>
+      <c r="I96" s="179"/>
       <c r="J96" s="7"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -10226,19 +10281,19 @@
     </row>
     <row r="97" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" s="186" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="187"/>
-      <c r="D97" s="187"/>
-      <c r="E97" s="188" t="str">
+      <c r="B97" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="201"/>
+      <c r="D97" s="201"/>
+      <c r="E97" s="179" t="str">
         <f>IF(C98=1,IF(F65&lt;6,"Will not fully depreciate for economic life chosen! Enter life of 6 years or greater.",""),IF(C98=2,IF(F65&lt;11,"Will not fully depreciate for economic life chosen! Enter life of 11 years or greater",""),""))</f>
         <v/>
       </c>
-      <c r="F97" s="188"/>
-      <c r="G97" s="188"/>
-      <c r="H97" s="188"/>
-      <c r="I97" s="188"/>
+      <c r="F97" s="179"/>
+      <c r="G97" s="179"/>
+      <c r="H97" s="179"/>
+      <c r="I97" s="179"/>
       <c r="J97" s="7"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -10275,10 +10330,10 @@
       <c r="C98" s="118">
         <v>3</v>
       </c>
-      <c r="D98" s="204" t="s">
-        <v>127</v>
-      </c>
-      <c r="E98" s="204"/>
+      <c r="D98" s="180" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="180"/>
       <c r="F98" s="121"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -10419,15 +10474,15 @@
     </row>
     <row r="100" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="189" t="s">
-        <v>54</v>
+      <c r="B100" s="187" t="s">
+        <v>53</v>
       </c>
       <c r="C100" s="120">
         <v>1</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F100" s="123" t="str">
         <f>IF(AK100&lt;&gt;1,"Error:Sum&lt;&gt;1","")</f>
@@ -10483,13 +10538,13 @@
     </row>
     <row r="101" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
-      <c r="B101" s="189"/>
+      <c r="B101" s="187"/>
       <c r="C101" s="120">
         <v>2</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F101" s="123" t="str">
         <f>IF(AK101&lt;&gt;1,"Error:Sum&lt;&gt;1","")</f>
@@ -10555,7 +10610,7 @@
     </row>
     <row r="102" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="189"/>
+      <c r="B102" s="187"/>
       <c r="C102" s="120">
         <v>3</v>
       </c>
@@ -10564,7 +10619,7 @@
         <v>15</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F102" s="123" t="str">
         <f>IF(AK102&lt;&gt;1,"Error:Sum&lt;&gt;1","")</f>
@@ -10698,13 +10753,13 @@
     </row>
     <row r="103" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="189"/>
+      <c r="B103" s="187"/>
       <c r="C103" s="120">
         <v>4</v>
       </c>
       <c r="D103" s="115"/>
       <c r="E103" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F103" s="123"/>
       <c r="G103" s="116">
@@ -10809,7 +10864,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F104" s="140" t="str">
         <f>IF(AK104&lt;&gt;1,"Sum&lt;&gt;1","")</f>
@@ -10993,7 +11048,7 @@
         <v>23</v>
       </c>
       <c r="F106" s="110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
@@ -11026,7 +11081,7 @@
       <c r="AI106" s="4"/>
       <c r="AJ106" s="4"/>
       <c r="AK106" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL106" s="2"/>
     </row>
@@ -11133,7 +11188,7 @@
         <v>30</v>
       </c>
       <c r="AK107" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AL107" s="20"/>
     </row>
@@ -11143,7 +11198,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F108" s="22"/>
       <c r="G108" s="111">
@@ -11465,7 +11520,7 @@
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F112" s="108"/>
       <c r="G112" s="8">
@@ -11473,7 +11528,7 @@
         <v>3531502.1371461176</v>
       </c>
       <c r="H112" s="8">
-        <f t="shared" ref="G112:AJ112" si="5">IF(H111&lt;=$F$65,$F$81,0)</f>
+        <f t="shared" ref="H112:AJ112" si="5">IF(H111&lt;=$F$65,$F$81,0)</f>
         <v>3531502.1371461176</v>
       </c>
       <c r="I112" s="8">
@@ -11600,7 +11655,7 @@
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F113" s="108"/>
       <c r="G113" s="8">
@@ -11735,7 +11790,7 @@
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F114" s="108"/>
       <c r="G114" s="8">
@@ -11870,7 +11925,7 @@
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F115" s="108"/>
       <c r="G115" s="8">
@@ -12012,7 +12067,7 @@
         <v>17905214.15217806</v>
       </c>
       <c r="H116" s="8">
-        <f t="shared" ref="G116:AJ116" si="9">IF(H111&lt;=$F$65,$F$75,0)</f>
+        <f t="shared" ref="H116:AJ116" si="9">IF(H111&lt;=$F$65,$F$75,0)</f>
         <v>17905214.15217806</v>
       </c>
       <c r="I116" s="8">
@@ -12559,7 +12614,7 @@
         <v>25288332.239640217</v>
       </c>
       <c r="I120" s="8">
-        <f t="shared" ref="H120:AJ120" si="13">IF(I111&lt;=$F$65,$G$120*(1+$F$51/100)^(I111-1),0)</f>
+        <f t="shared" ref="I120:AJ120" si="13">IF(I111&lt;=$F$65,$G$120*(1+$F$51/100)^(I111-1),0)</f>
         <v>25819387.216672659</v>
       </c>
       <c r="J120" s="8">
@@ -12683,7 +12738,7 @@
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="31" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F121" s="108"/>
       <c r="G121" s="8">
@@ -12695,7 +12750,7 @@
         <v>8433460</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" ref="H121:AJ121" si="14">IF(I111&lt;=$F$65,$G$121*(1+$F$58/100)^(I111-1),0)</f>
+        <f t="shared" ref="I121:AJ121" si="14">IF(I111&lt;=$F$65,$G$121*(1+$F$58/100)^(I111-1),0)</f>
         <v>8610562.6599999983</v>
       </c>
       <c r="J121" s="8">
@@ -12955,7 +13010,7 @@
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F123" s="108"/>
       <c r="G123" s="8">
@@ -13099,7 +13154,7 @@
         <v>13766666.666666666</v>
       </c>
       <c r="H124" s="8">
-        <f t="shared" ref="G124:AJ124" si="18">IF(H111&lt;=$F$65,$H$94*H104,0)</f>
+        <f t="shared" ref="H124:AJ124" si="18">IF(H111&lt;=$F$65,$H$94*H104,0)</f>
         <v>13766666.666666666</v>
       </c>
       <c r="I124" s="8">
@@ -13226,67 +13281,67 @@
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="31" t="s">
-        <v>90</v>
+      <c r="E125" s="210" t="s">
+        <v>89</v>
       </c>
       <c r="F125" s="108"/>
-      <c r="G125" s="209">
+      <c r="G125" s="175">
         <f>IF(G111&lt;=$F$65,ElectricalEnergy,0)</f>
         <v>2</v>
       </c>
-      <c r="H125" s="209">
+      <c r="H125" s="175">
         <f>IF(H111&lt;=$F$65,IncomeElectricalEnergy*(1+EscalationElectricalEnergy/100)^(H111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I125" s="209">
-        <f t="shared" ref="H125:AJ125" si="19">IF(I111&lt;=$F$65,$G$125*(1+$F$52/100)^(I111-1),0)</f>
+      <c r="I125" s="175">
+        <f t="shared" ref="I125:AJ125" si="19">IF(I111&lt;=$F$65,$G$125*(1+$F$52/100)^(I111-1),0)</f>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J125" s="209">
+      <c r="J125" s="175">
         <f t="shared" si="19"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K125" s="209">
+      <c r="K125" s="175">
         <f t="shared" si="19"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L125" s="209">
+      <c r="L125" s="175">
         <f t="shared" si="19"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M125" s="209">
+      <c r="M125" s="175">
         <f t="shared" si="19"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N125" s="209">
+      <c r="N125" s="175">
         <f t="shared" si="19"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O125" s="209">
+      <c r="O125" s="175">
         <f t="shared" si="19"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P125" s="209">
+      <c r="P125" s="175">
         <f t="shared" si="19"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q125" s="209">
+      <c r="Q125" s="175">
         <f t="shared" si="19"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R125" s="209">
+      <c r="R125" s="175">
         <f t="shared" si="19"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S125" s="209">
+      <c r="S125" s="175">
         <f t="shared" si="19"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T125" s="209">
+      <c r="T125" s="175">
         <f t="shared" si="19"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U125" s="209">
+      <c r="U125" s="175">
         <f t="shared" si="19"/>
         <v>2.675410239406772</v>
       </c>
@@ -13362,67 +13417,67 @@
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="31" t="s">
-        <v>74</v>
+      <c r="E126" s="210" t="s">
+        <v>73</v>
       </c>
       <c r="F126" s="108"/>
-      <c r="G126" s="209">
+      <c r="G126" s="175">
         <f>IF(G111&lt;=$F$65,IF(G111&lt;=$G$36,IncentivePayments,0),0)</f>
         <v>2</v>
       </c>
-      <c r="H126" s="209">
+      <c r="H126" s="175">
         <f>IF(H111&lt;=$F$65,IF(H111&lt;=$G$36,$G$126*(1+$F$53/100)^(H111-1),0),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I126" s="209">
-        <f t="shared" ref="H126:AJ126" si="20">IF(I111&lt;=$F$65,IF(I111&lt;=$G$36,$G$126*(1+$F$53/100)^(I111-1),0),0)</f>
+      <c r="I126" s="175">
+        <f t="shared" ref="I126:AJ126" si="20">IF(I111&lt;=$F$65,IF(I111&lt;=$G$36,$G$126*(1+$F$53/100)^(I111-1),0),0)</f>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J126" s="209">
+      <c r="J126" s="175">
         <f t="shared" si="20"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K126" s="209">
+      <c r="K126" s="175">
         <f t="shared" si="20"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L126" s="209">
+      <c r="L126" s="175">
         <f t="shared" si="20"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M126" s="209">
+      <c r="M126" s="175">
         <f t="shared" si="20"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N126" s="209">
+      <c r="N126" s="175">
         <f t="shared" si="20"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O126" s="209">
+      <c r="O126" s="175">
         <f t="shared" si="20"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P126" s="209">
+      <c r="P126" s="175">
         <f t="shared" si="20"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q126" s="209">
+      <c r="Q126" s="175">
         <f t="shared" si="20"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R126" s="209">
+      <c r="R126" s="175">
         <f t="shared" si="20"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S126" s="209">
+      <c r="S126" s="175">
         <f t="shared" si="20"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T126" s="209">
+      <c r="T126" s="175">
         <f t="shared" si="20"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U126" s="209">
+      <c r="U126" s="175">
         <f t="shared" si="20"/>
         <v>2.675410239406772</v>
       </c>
@@ -13502,63 +13557,63 @@
         <v>29</v>
       </c>
       <c r="F127" s="108"/>
-      <c r="G127" s="209">
+      <c r="G127" s="175">
         <f>IF(G111&lt;=$F$65,Capacity,0)</f>
         <v>2</v>
       </c>
-      <c r="H127" s="209">
+      <c r="H127" s="175">
         <f t="shared" ref="H127:AJ127" si="21">IF(H111&lt;=$F$65,$G$127*(1+$F$54/100)^(H$111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I127" s="209">
+      <c r="I127" s="175">
         <f t="shared" si="21"/>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J127" s="209">
+      <c r="J127" s="175">
         <f t="shared" si="21"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K127" s="209">
+      <c r="K127" s="175">
         <f t="shared" si="21"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L127" s="209">
+      <c r="L127" s="175">
         <f t="shared" si="21"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M127" s="209">
+      <c r="M127" s="175">
         <f t="shared" si="21"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N127" s="209">
+      <c r="N127" s="175">
         <f t="shared" si="21"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O127" s="209">
+      <c r="O127" s="175">
         <f t="shared" si="21"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P127" s="209">
+      <c r="P127" s="175">
         <f t="shared" si="21"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q127" s="209">
+      <c r="Q127" s="175">
         <f t="shared" si="21"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R127" s="209">
+      <c r="R127" s="175">
         <f t="shared" si="21"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S127" s="209">
+      <c r="S127" s="175">
         <f t="shared" si="21"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T127" s="209">
+      <c r="T127" s="175">
         <f t="shared" si="21"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U127" s="209">
+      <c r="U127" s="175">
         <f t="shared" si="21"/>
         <v>2.675410239406772</v>
       </c>
@@ -13634,67 +13689,67 @@
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="31" t="s">
+      <c r="E128" s="210" t="s">
         <v>30</v>
       </c>
       <c r="F128" s="108"/>
-      <c r="G128" s="209">
+      <c r="G128" s="175">
         <f>IF(G111&lt;=$F$65,Heat,0)</f>
         <v>2</v>
       </c>
-      <c r="H128" s="209">
+      <c r="H128" s="175">
         <f t="shared" ref="H128:AJ128" si="22">IF(H111&lt;=$F$65,$G128*(1+$F$56/100)^(H$111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I128" s="209">
+      <c r="I128" s="175">
         <f t="shared" si="22"/>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J128" s="209">
+      <c r="J128" s="175">
         <f t="shared" si="22"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K128" s="209">
+      <c r="K128" s="175">
         <f t="shared" si="22"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L128" s="209">
+      <c r="L128" s="175">
         <f t="shared" si="22"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M128" s="209">
+      <c r="M128" s="175">
         <f t="shared" si="22"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N128" s="209">
+      <c r="N128" s="175">
         <f t="shared" si="22"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O128" s="209">
+      <c r="O128" s="175">
         <f t="shared" si="22"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P128" s="209">
+      <c r="P128" s="175">
         <f t="shared" si="22"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q128" s="209">
+      <c r="Q128" s="175">
         <f t="shared" si="22"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R128" s="209">
+      <c r="R128" s="175">
         <f t="shared" si="22"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S128" s="209">
+      <c r="S128" s="175">
         <f t="shared" si="22"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T128" s="209">
+      <c r="T128" s="175">
         <f t="shared" si="22"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U128" s="209">
+      <c r="U128" s="175">
         <f t="shared" si="22"/>
         <v>2.675410239406772</v>
       </c>
@@ -13770,67 +13825,67 @@
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="31" t="s">
-        <v>139</v>
+      <c r="E129" s="210" t="s">
+        <v>137</v>
       </c>
       <c r="F129" s="108"/>
-      <c r="G129" s="209">
+      <c r="G129" s="175">
         <f>IF(G111&lt;=$F$65,Residues,0)</f>
         <v>2</v>
       </c>
-      <c r="H129" s="209">
+      <c r="H129" s="175">
         <f t="shared" ref="H129:AJ129" si="23">IF(H111&lt;=$F$65,$G$129*(1+$F$57/100)^(H$111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I129" s="209">
+      <c r="I129" s="175">
         <f t="shared" si="23"/>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J129" s="209">
+      <c r="J129" s="175">
         <f t="shared" si="23"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K129" s="209">
+      <c r="K129" s="175">
         <f t="shared" si="23"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L129" s="209">
+      <c r="L129" s="175">
         <f t="shared" si="23"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M129" s="209">
+      <c r="M129" s="175">
         <f t="shared" si="23"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N129" s="209">
+      <c r="N129" s="175">
         <f t="shared" si="23"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O129" s="209">
+      <c r="O129" s="175">
         <f t="shared" si="23"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P129" s="209">
+      <c r="P129" s="175">
         <f t="shared" si="23"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q129" s="209">
+      <c r="Q129" s="175">
         <f t="shared" si="23"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R129" s="209">
+      <c r="R129" s="175">
         <f t="shared" si="23"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S129" s="209">
+      <c r="S129" s="175">
         <f t="shared" si="23"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T129" s="209">
+      <c r="T129" s="175">
         <f t="shared" si="23"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U129" s="209">
+      <c r="U129" s="175">
         <f t="shared" si="23"/>
         <v>2.675410239406772</v>
       </c>
@@ -13915,7 +13970,7 @@
         <v>358104.28304356121</v>
       </c>
       <c r="H130" s="8">
-        <f t="shared" ref="G130:AJ130" si="24">IF(H111&lt;=$F$65,$F$91,0)</f>
+        <f t="shared" ref="H130:AJ130" si="24">IF(H111&lt;=$F$65,$F$91,0)</f>
         <v>358104.28304356121</v>
       </c>
       <c r="I130" s="8">
@@ -14043,7 +14098,7 @@
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F131" s="108"/>
       <c r="G131" s="8">
@@ -14191,7 +14246,7 @@
         <v>688469.28479999979</v>
       </c>
       <c r="I132" s="8">
-        <f t="shared" ref="H132:AJ132" si="26">IF(I111&lt;=$F$65,$F$17*$F$45*((1+$F$55/100)^(I111-1))*I108/100,0)</f>
+        <f t="shared" ref="I132:AJ132" si="26">IF(I111&lt;=$F$65,$F$17*$F$45*((1+$F$55/100)^(I111-1))*I108/100,0)</f>
         <v>702927.13978079963</v>
       </c>
       <c r="J132" s="8">
@@ -14314,8 +14369,8 @@
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="31" t="s">
-        <v>98</v>
+      <c r="E133" s="210" t="s">
+        <v>97</v>
       </c>
       <c r="F133" s="138" t="str">
         <f>F46</f>
@@ -14454,7 +14509,7 @@
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F134" s="126"/>
       <c r="G134" s="35">
@@ -14590,7 +14645,7 @@
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F135" s="125"/>
       <c r="G135" s="106">
@@ -14726,7 +14781,7 @@
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F136" s="107">
         <f>SUM(G135:AJ135)</f>
@@ -14774,7 +14829,7 @@
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F137" s="107">
         <f>F136*CapitalRecoveryFactorEquity</f>
@@ -14819,7 +14874,7 @@
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F138" s="107">
         <f>F136*CapitalRecoveryFactorEquityConstant</f>
@@ -14864,7 +14919,7 @@
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F139" s="155">
         <f>F137/F16</f>
@@ -14909,7 +14964,7 @@
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F140" s="155">
         <f>F138/F16</f>
@@ -14954,7 +15009,7 @@
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F141" s="155">
         <f>F137/F17</f>
@@ -14999,7 +15054,7 @@
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="105" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F142" s="155">
         <f>F138/F17</f>
@@ -15169,21 +15224,21 @@
       <c r="C146" s="135"/>
       <c r="D146" s="135"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="198" t="s">
+      <c r="F146" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G146" s="199"/>
-      <c r="H146" s="199"/>
-      <c r="I146" s="199"/>
-      <c r="J146" s="199"/>
-      <c r="K146" s="199"/>
-      <c r="L146" s="199"/>
-      <c r="M146" s="199"/>
-      <c r="N146" s="199"/>
-      <c r="O146" s="199"/>
-      <c r="P146" s="199"/>
-      <c r="Q146" s="199"/>
-      <c r="R146" s="200"/>
+      <c r="G146" s="185"/>
+      <c r="H146" s="185"/>
+      <c r="I146" s="185"/>
+      <c r="J146" s="185"/>
+      <c r="K146" s="185"/>
+      <c r="L146" s="185"/>
+      <c r="M146" s="185"/>
+      <c r="N146" s="185"/>
+      <c r="O146" s="185"/>
+      <c r="P146" s="185"/>
+      <c r="Q146" s="185"/>
+      <c r="R146" s="186"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
@@ -15212,23 +15267,23 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="201" t="s">
+      <c r="F147" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="G147" s="202"/>
-      <c r="H147" s="202"/>
-      <c r="I147" s="202"/>
-      <c r="J147" s="202"/>
-      <c r="K147" s="203"/>
+      <c r="G147" s="177"/>
+      <c r="H147" s="177"/>
+      <c r="I147" s="177"/>
+      <c r="J147" s="177"/>
+      <c r="K147" s="178"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="201" t="s">
+      <c r="M147" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="N147" s="202"/>
-      <c r="O147" s="202"/>
-      <c r="P147" s="202"/>
-      <c r="Q147" s="202"/>
-      <c r="R147" s="203"/>
+      <c r="N147" s="177"/>
+      <c r="O147" s="177"/>
+      <c r="P147" s="177"/>
+      <c r="Q147" s="177"/>
+      <c r="R147" s="178"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
@@ -15257,33 +15312,33 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="175" t="s">
+      <c r="F148" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="G148" s="176"/>
-      <c r="H148" s="177" t="s">
-        <v>95</v>
-      </c>
-      <c r="I148" s="177"/>
-      <c r="J148" s="178">
+      <c r="G148" s="192"/>
+      <c r="H148" s="193" t="s">
+        <v>94</v>
+      </c>
+      <c r="I148" s="193"/>
+      <c r="J148" s="196">
         <f>F66</f>
         <v>206500000</v>
       </c>
-      <c r="K148" s="179"/>
+      <c r="K148" s="197"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="175" t="s">
+      <c r="M148" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="N148" s="176"/>
-      <c r="O148" s="177" t="s">
-        <v>96</v>
-      </c>
-      <c r="P148" s="177"/>
-      <c r="Q148" s="178">
+      <c r="N148" s="192"/>
+      <c r="O148" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="P148" s="193"/>
+      <c r="Q148" s="196">
         <f>$F$61</f>
         <v>90</v>
       </c>
-      <c r="R148" s="179"/>
+      <c r="R148" s="197"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
@@ -15322,13 +15377,13 @@
         <v>25</v>
       </c>
       <c r="I149" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J149" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J149" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="K149" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="37" t="s">
@@ -15341,13 +15396,13 @@
         <v>33</v>
       </c>
       <c r="P149" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q149" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q149" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="R149" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
@@ -15385,10 +15440,10 @@
         <v>28</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J150" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K150" s="27" t="s">
         <v>37</v>
@@ -15402,10 +15457,10 @@
         <v>37</v>
       </c>
       <c r="P150" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q150" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R150" s="27" t="s">
         <v>37</v>
@@ -15530,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="23">
-        <f t="dataTable" ref="P152:Q172" dt2D="0" dtr="0" r1="F61"/>
+        <f t="dataTable" ref="P152:Q172" dt2D="0" dtr="0" r1="F61" ca="1"/>
         <v>1.627827558471824</v>
       </c>
       <c r="Q152" s="23">
@@ -17100,23 +17155,23 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="172" t="s">
+      <c r="F175" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="G175" s="173"/>
-      <c r="H175" s="173"/>
-      <c r="I175" s="173"/>
-      <c r="J175" s="173"/>
-      <c r="K175" s="174"/>
+      <c r="G175" s="189"/>
+      <c r="H175" s="189"/>
+      <c r="I175" s="189"/>
+      <c r="J175" s="189"/>
+      <c r="K175" s="190"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="172" t="s">
+      <c r="M175" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="N175" s="173"/>
-      <c r="O175" s="173"/>
-      <c r="P175" s="173"/>
-      <c r="Q175" s="173"/>
-      <c r="R175" s="174"/>
+      <c r="N175" s="189"/>
+      <c r="O175" s="189"/>
+      <c r="P175" s="189"/>
+      <c r="Q175" s="189"/>
+      <c r="R175" s="190"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
@@ -17145,33 +17200,33 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="175" t="s">
-        <v>94</v>
-      </c>
-      <c r="G176" s="176"/>
-      <c r="H176" s="177" t="s">
-        <v>158</v>
-      </c>
-      <c r="I176" s="177"/>
-      <c r="J176" s="190">
+      <c r="F176" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="G176" s="192"/>
+      <c r="H176" s="193" t="s">
+        <v>156</v>
+      </c>
+      <c r="I176" s="193"/>
+      <c r="J176" s="194">
         <f>F28</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="K176" s="191"/>
+      <c r="K176" s="195"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="175" t="s">
-        <v>97</v>
-      </c>
-      <c r="N176" s="176"/>
-      <c r="O176" s="177" t="s">
+      <c r="M176" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="P176" s="177"/>
-      <c r="Q176" s="178">
+      <c r="N176" s="192"/>
+      <c r="O176" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="P176" s="193"/>
+      <c r="Q176" s="196">
         <f>$F$62</f>
         <v>5</v>
       </c>
-      <c r="R176" s="179"/>
+      <c r="R176" s="197"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
@@ -17210,13 +17265,13 @@
         <v>50</v>
       </c>
       <c r="I177" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J177" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J177" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="K177" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="37" t="s">
@@ -17229,13 +17284,13 @@
         <v>34</v>
       </c>
       <c r="P177" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q177" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q177" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="R177" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
@@ -17273,10 +17328,10 @@
         <v>42</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J178" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K178" s="27" t="s">
         <v>37</v>
@@ -17290,10 +17345,10 @@
         <v>37</v>
       </c>
       <c r="P178" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q178" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R178" s="27" t="s">
         <v>37</v>
@@ -18947,23 +19002,23 @@
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="172" t="s">
+      <c r="F202" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="G202" s="173"/>
-      <c r="H202" s="173"/>
-      <c r="I202" s="173"/>
-      <c r="J202" s="173"/>
-      <c r="K202" s="174"/>
+      <c r="G202" s="189"/>
+      <c r="H202" s="189"/>
+      <c r="I202" s="189"/>
+      <c r="J202" s="189"/>
+      <c r="K202" s="190"/>
       <c r="L202" s="2"/>
-      <c r="M202" s="172" t="s">
+      <c r="M202" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="N202" s="173"/>
-      <c r="O202" s="173"/>
-      <c r="P202" s="173"/>
-      <c r="Q202" s="173"/>
-      <c r="R202" s="174"/>
+      <c r="N202" s="189"/>
+      <c r="O202" s="189"/>
+      <c r="P202" s="189"/>
+      <c r="Q202" s="189"/>
+      <c r="R202" s="190"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
@@ -18992,33 +19047,33 @@
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="175" t="s">
-        <v>159</v>
-      </c>
-      <c r="G203" s="176"/>
-      <c r="H203" s="177" t="s">
-        <v>96</v>
-      </c>
-      <c r="I203" s="177"/>
-      <c r="J203" s="190">
+      <c r="F203" s="191" t="s">
+        <v>157</v>
+      </c>
+      <c r="G203" s="192"/>
+      <c r="H203" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="I203" s="193"/>
+      <c r="J203" s="194">
         <f>F8</f>
         <v>60.5</v>
       </c>
-      <c r="K203" s="191"/>
+      <c r="K203" s="195"/>
       <c r="L203" s="2"/>
-      <c r="M203" s="175" t="s">
-        <v>163</v>
-      </c>
-      <c r="N203" s="176"/>
-      <c r="O203" s="177" t="s">
-        <v>96</v>
-      </c>
-      <c r="P203" s="177"/>
-      <c r="Q203" s="178">
+      <c r="M203" s="191" t="s">
+        <v>161</v>
+      </c>
+      <c r="N203" s="192"/>
+      <c r="O203" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="P203" s="193"/>
+      <c r="Q203" s="196">
         <f>F64</f>
         <v>15</v>
       </c>
-      <c r="R203" s="179"/>
+      <c r="R203" s="197"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
@@ -19054,16 +19109,16 @@
         <v>36</v>
       </c>
       <c r="H204" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I204" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J204" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J204" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="K204" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L204" s="2"/>
       <c r="M204" s="37" t="s">
@@ -19073,16 +19128,16 @@
         <v>36</v>
       </c>
       <c r="O204" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P204" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q204" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q204" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="R204" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
@@ -19120,10 +19175,10 @@
         <v>37</v>
       </c>
       <c r="I205" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J205" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K205" s="27" t="s">
         <v>37</v>
@@ -19137,10 +19192,10 @@
         <v>37</v>
       </c>
       <c r="P205" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q205" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R205" s="27" t="s">
         <v>37</v>
@@ -20794,23 +20849,23 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="172" t="s">
+      <c r="F229" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="G229" s="173"/>
-      <c r="H229" s="173"/>
-      <c r="I229" s="173"/>
-      <c r="J229" s="173"/>
-      <c r="K229" s="174"/>
+      <c r="G229" s="189"/>
+      <c r="H229" s="189"/>
+      <c r="I229" s="189"/>
+      <c r="J229" s="189"/>
+      <c r="K229" s="190"/>
       <c r="L229" s="2"/>
-      <c r="M229" s="172" t="s">
+      <c r="M229" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="N229" s="173"/>
-      <c r="O229" s="173"/>
-      <c r="P229" s="173"/>
-      <c r="Q229" s="173"/>
-      <c r="R229" s="174"/>
+      <c r="N229" s="189"/>
+      <c r="O229" s="189"/>
+      <c r="P229" s="189"/>
+      <c r="Q229" s="189"/>
+      <c r="R229" s="190"/>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
       <c r="U229" s="2"/>
@@ -20839,33 +20894,33 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="175" t="s">
-        <v>167</v>
-      </c>
-      <c r="G230" s="176"/>
-      <c r="H230" s="177" t="s">
-        <v>96</v>
-      </c>
-      <c r="I230" s="177"/>
-      <c r="J230" s="190">
+      <c r="F230" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="G230" s="192"/>
+      <c r="H230" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="I230" s="193"/>
+      <c r="J230" s="194">
         <f>F11</f>
         <v>91.324200913242009</v>
       </c>
-      <c r="K230" s="191"/>
+      <c r="K230" s="195"/>
       <c r="L230" s="2"/>
-      <c r="M230" s="175" t="s">
+      <c r="M230" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="N230" s="192"/>
+      <c r="O230" s="193" t="s">
         <v>164</v>
       </c>
-      <c r="N230" s="176"/>
-      <c r="O230" s="177" t="s">
-        <v>166</v>
-      </c>
-      <c r="P230" s="177"/>
-      <c r="Q230" s="178">
+      <c r="P230" s="193"/>
+      <c r="Q230" s="196">
         <f>F65</f>
         <v>15</v>
       </c>
-      <c r="R230" s="179"/>
+      <c r="R230" s="197"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
       <c r="U230" s="2"/>
@@ -20901,16 +20956,16 @@
         <v>36</v>
       </c>
       <c r="H231" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I231" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J231" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J231" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="K231" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L231" s="2"/>
       <c r="M231" s="37" t="s">
@@ -20920,16 +20975,16 @@
         <v>36</v>
       </c>
       <c r="O231" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P231" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q231" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q231" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="R231" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
@@ -20967,10 +21022,10 @@
         <v>37</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J232" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K232" s="27" t="s">
         <v>37</v>
@@ -20981,13 +21036,13 @@
         <v>37</v>
       </c>
       <c r="O232" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P232" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q232" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R232" s="27" t="s">
         <v>37</v>
@@ -21089,7 +21144,7 @@
         <v>25</v>
       </c>
       <c r="I234" s="23">
-        <f t="dataTable" ref="I234:J254" dt2D="0" dtr="0" r1="F11" ca="1"/>
+        <f t="dataTable" ref="I234:J254" dt2D="0" dtr="0" r1="F11"/>
         <v>2.8999404629255867</v>
       </c>
       <c r="J234" s="23">
@@ -22805,12 +22860,12 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="180"/>
-      <c r="G260" s="180"/>
-      <c r="H260" s="180"/>
-      <c r="I260" s="180"/>
-      <c r="J260" s="180"/>
-      <c r="K260" s="180"/>
+      <c r="F260" s="209"/>
+      <c r="G260" s="209"/>
+      <c r="H260" s="209"/>
+      <c r="I260" s="209"/>
+      <c r="J260" s="209"/>
+      <c r="K260" s="209"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -22846,12 +22901,12 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="181"/>
-      <c r="G261" s="181"/>
-      <c r="H261" s="182"/>
-      <c r="I261" s="182"/>
-      <c r="J261" s="183"/>
-      <c r="K261" s="183"/>
+      <c r="F261" s="206"/>
+      <c r="G261" s="206"/>
+      <c r="H261" s="207"/>
+      <c r="I261" s="207"/>
+      <c r="J261" s="208"/>
+      <c r="K261" s="208"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -25101,12 +25156,12 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="180"/>
-      <c r="G316" s="180"/>
-      <c r="H316" s="180"/>
-      <c r="I316" s="180"/>
-      <c r="J316" s="180"/>
-      <c r="K316" s="180"/>
+      <c r="F316" s="209"/>
+      <c r="G316" s="209"/>
+      <c r="H316" s="209"/>
+      <c r="I316" s="209"/>
+      <c r="J316" s="209"/>
+      <c r="K316" s="209"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -25142,12 +25197,12 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="181"/>
-      <c r="G317" s="181"/>
-      <c r="H317" s="182"/>
-      <c r="I317" s="182"/>
-      <c r="J317" s="183"/>
-      <c r="K317" s="183"/>
+      <c r="F317" s="206"/>
+      <c r="G317" s="206"/>
+      <c r="H317" s="207"/>
+      <c r="I317" s="207"/>
+      <c r="J317" s="208"/>
+      <c r="K317" s="208"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -26287,39 +26342,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="58">
-    <mergeCell ref="M147:R147"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F147:K147"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="F146:R146"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="F229:K229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="F175:K175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="M229:R229"/>
+    <mergeCell ref="M230:N230"/>
+    <mergeCell ref="O230:P230"/>
+    <mergeCell ref="Q230:R230"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
     <mergeCell ref="M175:R175"/>
     <mergeCell ref="M148:N148"/>
     <mergeCell ref="O148:P148"/>
@@ -26336,15 +26365,41 @@
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="O203:P203"/>
     <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="F229:K229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="F175:K175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J203:K203"/>
     <mergeCell ref="F202:K202"/>
     <mergeCell ref="F203:G203"/>
-    <mergeCell ref="M229:R229"/>
-    <mergeCell ref="M230:N230"/>
-    <mergeCell ref="O230:P230"/>
-    <mergeCell ref="Q230:R230"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F146:R146"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="M147:R147"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F147:K147"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G135:AJ135">

--- a/docs/10-31-2013-energy-cost-calculator-hydrogen-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-hydrogen-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4D31D5-EAE6-4431-BAC6-F2CB748ACE92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3356D-E579-4CEE-BDA8-51A8FCBD9E6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_LCOE" sheetId="1" r:id="rId1"/>
@@ -114,11 +114,12 @@
     <definedName name="WeightedCostOfMoney">'1_LCOE'!$F$68</definedName>
     <definedName name="Year">'1_LCOE'!$G$111</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -160,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="188">
   <si>
     <t>Federal Tax Rate (%)</t>
   </si>
@@ -695,6 +696,36 @@
   <si>
     <t>Diff</t>
   </si>
+  <si>
+    <t>Cost of equity (%/y)</t>
+  </si>
+  <si>
+    <t>AnnualEquityRecovery</t>
+  </si>
+  <si>
+    <t>AnnualDebtPayment</t>
+  </si>
+  <si>
+    <t>CostOfMoney</t>
+  </si>
+  <si>
+    <t>TotalCostOfPlant</t>
+  </si>
+  <si>
+    <t>TotalEquityCost</t>
+  </si>
+  <si>
+    <t>TotalDebtCost</t>
+  </si>
+  <si>
+    <t>CapitalRecoveryFactorEquity</t>
+  </si>
+  <si>
+    <t>CapitalRecoveryFactorDebt</t>
+  </si>
+  <si>
+    <t>DebtReserve</t>
+  </si>
 </sst>
 </file>
 
@@ -1218,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,7 +1451,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1629,41 +1659,19 @@
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1683,22 +1691,76 @@
     <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1712,38 +1774,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5977,8 +6007,8 @@
   </sheetPr>
   <dimension ref="A1:AM344"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5993,7 +6023,7 @@
     <col min="8" max="8" width="14.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="56.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="3" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="3" customWidth="1"/>
@@ -6099,7 +6129,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="212" t="s">
+      <c r="E3" s="177" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="72" t="s">
@@ -6113,18 +6143,17 @@
         <v>105</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="213" t="s">
+      <c r="K3" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="214" t="s">
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="179" t="s">
         <v>173</v>
       </c>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="213"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -6157,28 +6186,26 @@
       <c r="F4" s="62">
         <v>158366.51870640452</v>
       </c>
-      <c r="G4" s="182" t="s">
+      <c r="G4" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="182"/>
-      <c r="I4" s="113">
+      <c r="H4" s="198"/>
+      <c r="I4" s="112">
         <v>141.93</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="213" t="s">
+      <c r="K4" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="L4" s="215" t="s">
+      <c r="M4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="180" t="s">
         <v>175</v>
       </c>
-      <c r="M4" s="213"/>
-      <c r="N4" s="216" t="s">
+      <c r="Q4" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="217" t="s">
+      <c r="R4" s="182" t="s">
         <v>177</v>
       </c>
       <c r="S4" s="2"/>
@@ -6214,11 +6241,11 @@
         <f>GrossDesignHydrogenCapacity*HydrogenHHV</f>
         <v>22476959.999999993</v>
       </c>
-      <c r="G5" s="182" t="s">
+      <c r="G5" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="182"/>
-      <c r="I5" s="113">
+      <c r="H5" s="198"/>
+      <c r="I5" s="112">
         <v>119.98</v>
       </c>
       <c r="J5" s="2"/>
@@ -6263,11 +6290,11 @@
         <f>HydrogenEnergy/24/3600</f>
         <v>260.14999999999992</v>
       </c>
-      <c r="G6" s="182" t="s">
+      <c r="G6" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="182"/>
-      <c r="I6" s="144">
+      <c r="H6" s="198"/>
+      <c r="I6" s="143">
         <v>19.349843720930231</v>
       </c>
       <c r="J6" s="2"/>
@@ -6312,9 +6339,9 @@
         <f>GrossDesignHydrogenCapacity/24/1000</f>
         <v>6.5986049461001883</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="144"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="143"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -6487,7 +6514,7 @@
       <c r="E11" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="147">
+      <c r="F11" s="146">
         <v>91.324200913242009</v>
       </c>
       <c r="G11" s="5"/>
@@ -6675,7 +6702,7 @@
         <f>DesignHydrogenProductionRateMg*AnnualHours</f>
         <v>52788.839568801508</v>
       </c>
-      <c r="G15" s="171">
+      <c r="G15" s="170">
         <f>F4/(101325*2/8314/298/35.31)/1000000</f>
         <v>68.366093349254498</v>
       </c>
@@ -6725,11 +6752,11 @@
         <f>AnnualHydrogenProductionMg*1000</f>
         <v>52788839.568801507</v>
       </c>
-      <c r="G16" s="183" t="s">
+      <c r="G16" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="183"/>
-      <c r="I16" s="143">
+      <c r="H16" s="199"/>
+      <c r="I16" s="142">
         <f>F16/F13</f>
         <v>82.481895660979291</v>
       </c>
@@ -6777,7 +6804,7 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="142"/>
+      <c r="I17" s="141"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -6856,7 +6883,7 @@
       <c r="E19" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="89" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="54"/>
@@ -6898,10 +6925,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="60"/>
-      <c r="F20" s="98"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="60"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="89"/>
+      <c r="I20" s="88"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -7066,12 +7093,12 @@
       <c r="E24" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="146">
+      <c r="F24" s="145">
         <v>206500000</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="145">
+      <c r="I24" s="144">
         <f>CapitalCost/AnnualHydrogenProductionKg</f>
         <v>3.911811695175861</v>
       </c>
@@ -7110,16 +7137,16 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="211" t="s">
+      <c r="E25" s="176" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="146">
+      <c r="F25" s="145">
         <f>CapitalCost/GrossDesignHydrogenCapacity</f>
         <v>1303.9372317252871</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="145"/>
+      <c r="I25" s="144"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -7195,7 +7222,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="212" t="s">
+      <c r="E27" s="177" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="76" t="s">
@@ -7244,12 +7271,12 @@
       <c r="E28" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="148">
+      <c r="F28" s="147">
         <v>38.700000000000003</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="141">
+      <c r="I28" s="140">
         <f>F28/I6</f>
         <v>2.0000161530058871</v>
       </c>
@@ -7336,7 +7363,7 @@
       <c r="E30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="172">
+      <c r="F30" s="171">
         <v>4</v>
       </c>
       <c r="G30" s="77"/>
@@ -7387,7 +7414,7 @@
       <c r="G31" s="77"/>
       <c r="H31" s="6"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="92"/>
+      <c r="J31" s="91"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -7507,7 +7534,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="212" t="s">
+      <c r="E34" s="177" t="s">
         <v>124</v>
       </c>
       <c r="F34" s="76" t="s">
@@ -7556,12 +7583,12 @@
       <c r="E35" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="146">
+      <c r="F35" s="145">
         <v>2</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="89"/>
+      <c r="I35" s="88"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -7600,15 +7627,15 @@
       <c r="E36" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="146">
+      <c r="F36" s="145">
         <v>2</v>
       </c>
-      <c r="G36" s="156">
+      <c r="G36" s="155">
         <f>F65</f>
         <v>15</v>
       </c>
       <c r="H36" s="21"/>
-      <c r="I36" s="89"/>
+      <c r="I36" s="88"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -7647,12 +7674,12 @@
       <c r="E37" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="146">
+      <c r="F37" s="145">
         <v>2</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="89"/>
+      <c r="I37" s="88"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -7691,12 +7718,12 @@
       <c r="E38" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="146">
+      <c r="F38" s="145">
         <v>2</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="89"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -7735,12 +7762,12 @@
       <c r="E39" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="146">
+      <c r="F39" s="145">
         <v>2</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="89"/>
+      <c r="I39" s="88"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -7785,7 +7812,7 @@
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="89"/>
+      <c r="I40" s="88"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -8037,10 +8064,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="211" t="s">
+      <c r="E46" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="99" t="s">
+      <c r="F46" s="98" t="s">
         <v>40</v>
       </c>
       <c r="G46" s="5"/>
@@ -8169,10 +8196,10 @@
       <c r="E49" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="88" t="s">
+      <c r="F49" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="88"/>
+      <c r="G49" s="87"/>
       <c r="H49" s="83"/>
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
@@ -8298,7 +8325,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="211" t="s">
+      <c r="E52" s="176" t="s">
         <v>66</v>
       </c>
       <c r="F52" s="80">
@@ -8342,13 +8369,13 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="211" t="s">
+      <c r="E53" s="176" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="80">
         <v>2.1</v>
       </c>
-      <c r="G53" s="149"/>
+      <c r="G53" s="148"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="2"/>
@@ -8386,7 +8413,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="211" t="s">
+      <c r="E54" s="176" t="s">
         <v>69</v>
       </c>
       <c r="F54" s="80">
@@ -8474,7 +8501,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="211" t="s">
+      <c r="E56" s="176" t="s">
         <v>67</v>
       </c>
       <c r="F56" s="80">
@@ -8518,7 +8545,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="211" t="s">
+      <c r="E57" s="176" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="80">
@@ -8649,7 +8676,7 @@
       <c r="E60" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="88" t="s">
+      <c r="F60" s="87" t="s">
         <v>47</v>
       </c>
       <c r="G60" s="83"/>
@@ -8825,10 +8852,12 @@
       <c r="E64" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="98">
+      <c r="F64" s="97">
         <v>15</v>
       </c>
-      <c r="G64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="2"/>
@@ -8872,12 +8901,12 @@
       <c r="F65" s="85">
         <v>15</v>
       </c>
-      <c r="G65" s="181" t="str">
+      <c r="G65" s="212" t="str">
         <f>IF(F65&lt;=30,"  30 years or fewer","  Enter 30 years or fewer!")</f>
         <v xml:space="preserve">  30 years or fewer</v>
       </c>
-      <c r="H65" s="181"/>
-      <c r="I65" s="181"/>
+      <c r="H65" s="212"/>
+      <c r="I65" s="212"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -8920,7 +8949,9 @@
         <f>CapitalCost</f>
         <v>206500000</v>
       </c>
-      <c r="G66" s="87"/>
+      <c r="G66" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="2"/>
@@ -9010,7 +9041,9 @@
         <f>DebtRatio/100*InterestRateOnDebt+EquityRatio/100*MARR</f>
         <v>6</v>
       </c>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="2"/>
@@ -9051,11 +9084,11 @@
       <c r="E69" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F69" s="150">
+      <c r="F69" s="149">
         <f>((WeightedCostOfMoney/100)*(1+WeightedCostOfMoney/100)^EconomicLife)/((1+WeightedCostOfMoney/100)^EconomicLife-1)</f>
         <v>0.10296276395531262</v>
       </c>
-      <c r="G69" s="116"/>
+      <c r="G69" s="115"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="2"/>
@@ -9100,7 +9133,7 @@
         <f>((1+WeightedCostOfMoney/100)/(1+GeneralInflation/100)-1)*100</f>
         <v>3.8197845249755336</v>
       </c>
-      <c r="G70" s="173"/>
+      <c r="G70" s="172"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="2"/>
@@ -9141,11 +9174,11 @@
       <c r="E71" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F71" s="150">
+      <c r="F71" s="149">
         <f>((RealCostOfMoney/100)*(1+RealCostOfMoney/100)^EconomicLife)/((1+RealCostOfMoney/100)^EconomicLife-1)</f>
         <v>8.8811407667396244E-2</v>
       </c>
-      <c r="G71" s="116"/>
+      <c r="G71" s="115"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="2"/>
@@ -9183,13 +9216,13 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="95" t="s">
+      <c r="E72" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="96"/>
-      <c r="G72" s="198"/>
-      <c r="H72" s="198"/>
-      <c r="I72" s="198"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="203"/>
+      <c r="H72" s="203"/>
+      <c r="I72" s="203"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -9232,13 +9265,15 @@
         <f>AmountOfCapitalFinancing*DebtRatio/100</f>
         <v>185850000</v>
       </c>
-      <c r="G73" s="199" t="str">
+      <c r="G73" s="204" t="str">
         <f>IF((F79+F73)&lt;&gt;F66,"  Error: Does not sum to capital cost","  No error on sum")</f>
         <v xml:space="preserve">  No error on sum</v>
       </c>
-      <c r="H73" s="199"/>
-      <c r="I73" s="199"/>
-      <c r="J73" s="2"/>
+      <c r="H73" s="204"/>
+      <c r="I73" s="204"/>
+      <c r="J73" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -9280,7 +9315,9 @@
         <f>InterestRateOnDebt/100*(1+InterestRateOnDebt/100)^EconomicLife/((1+InterestRateOnDebt/100)^EconomicLife-1)</f>
         <v>9.6342287609244348E-2</v>
       </c>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="2"/>
@@ -9325,7 +9362,9 @@
         <f>TotalDebtPrincipal*CapitalRecoveryFactorDebt</f>
         <v>17905214.15217806</v>
       </c>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="2"/>
@@ -9415,7 +9454,9 @@
         <f>IF((OR(LEFT(OneYearDebtReserveRequired,1)="Y",LEFT(OneYearDebtReserveRequired,1)="y")),AnnualDebtRepayment,0)</f>
         <v>17905214.15217806</v>
       </c>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="2"/>
@@ -9453,13 +9494,13 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="95" t="s">
+      <c r="E78" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F78" s="96"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -9502,7 +9543,9 @@
         <f>AmountOfCapitalFinancing*EquityRatio/100</f>
         <v>20650000</v>
       </c>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="2"/>
@@ -9547,7 +9590,9 @@
         <f>MARR/100*(1+MARR/100)^EconomicLife/((1+MARR/100)^EconomicLife-1)</f>
         <v>0.1710170526463011</v>
       </c>
-      <c r="G80" s="116"/>
+      <c r="G80" s="115" t="s">
+        <v>185</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="2"/>
@@ -9592,7 +9637,9 @@
         <f>TotalEquityPrincipal*CapitalRecoveryFactorEquity</f>
         <v>3531502.1371461176</v>
       </c>
-      <c r="G81" s="174"/>
+      <c r="G81" s="173" t="s">
+        <v>179</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="2"/>
@@ -9637,7 +9684,7 @@
         <f>AnnualEquityRepayment*EconomicLife</f>
         <v>52972532.057191767</v>
       </c>
-      <c r="G82" s="174"/>
+      <c r="G82" s="173"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="2"/>
@@ -9682,7 +9729,7 @@
         <f>((1+MARR/100)/(1+GeneralInflation/100)-1)*100</f>
         <v>12.634671890303629</v>
       </c>
-      <c r="G83" s="173"/>
+      <c r="G83" s="172"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="2"/>
@@ -9723,11 +9770,11 @@
       <c r="E84" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="150">
+      <c r="F84" s="149">
         <f>((RealCostOfEquityConstant/100)*(1+RealCostOfEquityConstant/100)^EconomicLife)/((1+RealCostOfEquityConstant/100)^EconomicLife-1)</f>
         <v>0.15183146481647911</v>
       </c>
-      <c r="G84" s="116"/>
+      <c r="G84" s="115"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="2"/>
@@ -9765,13 +9812,13 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="95" t="s">
+      <c r="E85" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="F85" s="96"/>
-      <c r="G85" s="97"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="97"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -9940,7 +9987,7 @@
       <c r="E89" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F89" s="93" t="s">
+      <c r="F89" s="92" t="s">
         <v>47</v>
       </c>
       <c r="G89" s="13"/>
@@ -10114,8 +10161,8 @@
         <v>20</v>
       </c>
       <c r="F93" s="55"/>
-      <c r="G93" s="127"/>
-      <c r="H93" s="128"/>
+      <c r="G93" s="126"/>
+      <c r="H93" s="127"/>
       <c r="I93" s="55"/>
       <c r="J93" s="54"/>
       <c r="K93" s="4"/>
@@ -10149,19 +10196,19 @@
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
-      <c r="B94" s="202"/>
-      <c r="C94" s="202"/>
-      <c r="D94" s="202"/>
-      <c r="E94" s="205" t="s">
+      <c r="B94" s="215"/>
+      <c r="C94" s="215"/>
+      <c r="D94" s="215"/>
+      <c r="E94" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="F94" s="205"/>
-      <c r="G94" s="205"/>
+      <c r="F94" s="207"/>
+      <c r="G94" s="207"/>
       <c r="H94" s="26">
         <f>F66</f>
         <v>206500000</v>
       </c>
-      <c r="I94" s="122"/>
+      <c r="I94" s="121"/>
       <c r="J94" s="7"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
@@ -10194,16 +10241,16 @@
     </row>
     <row r="95" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
-      <c r="B95" s="203" t="s">
+      <c r="B95" s="216" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="203"/>
-      <c r="D95" s="203"/>
-      <c r="E95" s="204"/>
-      <c r="F95" s="204"/>
-      <c r="G95" s="204"/>
-      <c r="H95" s="204"/>
-      <c r="I95" s="122"/>
+      <c r="C95" s="216"/>
+      <c r="D95" s="216"/>
+      <c r="E95" s="206"/>
+      <c r="F95" s="206"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="206"/>
+      <c r="I95" s="121"/>
       <c r="J95" s="7"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -10236,19 +10283,19 @@
     </row>
     <row r="96" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
-      <c r="B96" s="200" t="s">
+      <c r="B96" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="201"/>
-      <c r="D96" s="201"/>
-      <c r="E96" s="179" t="str">
+      <c r="C96" s="214"/>
+      <c r="D96" s="214"/>
+      <c r="E96" s="205" t="str">
         <f>IF(F65&gt;30,"Error: Economic life greater than 30 years, depreciation cannot be computed","")</f>
         <v/>
       </c>
-      <c r="F96" s="179"/>
-      <c r="G96" s="179"/>
-      <c r="H96" s="179"/>
-      <c r="I96" s="179"/>
+      <c r="F96" s="205"/>
+      <c r="G96" s="205"/>
+      <c r="H96" s="205"/>
+      <c r="I96" s="205"/>
       <c r="J96" s="7"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -10281,19 +10328,19 @@
     </row>
     <row r="97" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" s="200" t="s">
+      <c r="B97" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="201"/>
-      <c r="D97" s="201"/>
-      <c r="E97" s="179" t="str">
+      <c r="C97" s="214"/>
+      <c r="D97" s="214"/>
+      <c r="E97" s="205" t="str">
         <f>IF(C98=1,IF(F65&lt;6,"Will not fully depreciate for economic life chosen! Enter life of 6 years or greater.",""),IF(C98=2,IF(F65&lt;11,"Will not fully depreciate for economic life chosen! Enter life of 11 years or greater",""),""))</f>
         <v/>
       </c>
-      <c r="F97" s="179"/>
-      <c r="G97" s="179"/>
-      <c r="H97" s="179"/>
-      <c r="I97" s="179"/>
+      <c r="F97" s="205"/>
+      <c r="G97" s="205"/>
+      <c r="H97" s="205"/>
+      <c r="I97" s="205"/>
       <c r="J97" s="7"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -10327,14 +10374,14 @@
     <row r="98" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="118">
+      <c r="C98" s="117">
         <v>3</v>
       </c>
-      <c r="D98" s="180" t="s">
+      <c r="D98" s="211" t="s">
         <v>126</v>
       </c>
-      <c r="E98" s="180"/>
-      <c r="F98" s="121"/>
+      <c r="E98" s="211"/>
+      <c r="F98" s="120"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -10371,7 +10418,7 @@
     <row r="99" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="119"/>
+      <c r="C99" s="118"/>
       <c r="D99" s="4"/>
       <c r="E99" s="17" t="s">
         <v>8</v>
@@ -10474,63 +10521,63 @@
     </row>
     <row r="100" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
-      <c r="B100" s="187" t="s">
+      <c r="B100" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="120">
+      <c r="C100" s="119">
         <v>1</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F100" s="123" t="str">
+      <c r="F100" s="122" t="str">
         <f>IF(AK100&lt;&gt;1,"Error:Sum&lt;&gt;1","")</f>
         <v/>
       </c>
-      <c r="G100" s="117">
+      <c r="G100" s="116">
         <v>0.2</v>
       </c>
-      <c r="H100" s="117">
+      <c r="H100" s="116">
         <v>0.32</v>
       </c>
-      <c r="I100" s="117">
+      <c r="I100" s="116">
         <v>0.192</v>
       </c>
-      <c r="J100" s="117">
+      <c r="J100" s="116">
         <v>0.1152</v>
       </c>
-      <c r="K100" s="117">
+      <c r="K100" s="116">
         <v>0.1152</v>
       </c>
-      <c r="L100" s="117">
+      <c r="L100" s="116">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="M100" s="117"/>
-      <c r="N100" s="117"/>
-      <c r="O100" s="117"/>
-      <c r="P100" s="117"/>
-      <c r="Q100" s="117"/>
-      <c r="R100" s="117"/>
-      <c r="S100" s="117"/>
-      <c r="T100" s="117"/>
-      <c r="U100" s="117"/>
-      <c r="V100" s="117"/>
-      <c r="W100" s="117"/>
-      <c r="X100" s="117"/>
-      <c r="Y100" s="117"/>
-      <c r="Z100" s="117"/>
-      <c r="AA100" s="117"/>
-      <c r="AB100" s="117"/>
-      <c r="AC100" s="117"/>
-      <c r="AD100" s="117"/>
-      <c r="AE100" s="117"/>
-      <c r="AF100" s="117"/>
-      <c r="AG100" s="117"/>
-      <c r="AH100" s="117"/>
-      <c r="AI100" s="117"/>
-      <c r="AJ100" s="117"/>
-      <c r="AK100" s="116">
+      <c r="M100" s="116"/>
+      <c r="N100" s="116"/>
+      <c r="O100" s="116"/>
+      <c r="P100" s="116"/>
+      <c r="Q100" s="116"/>
+      <c r="R100" s="116"/>
+      <c r="S100" s="116"/>
+      <c r="T100" s="116"/>
+      <c r="U100" s="116"/>
+      <c r="V100" s="116"/>
+      <c r="W100" s="116"/>
+      <c r="X100" s="116"/>
+      <c r="Y100" s="116"/>
+      <c r="Z100" s="116"/>
+      <c r="AA100" s="116"/>
+      <c r="AB100" s="116"/>
+      <c r="AC100" s="116"/>
+      <c r="AD100" s="116"/>
+      <c r="AE100" s="116"/>
+      <c r="AF100" s="116"/>
+      <c r="AG100" s="116"/>
+      <c r="AH100" s="116"/>
+      <c r="AI100" s="116"/>
+      <c r="AJ100" s="116"/>
+      <c r="AK100" s="115">
         <f>SUM(G100:AJ100)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -10538,71 +10585,71 @@
     </row>
     <row r="101" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
-      <c r="B101" s="187"/>
-      <c r="C101" s="120">
+      <c r="B101" s="195"/>
+      <c r="C101" s="119">
         <v>2</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F101" s="123" t="str">
+      <c r="F101" s="122" t="str">
         <f>IF(AK101&lt;&gt;1,"Error:Sum&lt;&gt;1","")</f>
         <v/>
       </c>
-      <c r="G101" s="117">
+      <c r="G101" s="116">
         <v>0.1</v>
       </c>
-      <c r="H101" s="117">
+      <c r="H101" s="116">
         <v>0.18</v>
       </c>
-      <c r="I101" s="117">
+      <c r="I101" s="116">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J101" s="117">
+      <c r="J101" s="116">
         <v>0.1152</v>
       </c>
-      <c r="K101" s="117">
+      <c r="K101" s="116">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L101" s="117">
+      <c r="L101" s="116">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="M101" s="117">
+      <c r="M101" s="116">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="N101" s="117">
+      <c r="N101" s="116">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="O101" s="117">
+      <c r="O101" s="116">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="P101" s="117">
+      <c r="P101" s="116">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="Q101" s="117">
+      <c r="Q101" s="116">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="R101" s="117"/>
-      <c r="S101" s="117"/>
-      <c r="T101" s="117"/>
-      <c r="U101" s="117"/>
-      <c r="V101" s="117"/>
-      <c r="W101" s="117"/>
-      <c r="X101" s="117"/>
-      <c r="Y101" s="117"/>
-      <c r="Z101" s="117"/>
-      <c r="AA101" s="117"/>
-      <c r="AB101" s="117"/>
-      <c r="AC101" s="117"/>
-      <c r="AD101" s="117"/>
-      <c r="AE101" s="117"/>
-      <c r="AF101" s="117"/>
-      <c r="AG101" s="117"/>
-      <c r="AH101" s="117"/>
-      <c r="AI101" s="117"/>
-      <c r="AJ101" s="117"/>
-      <c r="AK101" s="116">
+      <c r="R101" s="116"/>
+      <c r="S101" s="116"/>
+      <c r="T101" s="116"/>
+      <c r="U101" s="116"/>
+      <c r="V101" s="116"/>
+      <c r="W101" s="116"/>
+      <c r="X101" s="116"/>
+      <c r="Y101" s="116"/>
+      <c r="Z101" s="116"/>
+      <c r="AA101" s="116"/>
+      <c r="AB101" s="116"/>
+      <c r="AC101" s="116"/>
+      <c r="AD101" s="116"/>
+      <c r="AE101" s="116"/>
+      <c r="AF101" s="116"/>
+      <c r="AG101" s="116"/>
+      <c r="AH101" s="116"/>
+      <c r="AI101" s="116"/>
+      <c r="AJ101" s="116"/>
+      <c r="AK101" s="115">
         <f>SUM(G101:AJ101)</f>
         <v>1</v>
       </c>
@@ -10610,142 +10657,142 @@
     </row>
     <row r="102" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="187"/>
-      <c r="C102" s="120">
+      <c r="B102" s="195"/>
+      <c r="C102" s="119">
         <v>3</v>
       </c>
-      <c r="D102" s="115">
+      <c r="D102" s="114">
         <f>F65</f>
         <v>15</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F102" s="123" t="str">
+      <c r="F102" s="122" t="str">
         <f>IF(AK102&lt;&gt;1,"Error:Sum&lt;&gt;1","")</f>
         <v/>
       </c>
-      <c r="G102" s="116">
+      <c r="G102" s="115">
         <f t="shared" ref="G102:AJ102" si="0">IF($D$102&lt;=30,(IF(G99&lt;=$D$102,1/$D$102,"")),"! &gt; 30 yrs")</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H102" s="116">
+      <c r="H102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I102" s="116">
+      <c r="I102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="J102" s="116">
+      <c r="J102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K102" s="116">
+      <c r="K102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L102" s="116">
+      <c r="L102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="M102" s="116">
+      <c r="M102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="N102" s="116">
+      <c r="N102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="O102" s="116">
+      <c r="O102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="P102" s="116">
+      <c r="P102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="Q102" s="116">
+      <c r="Q102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="R102" s="116">
+      <c r="R102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S102" s="116">
+      <c r="S102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="T102" s="116">
+      <c r="T102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="U102" s="116">
+      <c r="U102" s="115">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="V102" s="116" t="str">
+      <c r="V102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W102" s="116" t="str">
+      <c r="W102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X102" s="116" t="str">
+      <c r="X102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y102" s="116" t="str">
+      <c r="Y102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z102" s="116" t="str">
+      <c r="Z102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA102" s="116" t="str">
+      <c r="AA102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB102" s="116" t="str">
+      <c r="AB102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC102" s="116" t="str">
+      <c r="AC102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD102" s="116" t="str">
+      <c r="AD102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE102" s="116" t="str">
+      <c r="AE102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF102" s="116" t="str">
+      <c r="AF102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG102" s="116" t="str">
+      <c r="AG102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH102" s="116" t="str">
+      <c r="AH102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI102" s="116" t="str">
+      <c r="AI102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ102" s="116" t="str">
+      <c r="AJ102" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AK102" s="116">
+      <c r="AK102" s="115">
         <f>SUM(G102:AJ102)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -10753,106 +10800,106 @@
     </row>
     <row r="103" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="187"/>
-      <c r="C103" s="120">
+      <c r="B103" s="195"/>
+      <c r="C103" s="119">
         <v>4</v>
       </c>
-      <c r="D103" s="115"/>
+      <c r="D103" s="114"/>
       <c r="E103" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F103" s="123"/>
-      <c r="G103" s="116">
-        <v>0</v>
-      </c>
-      <c r="H103" s="116">
-        <v>0</v>
-      </c>
-      <c r="I103" s="116">
-        <v>0</v>
-      </c>
-      <c r="J103" s="116">
-        <v>0</v>
-      </c>
-      <c r="K103" s="116">
-        <v>0</v>
-      </c>
-      <c r="L103" s="116">
-        <v>0</v>
-      </c>
-      <c r="M103" s="116">
-        <v>0</v>
-      </c>
-      <c r="N103" s="116">
-        <v>0</v>
-      </c>
-      <c r="O103" s="116">
-        <v>0</v>
-      </c>
-      <c r="P103" s="116">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="116">
-        <v>0</v>
-      </c>
-      <c r="R103" s="116">
-        <v>0</v>
-      </c>
-      <c r="S103" s="116">
-        <v>0</v>
-      </c>
-      <c r="T103" s="116">
-        <v>0</v>
-      </c>
-      <c r="U103" s="116">
-        <v>0</v>
-      </c>
-      <c r="V103" s="116">
-        <v>0</v>
-      </c>
-      <c r="W103" s="116">
-        <v>0</v>
-      </c>
-      <c r="X103" s="116">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="116">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AB103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AD103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AF103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AH103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AI103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="116">
-        <v>0</v>
-      </c>
-      <c r="AK103" s="116">
+      <c r="F103" s="122"/>
+      <c r="G103" s="115">
+        <v>0</v>
+      </c>
+      <c r="H103" s="115">
+        <v>0</v>
+      </c>
+      <c r="I103" s="115">
+        <v>0</v>
+      </c>
+      <c r="J103" s="115">
+        <v>0</v>
+      </c>
+      <c r="K103" s="115">
+        <v>0</v>
+      </c>
+      <c r="L103" s="115">
+        <v>0</v>
+      </c>
+      <c r="M103" s="115">
+        <v>0</v>
+      </c>
+      <c r="N103" s="115">
+        <v>0</v>
+      </c>
+      <c r="O103" s="115">
+        <v>0</v>
+      </c>
+      <c r="P103" s="115">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="115">
+        <v>0</v>
+      </c>
+      <c r="R103" s="115">
+        <v>0</v>
+      </c>
+      <c r="S103" s="115">
+        <v>0</v>
+      </c>
+      <c r="T103" s="115">
+        <v>0</v>
+      </c>
+      <c r="U103" s="115">
+        <v>0</v>
+      </c>
+      <c r="V103" s="115">
+        <v>0</v>
+      </c>
+      <c r="W103" s="115">
+        <v>0</v>
+      </c>
+      <c r="X103" s="115">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="115">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="115">
+        <v>0</v>
+      </c>
+      <c r="AK103" s="115">
         <f>SUM(G103:AJ103)</f>
         <v>0</v>
       </c>
@@ -10860,137 +10907,137 @@
     </row>
     <row r="104" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
-      <c r="B104" s="114"/>
+      <c r="B104" s="113"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F104" s="140" t="str">
+      <c r="F104" s="139" t="str">
         <f>IF(AK104&lt;&gt;1,"Sum&lt;&gt;1","")</f>
         <v/>
       </c>
-      <c r="G104" s="116">
+      <c r="G104" s="115">
         <f t="shared" ref="G104:AJ104" si="1">IF($F$65&gt;30,"Error!",IF($C$98=1,G100,IF($C$98=2,G101,IF($C$98=3,G102,G103))))</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H104" s="116">
+      <c r="H104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I104" s="116">
+      <c r="I104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="J104" s="116">
+      <c r="J104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K104" s="116">
+      <c r="K104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L104" s="116">
+      <c r="L104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="M104" s="116">
+      <c r="M104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="N104" s="116">
+      <c r="N104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="O104" s="116">
+      <c r="O104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="P104" s="116">
+      <c r="P104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="Q104" s="116">
+      <c r="Q104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="R104" s="116">
+      <c r="R104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S104" s="116">
+      <c r="S104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="T104" s="116">
+      <c r="T104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="U104" s="116">
+      <c r="U104" s="115">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="V104" s="116" t="str">
+      <c r="V104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="W104" s="116" t="str">
+      <c r="W104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X104" s="116" t="str">
+      <c r="X104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y104" s="116" t="str">
+      <c r="Y104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z104" s="116" t="str">
+      <c r="Z104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA104" s="116" t="str">
+      <c r="AA104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB104" s="116" t="str">
+      <c r="AB104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC104" s="116" t="str">
+      <c r="AC104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD104" s="116" t="str">
+      <c r="AD104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AE104" s="116" t="str">
+      <c r="AE104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF104" s="116" t="str">
+      <c r="AF104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG104" s="116" t="str">
+      <c r="AG104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AH104" s="116" t="str">
+      <c r="AH104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AI104" s="116" t="str">
+      <c r="AI104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AJ104" s="116" t="str">
+      <c r="AJ104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AK104" s="116">
+      <c r="AK104" s="115">
         <f>SUM(G104:AJ104)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -11002,7 +11049,7 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="91"/>
+      <c r="F105" s="90"/>
       <c r="G105" s="2">
         <f>1/EconomicLife</f>
         <v>6.6666666666666666E-2</v>
@@ -11044,10 +11091,10 @@
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="94" t="s">
+      <c r="E106" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="F106" s="110" t="s">
+      <c r="F106" s="109" t="s">
         <v>90</v>
       </c>
       <c r="G106" s="13"/>
@@ -11090,14 +11137,14 @@
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="109" t="s">
+      <c r="E107" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="124">
+      <c r="F107" s="123">
         <f>AK108</f>
         <v>5</v>
       </c>
-      <c r="G107" s="93">
+      <c r="G107" s="92">
         <v>1</v>
       </c>
       <c r="H107" s="24">
@@ -11201,97 +11248,97 @@
         <v>81</v>
       </c>
       <c r="F108" s="22"/>
-      <c r="G108" s="111">
+      <c r="G108" s="110">
         <v>100</v>
       </c>
-      <c r="H108" s="111">
+      <c r="H108" s="110">
         <v>100</v>
       </c>
-      <c r="I108" s="111">
+      <c r="I108" s="110">
         <v>100</v>
       </c>
-      <c r="J108" s="111">
+      <c r="J108" s="110">
         <v>100</v>
       </c>
-      <c r="K108" s="111">
+      <c r="K108" s="110">
         <v>100</v>
       </c>
-      <c r="L108" s="112">
-        <v>0</v>
-      </c>
-      <c r="M108" s="112">
-        <v>0</v>
-      </c>
-      <c r="N108" s="112">
-        <v>0</v>
-      </c>
-      <c r="O108" s="112">
-        <v>0</v>
-      </c>
-      <c r="P108" s="112">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="112">
-        <v>0</v>
-      </c>
-      <c r="R108" s="112">
-        <v>0</v>
-      </c>
-      <c r="S108" s="112">
-        <v>0</v>
-      </c>
-      <c r="T108" s="112">
-        <v>0</v>
-      </c>
-      <c r="U108" s="112">
-        <v>0</v>
-      </c>
-      <c r="V108" s="112">
-        <v>0</v>
-      </c>
-      <c r="W108" s="112">
-        <v>0</v>
-      </c>
-      <c r="X108" s="112">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="112">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AD108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AE108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AF108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AG108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AH108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AI108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AJ108" s="112">
-        <v>0</v>
-      </c>
-      <c r="AK108" s="113">
+      <c r="L108" s="111">
+        <v>0</v>
+      </c>
+      <c r="M108" s="111">
+        <v>0</v>
+      </c>
+      <c r="N108" s="111">
+        <v>0</v>
+      </c>
+      <c r="O108" s="111">
+        <v>0</v>
+      </c>
+      <c r="P108" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="111">
+        <v>0</v>
+      </c>
+      <c r="R108" s="111">
+        <v>0</v>
+      </c>
+      <c r="S108" s="111">
+        <v>0</v>
+      </c>
+      <c r="T108" s="111">
+        <v>0</v>
+      </c>
+      <c r="U108" s="111">
+        <v>0</v>
+      </c>
+      <c r="V108" s="111">
+        <v>0</v>
+      </c>
+      <c r="W108" s="111">
+        <v>0</v>
+      </c>
+      <c r="X108" s="111">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="111">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AH108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="111">
+        <v>0</v>
+      </c>
+      <c r="AK108" s="112">
         <f>COUNTIF(G108:AJ108,"&gt;0")</f>
         <v>5</v>
       </c>
@@ -11303,7 +11350,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="91"/>
+      <c r="F109" s="90"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -11345,38 +11392,38 @@
       <c r="E110" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F110" s="100"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="102"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="102"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="100"/>
+      <c r="H110" s="101"/>
+      <c r="I110" s="101"/>
+      <c r="J110" s="101"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="102"/>
-      <c r="O110" s="102"/>
-      <c r="P110" s="102"/>
-      <c r="Q110" s="102"/>
-      <c r="R110" s="102"/>
-      <c r="S110" s="102"/>
-      <c r="T110" s="102"/>
-      <c r="U110" s="102"/>
-      <c r="V110" s="102"/>
-      <c r="W110" s="102"/>
-      <c r="X110" s="102"/>
-      <c r="Y110" s="102"/>
-      <c r="Z110" s="102"/>
-      <c r="AA110" s="102"/>
-      <c r="AB110" s="102"/>
-      <c r="AC110" s="102"/>
-      <c r="AD110" s="102"/>
-      <c r="AE110" s="102"/>
-      <c r="AF110" s="102"/>
-      <c r="AG110" s="102"/>
-      <c r="AH110" s="102"/>
-      <c r="AI110" s="102"/>
-      <c r="AJ110" s="102"/>
-      <c r="AK110" s="139"/>
+      <c r="N110" s="101"/>
+      <c r="O110" s="101"/>
+      <c r="P110" s="101"/>
+      <c r="Q110" s="101"/>
+      <c r="R110" s="101"/>
+      <c r="S110" s="101"/>
+      <c r="T110" s="101"/>
+      <c r="U110" s="101"/>
+      <c r="V110" s="101"/>
+      <c r="W110" s="101"/>
+      <c r="X110" s="101"/>
+      <c r="Y110" s="101"/>
+      <c r="Z110" s="101"/>
+      <c r="AA110" s="101"/>
+      <c r="AB110" s="101"/>
+      <c r="AC110" s="101"/>
+      <c r="AD110" s="101"/>
+      <c r="AE110" s="101"/>
+      <c r="AF110" s="101"/>
+      <c r="AG110" s="101"/>
+      <c r="AH110" s="101"/>
+      <c r="AI110" s="101"/>
+      <c r="AJ110" s="101"/>
+      <c r="AK110" s="138"/>
       <c r="AL110" s="2"/>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.2">
@@ -11384,132 +11431,132 @@
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="103" t="s">
+      <c r="E111" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="103">
-        <v>0</v>
-      </c>
-      <c r="G111" s="103">
+      <c r="F111" s="102">
+        <v>0</v>
+      </c>
+      <c r="G111" s="102">
         <v>1</v>
       </c>
-      <c r="H111" s="103">
+      <c r="H111" s="102">
         <f t="shared" ref="H111:P111" si="2">G111+1</f>
         <v>2</v>
       </c>
-      <c r="I111" s="103">
+      <c r="I111" s="102">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J111" s="103">
+      <c r="J111" s="102">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K111" s="103">
+      <c r="K111" s="102">
         <f>J111+1</f>
         <v>5</v>
       </c>
-      <c r="L111" s="103">
+      <c r="L111" s="102">
         <f>K111+1</f>
         <v>6</v>
       </c>
-      <c r="M111" s="103">
+      <c r="M111" s="102">
         <f>L111+1</f>
         <v>7</v>
       </c>
-      <c r="N111" s="103">
+      <c r="N111" s="102">
         <f>M111+1</f>
         <v>8</v>
       </c>
-      <c r="O111" s="103">
+      <c r="O111" s="102">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="P111" s="103">
+      <c r="P111" s="102">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="Q111" s="103">
+      <c r="Q111" s="102">
         <f>P111+1</f>
         <v>11</v>
       </c>
-      <c r="R111" s="103">
+      <c r="R111" s="102">
         <f t="shared" ref="R111:Z111" si="3">Q111+1</f>
         <v>12</v>
       </c>
-      <c r="S111" s="103">
+      <c r="S111" s="102">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="T111" s="103">
+      <c r="T111" s="102">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="U111" s="103">
+      <c r="U111" s="102">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="V111" s="103">
+      <c r="V111" s="102">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="W111" s="103">
+      <c r="W111" s="102">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="X111" s="103">
+      <c r="X111" s="102">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="Y111" s="103">
+      <c r="Y111" s="102">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="Z111" s="103">
+      <c r="Z111" s="102">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="AA111" s="103">
+      <c r="AA111" s="102">
         <f t="shared" ref="AA111:AJ111" si="4">Z111+1</f>
         <v>21</v>
       </c>
-      <c r="AB111" s="103">
+      <c r="AB111" s="102">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="AC111" s="103">
+      <c r="AC111" s="102">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="AD111" s="103">
+      <c r="AD111" s="102">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="AE111" s="103">
+      <c r="AE111" s="102">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="AF111" s="103">
+      <c r="AF111" s="102">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="AG111" s="103">
+      <c r="AG111" s="102">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="AH111" s="103">
+      <c r="AH111" s="102">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="AI111" s="103">
+      <c r="AI111" s="102">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="AJ111" s="103">
+      <c r="AJ111" s="102">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="AK111" s="104" t="s">
+      <c r="AK111" s="103" t="s">
         <v>6</v>
       </c>
       <c r="AL111" s="2"/>
@@ -11522,7 +11569,7 @@
       <c r="E112" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F112" s="108"/>
+      <c r="F112" s="107"/>
       <c r="G112" s="8">
         <f>IF(G111&lt;=$F$65,AnnualEquityRepayment,0)</f>
         <v>3531502.1371461176</v>
@@ -11657,7 +11704,7 @@
       <c r="E113" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="F113" s="108"/>
+      <c r="F113" s="107"/>
       <c r="G113" s="8">
         <f>IF(G111&lt;=$F$65,TotalEquityPrincipal*MARR/100,0)</f>
         <v>3097500</v>
@@ -11792,7 +11839,7 @@
       <c r="E114" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="F114" s="108"/>
+      <c r="F114" s="107"/>
       <c r="G114" s="8">
         <f>IF(G111&lt;=$F$65,EquityRecovery-EquityInterest,0)</f>
         <v>434002.13714611763</v>
@@ -11927,7 +11974,7 @@
       <c r="E115" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F115" s="108"/>
+      <c r="F115" s="107"/>
       <c r="G115" s="8">
         <f>IF(G111&lt;=$F$65,TotalEquityPrincipal-EquityPrincipalPaid,0)</f>
         <v>20215997.862853881</v>
@@ -12061,7 +12108,7 @@
       <c r="E116" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F116" s="108"/>
+      <c r="F116" s="107"/>
       <c r="G116" s="8">
         <f>IF(G111&lt;=$F$65,AnnualDebtRepayment,0)</f>
         <v>17905214.15217806</v>
@@ -12197,7 +12244,7 @@
       <c r="E117" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="108"/>
+      <c r="F117" s="107"/>
       <c r="G117" s="8">
         <f>IF(G111&lt;=$F$65,InterestRateOnDebt/100*TotalDebtPrincipal,0)</f>
         <v>9292500</v>
@@ -12333,7 +12380,7 @@
       <c r="E118" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="108"/>
+      <c r="F118" s="107"/>
       <c r="G118" s="8">
         <f>IF(G111&lt;=$F$65,DebtRecovery-DebtInterest,"")</f>
         <v>8612714.1521780603</v>
@@ -12469,7 +12516,7 @@
       <c r="E119" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="108"/>
+      <c r="F119" s="107"/>
       <c r="G119" s="8">
         <f>IF(G111&lt;=EconomicLife,TotalDebtPrincipal-DebtPrincipalPaid,0)</f>
         <v>177237285.84782195</v>
@@ -12604,7 +12651,7 @@
       <c r="E120" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="108"/>
+      <c r="F120" s="107"/>
       <c r="G120" s="8">
         <f>IF(G111&lt;=$F$65,AnnualFeedstockCost,0)</f>
         <v>24768200.038824897</v>
@@ -12740,7 +12787,7 @@
       <c r="E121" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="F121" s="108"/>
+      <c r="F121" s="107"/>
       <c r="G121" s="8">
         <f>IF(G111&lt;=$F$65,OperatingExpenses,0)</f>
         <v>8260000</v>
@@ -12876,7 +12923,7 @@
       <c r="E122" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="108"/>
+      <c r="F122" s="107"/>
       <c r="G122" s="8">
         <f>IF(G111&lt;=$F$65,DebtReserve,0)</f>
         <v>17905214.15217806</v>
@@ -13012,7 +13059,7 @@
       <c r="E123" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F123" s="108"/>
+      <c r="F123" s="107"/>
       <c r="G123" s="8">
         <f>IF(G111&lt;=$F$65,FuelCost+NonFuelExpenses,0)</f>
         <v>33028200.038824897</v>
@@ -13148,7 +13195,7 @@
       <c r="E124" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F124" s="108"/>
+      <c r="F124" s="107"/>
       <c r="G124" s="8">
         <f>IF(G111&lt;=$F$65,AmountOfCapitalFinancing*G104,0)</f>
         <v>13766666.666666666</v>
@@ -13281,67 +13328,67 @@
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="210" t="s">
+      <c r="E125" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="F125" s="108"/>
-      <c r="G125" s="175">
+      <c r="F125" s="107"/>
+      <c r="G125" s="174">
         <f>IF(G111&lt;=$F$65,ElectricalEnergy,0)</f>
         <v>2</v>
       </c>
-      <c r="H125" s="175">
+      <c r="H125" s="174">
         <f>IF(H111&lt;=$F$65,IncomeElectricalEnergy*(1+EscalationElectricalEnergy/100)^(H111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I125" s="175">
+      <c r="I125" s="174">
         <f t="shared" ref="I125:AJ125" si="19">IF(I111&lt;=$F$65,$G$125*(1+$F$52/100)^(I111-1),0)</f>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J125" s="175">
+      <c r="J125" s="174">
         <f t="shared" si="19"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K125" s="175">
+      <c r="K125" s="174">
         <f t="shared" si="19"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L125" s="175">
+      <c r="L125" s="174">
         <f t="shared" si="19"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M125" s="175">
+      <c r="M125" s="174">
         <f t="shared" si="19"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N125" s="175">
+      <c r="N125" s="174">
         <f t="shared" si="19"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O125" s="175">
+      <c r="O125" s="174">
         <f t="shared" si="19"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P125" s="175">
+      <c r="P125" s="174">
         <f t="shared" si="19"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q125" s="175">
+      <c r="Q125" s="174">
         <f t="shared" si="19"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R125" s="175">
+      <c r="R125" s="174">
         <f t="shared" si="19"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S125" s="175">
+      <c r="S125" s="174">
         <f t="shared" si="19"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T125" s="175">
+      <c r="T125" s="174">
         <f t="shared" si="19"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U125" s="175">
+      <c r="U125" s="174">
         <f t="shared" si="19"/>
         <v>2.675410239406772</v>
       </c>
@@ -13417,67 +13464,67 @@
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="210" t="s">
+      <c r="E126" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="F126" s="108"/>
-      <c r="G126" s="175">
+      <c r="F126" s="107"/>
+      <c r="G126" s="174">
         <f>IF(G111&lt;=$F$65,IF(G111&lt;=$G$36,IncentivePayments,0),0)</f>
         <v>2</v>
       </c>
-      <c r="H126" s="175">
+      <c r="H126" s="174">
         <f>IF(H111&lt;=$F$65,IF(H111&lt;=$G$36,$G$126*(1+$F$53/100)^(H111-1),0),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I126" s="175">
+      <c r="I126" s="174">
         <f t="shared" ref="I126:AJ126" si="20">IF(I111&lt;=$F$65,IF(I111&lt;=$G$36,$G$126*(1+$F$53/100)^(I111-1),0),0)</f>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J126" s="175">
+      <c r="J126" s="174">
         <f t="shared" si="20"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K126" s="175">
+      <c r="K126" s="174">
         <f t="shared" si="20"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L126" s="175">
+      <c r="L126" s="174">
         <f t="shared" si="20"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M126" s="175">
+      <c r="M126" s="174">
         <f t="shared" si="20"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N126" s="175">
+      <c r="N126" s="174">
         <f t="shared" si="20"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O126" s="175">
+      <c r="O126" s="174">
         <f t="shared" si="20"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P126" s="175">
+      <c r="P126" s="174">
         <f t="shared" si="20"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q126" s="175">
+      <c r="Q126" s="174">
         <f t="shared" si="20"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R126" s="175">
+      <c r="R126" s="174">
         <f t="shared" si="20"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S126" s="175">
+      <c r="S126" s="174">
         <f t="shared" si="20"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T126" s="175">
+      <c r="T126" s="174">
         <f t="shared" si="20"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U126" s="175">
+      <c r="U126" s="174">
         <f t="shared" si="20"/>
         <v>2.675410239406772</v>
       </c>
@@ -13556,64 +13603,64 @@
       <c r="E127" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F127" s="108"/>
-      <c r="G127" s="175">
+      <c r="F127" s="107"/>
+      <c r="G127" s="174">
         <f>IF(G111&lt;=$F$65,Capacity,0)</f>
         <v>2</v>
       </c>
-      <c r="H127" s="175">
+      <c r="H127" s="174">
         <f t="shared" ref="H127:AJ127" si="21">IF(H111&lt;=$F$65,$G$127*(1+$F$54/100)^(H$111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I127" s="175">
+      <c r="I127" s="174">
         <f t="shared" si="21"/>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J127" s="175">
+      <c r="J127" s="174">
         <f t="shared" si="21"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K127" s="175">
+      <c r="K127" s="174">
         <f t="shared" si="21"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L127" s="175">
+      <c r="L127" s="174">
         <f t="shared" si="21"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M127" s="175">
+      <c r="M127" s="174">
         <f t="shared" si="21"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N127" s="175">
+      <c r="N127" s="174">
         <f t="shared" si="21"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O127" s="175">
+      <c r="O127" s="174">
         <f t="shared" si="21"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P127" s="175">
+      <c r="P127" s="174">
         <f t="shared" si="21"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q127" s="175">
+      <c r="Q127" s="174">
         <f t="shared" si="21"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R127" s="175">
+      <c r="R127" s="174">
         <f t="shared" si="21"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S127" s="175">
+      <c r="S127" s="174">
         <f t="shared" si="21"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T127" s="175">
+      <c r="T127" s="174">
         <f t="shared" si="21"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U127" s="175">
+      <c r="U127" s="174">
         <f t="shared" si="21"/>
         <v>2.675410239406772</v>
       </c>
@@ -13689,67 +13736,67 @@
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="210" t="s">
+      <c r="E128" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="F128" s="108"/>
-      <c r="G128" s="175">
+      <c r="F128" s="107"/>
+      <c r="G128" s="174">
         <f>IF(G111&lt;=$F$65,Heat,0)</f>
         <v>2</v>
       </c>
-      <c r="H128" s="175">
+      <c r="H128" s="174">
         <f t="shared" ref="H128:AJ128" si="22">IF(H111&lt;=$F$65,$G128*(1+$F$56/100)^(H$111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I128" s="175">
+      <c r="I128" s="174">
         <f t="shared" si="22"/>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J128" s="175">
+      <c r="J128" s="174">
         <f t="shared" si="22"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K128" s="175">
+      <c r="K128" s="174">
         <f t="shared" si="22"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L128" s="175">
+      <c r="L128" s="174">
         <f t="shared" si="22"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M128" s="175">
+      <c r="M128" s="174">
         <f t="shared" si="22"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N128" s="175">
+      <c r="N128" s="174">
         <f t="shared" si="22"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O128" s="175">
+      <c r="O128" s="174">
         <f t="shared" si="22"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P128" s="175">
+      <c r="P128" s="174">
         <f t="shared" si="22"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q128" s="175">
+      <c r="Q128" s="174">
         <f t="shared" si="22"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R128" s="175">
+      <c r="R128" s="174">
         <f t="shared" si="22"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S128" s="175">
+      <c r="S128" s="174">
         <f t="shared" si="22"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T128" s="175">
+      <c r="T128" s="174">
         <f t="shared" si="22"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U128" s="175">
+      <c r="U128" s="174">
         <f t="shared" si="22"/>
         <v>2.675410239406772</v>
       </c>
@@ -13825,67 +13872,67 @@
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="210" t="s">
+      <c r="E129" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="F129" s="108"/>
-      <c r="G129" s="175">
+      <c r="F129" s="107"/>
+      <c r="G129" s="174">
         <f>IF(G111&lt;=$F$65,Residues,0)</f>
         <v>2</v>
       </c>
-      <c r="H129" s="175">
+      <c r="H129" s="174">
         <f t="shared" ref="H129:AJ129" si="23">IF(H111&lt;=$F$65,$G$129*(1+$F$57/100)^(H$111-1),0)</f>
         <v>2.0419999999999998</v>
       </c>
-      <c r="I129" s="175">
+      <c r="I129" s="174">
         <f t="shared" si="23"/>
         <v>2.0848819999999995</v>
       </c>
-      <c r="J129" s="175">
+      <c r="J129" s="174">
         <f t="shared" si="23"/>
         <v>2.1286645219999993</v>
       </c>
-      <c r="K129" s="175">
+      <c r="K129" s="174">
         <f t="shared" si="23"/>
         <v>2.1733664769619989</v>
       </c>
-      <c r="L129" s="175">
+      <c r="L129" s="174">
         <f t="shared" si="23"/>
         <v>2.2190071729782006</v>
       </c>
-      <c r="M129" s="175">
+      <c r="M129" s="174">
         <f t="shared" si="23"/>
         <v>2.2656063236107427</v>
       </c>
-      <c r="N129" s="175">
+      <c r="N129" s="174">
         <f t="shared" si="23"/>
         <v>2.313184056406568</v>
       </c>
-      <c r="O129" s="175">
+      <c r="O129" s="174">
         <f t="shared" si="23"/>
         <v>2.3617609215911055</v>
       </c>
-      <c r="P129" s="175">
+      <c r="P129" s="174">
         <f t="shared" si="23"/>
         <v>2.4113579009445183</v>
       </c>
-      <c r="Q129" s="175">
+      <c r="Q129" s="174">
         <f t="shared" si="23"/>
         <v>2.4619964168643529</v>
       </c>
-      <c r="R129" s="175">
+      <c r="R129" s="174">
         <f t="shared" si="23"/>
         <v>2.5136983416185044</v>
       </c>
-      <c r="S129" s="175">
+      <c r="S129" s="174">
         <f t="shared" si="23"/>
         <v>2.5664860067924922</v>
       </c>
-      <c r="T129" s="175">
+      <c r="T129" s="174">
         <f t="shared" si="23"/>
         <v>2.6203822129351342</v>
       </c>
-      <c r="U129" s="175">
+      <c r="U129" s="174">
         <f t="shared" si="23"/>
         <v>2.675410239406772</v>
       </c>
@@ -13964,7 +14011,7 @@
       <c r="E130" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F130" s="108"/>
+      <c r="F130" s="107"/>
       <c r="G130" s="8">
         <f>IF(G111&lt;=$F$65,AnnualDebtReserveInterest,0)</f>
         <v>358104.28304356121</v>
@@ -14100,7 +14147,7 @@
       <c r="E131" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F131" s="108"/>
+      <c r="F131" s="107"/>
       <c r="G131" s="8">
         <f>IF(G111&lt;=$F$65,(($F$47/100)/(1-(CombinedTaxRate/100)))*(EquityPrincipalPaid+DebtPrincipalPaid+EquityInterest-Depreciation+DebtReserve1),0)</f>
         <v>10917737.001676362</v>
@@ -14236,7 +14283,7 @@
       <c r="E132" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F132" s="108"/>
+      <c r="F132" s="107"/>
       <c r="G132" s="8">
         <f>IF(G111&lt;=$F$65,AnnualHydrogenEnergy*ProductionTaxCredit*G108/100,0)</f>
         <v>674308.79999999981</v>
@@ -14369,10 +14416,10 @@
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="210" t="s">
+      <c r="E133" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="F133" s="138" t="str">
+      <c r="F133" s="137" t="str">
         <f>F46</f>
         <v>Yes</v>
       </c>
@@ -14511,7 +14558,7 @@
       <c r="E134" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="F134" s="126"/>
+      <c r="F134" s="125"/>
       <c r="G134" s="35">
         <f>IF(G111&lt;=$F$65,EquityRecovery+DebtRecovery+FuelCost+NonFuelExpenses+DebtReserve1+Taxes-G125-G126-G127-G128-G129-InterestOnDebtReserve,0)</f>
         <v>82477623.189698637</v>
@@ -14632,7 +14679,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AK134" s="151">
+      <c r="AK134" s="150">
         <f t="shared" si="15"/>
         <v>910808893.48074651</v>
       </c>
@@ -14644,127 +14691,127 @@
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="105" t="s">
+      <c r="E135" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="F135" s="125"/>
-      <c r="G135" s="106">
+      <c r="F135" s="124"/>
+      <c r="G135" s="105">
         <f>IF(G111&lt;=$F$65,G134*(1+$F$64/100)^-G111,0)</f>
         <v>71719672.33886838</v>
       </c>
-      <c r="H135" s="106">
+      <c r="H135" s="105">
         <f>IF(H111&lt;=$F$65,H134*(1+$F$64/100)^-H111,0)</f>
         <v>40483665.049793772</v>
       </c>
-      <c r="I135" s="106">
+      <c r="I135" s="105">
         <f t="shared" ref="I135:AJ135" si="29">IF(I111&lt;=$F$65,I134*(1+$F$64/100)^-I111,0)</f>
         <v>35861785.242900252</v>
       </c>
-      <c r="J135" s="106">
+      <c r="J135" s="105">
         <f t="shared" si="29"/>
         <v>31773908.800267015</v>
       </c>
-      <c r="K135" s="106">
+      <c r="K135" s="105">
         <f t="shared" si="29"/>
         <v>28157669.209771741</v>
       </c>
-      <c r="L135" s="106">
+      <c r="L135" s="105">
         <f t="shared" si="29"/>
         <v>25174928.180450678</v>
       </c>
-      <c r="M135" s="106">
+      <c r="M135" s="105">
         <f t="shared" si="29"/>
         <v>22319081.849452965</v>
       </c>
-      <c r="N135" s="106">
+      <c r="N135" s="105">
         <f t="shared" si="29"/>
         <v>19791238.357295576</v>
       </c>
-      <c r="O135" s="106">
+      <c r="O135" s="105">
         <f t="shared" si="29"/>
         <v>17553302.542362057</v>
       </c>
-      <c r="P135" s="106">
+      <c r="P135" s="105">
         <f t="shared" si="29"/>
         <v>15571648.743168518</v>
       </c>
-      <c r="Q135" s="106">
+      <c r="Q135" s="105">
         <f t="shared" si="29"/>
         <v>13816591.546435289</v>
       </c>
-      <c r="R135" s="106">
+      <c r="R135" s="105">
         <f t="shared" si="29"/>
         <v>12261919.741073046</v>
       </c>
-      <c r="S135" s="106">
+      <c r="S135" s="105">
         <f t="shared" si="29"/>
         <v>10884485.870095555</v>
       </c>
-      <c r="T135" s="106">
+      <c r="T135" s="105">
         <f t="shared" si="29"/>
         <v>9663844.6949557085</v>
       </c>
-      <c r="U135" s="106">
+      <c r="U135" s="105">
         <f t="shared" si="29"/>
         <v>4906060.058795128</v>
       </c>
-      <c r="V135" s="106">
+      <c r="V135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="W135" s="106">
+      <c r="W135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="X135" s="106">
+      <c r="X135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="Y135" s="106">
+      <c r="Y135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="Z135" s="106">
+      <c r="Z135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AA135" s="106">
+      <c r="AA135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AB135" s="106">
+      <c r="AB135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AC135" s="106">
+      <c r="AC135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AD135" s="106">
+      <c r="AD135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE135" s="106">
+      <c r="AE135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AF135" s="106">
+      <c r="AF135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AG135" s="106">
+      <c r="AG135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AH135" s="106">
+      <c r="AH135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AI135" s="106">
+      <c r="AI135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AJ135" s="106">
+      <c r="AJ135" s="105">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -14780,47 +14827,47 @@
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="105" t="s">
+      <c r="E136" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="F136" s="107">
+      <c r="F136" s="106">
         <f>SUM(G135:AJ135)</f>
         <v>359939802.22568578</v>
       </c>
-      <c r="G136" s="152" t="str">
+      <c r="G136" s="151" t="str">
         <f>IF(F136&lt;&gt;AK135,"  Error on sum","  No error on sum")</f>
         <v xml:space="preserve">  No error on sum</v>
       </c>
-      <c r="H136" s="129"/>
-      <c r="I136" s="129"/>
-      <c r="J136" s="129"/>
-      <c r="K136" s="129"/>
-      <c r="L136" s="129"/>
-      <c r="M136" s="129"/>
-      <c r="N136" s="129"/>
-      <c r="O136" s="129"/>
-      <c r="P136" s="129"/>
-      <c r="Q136" s="129"/>
-      <c r="R136" s="129"/>
-      <c r="S136" s="129"/>
-      <c r="T136" s="129"/>
-      <c r="U136" s="129"/>
-      <c r="V136" s="129"/>
-      <c r="W136" s="129"/>
-      <c r="X136" s="129"/>
-      <c r="Y136" s="129"/>
-      <c r="Z136" s="129"/>
-      <c r="AA136" s="129"/>
-      <c r="AB136" s="129"/>
-      <c r="AC136" s="129"/>
-      <c r="AD136" s="129"/>
-      <c r="AE136" s="129"/>
-      <c r="AF136" s="129"/>
-      <c r="AG136" s="129"/>
-      <c r="AH136" s="129"/>
-      <c r="AI136" s="129"/>
-      <c r="AJ136" s="154"/>
-      <c r="AK136" s="130"/>
+      <c r="H136" s="128"/>
+      <c r="I136" s="128"/>
+      <c r="J136" s="128"/>
+      <c r="K136" s="128"/>
+      <c r="L136" s="128"/>
+      <c r="M136" s="128"/>
+      <c r="N136" s="128"/>
+      <c r="O136" s="128"/>
+      <c r="P136" s="128"/>
+      <c r="Q136" s="128"/>
+      <c r="R136" s="128"/>
+      <c r="S136" s="128"/>
+      <c r="T136" s="128"/>
+      <c r="U136" s="128"/>
+      <c r="V136" s="128"/>
+      <c r="W136" s="128"/>
+      <c r="X136" s="128"/>
+      <c r="Y136" s="128"/>
+      <c r="Z136" s="128"/>
+      <c r="AA136" s="128"/>
+      <c r="AB136" s="128"/>
+      <c r="AC136" s="128"/>
+      <c r="AD136" s="128"/>
+      <c r="AE136" s="128"/>
+      <c r="AF136" s="128"/>
+      <c r="AG136" s="128"/>
+      <c r="AH136" s="128"/>
+      <c r="AI136" s="128"/>
+      <c r="AJ136" s="153"/>
+      <c r="AK136" s="129"/>
       <c r="AL136" s="9"/>
     </row>
     <row r="137" spans="1:39" x14ac:dyDescent="0.2">
@@ -14828,10 +14875,10 @@
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="105" t="s">
+      <c r="E137" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="F137" s="107">
+      <c r="F137" s="106">
         <f>F136*CapitalRecoveryFactorEquity</f>
         <v>61555844.106729306</v>
       </c>
@@ -14864,8 +14911,8 @@
       <c r="AG137" s="8"/>
       <c r="AH137" s="8"/>
       <c r="AI137" s="8"/>
-      <c r="AJ137" s="153"/>
-      <c r="AK137" s="153"/>
+      <c r="AJ137" s="152"/>
+      <c r="AK137" s="152"/>
       <c r="AL137" s="9"/>
     </row>
     <row r="138" spans="1:39" x14ac:dyDescent="0.2">
@@ -14873,10 +14920,10 @@
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="105" t="s">
+      <c r="E138" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F138" s="107">
+      <c r="F138" s="106">
         <f>F136*CapitalRecoveryFactorEquityConstant</f>
         <v>54650187.41767966</v>
       </c>
@@ -14909,8 +14956,8 @@
       <c r="AG138" s="8"/>
       <c r="AH138" s="8"/>
       <c r="AI138" s="8"/>
-      <c r="AJ138" s="153"/>
-      <c r="AK138" s="153"/>
+      <c r="AJ138" s="152"/>
+      <c r="AK138" s="152"/>
       <c r="AL138" s="9"/>
     </row>
     <row r="139" spans="1:39" x14ac:dyDescent="0.2">
@@ -14918,10 +14965,10 @@
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="105" t="s">
+      <c r="E139" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="F139" s="155">
+      <c r="F139" s="154">
         <f>F137/F16</f>
         <v>1.1660768565768804</v>
       </c>
@@ -14954,8 +15001,8 @@
       <c r="AG139" s="8"/>
       <c r="AH139" s="8"/>
       <c r="AI139" s="8"/>
-      <c r="AJ139" s="153"/>
-      <c r="AK139" s="153"/>
+      <c r="AJ139" s="152"/>
+      <c r="AK139" s="152"/>
       <c r="AL139" s="9"/>
     </row>
     <row r="140" spans="1:39" x14ac:dyDescent="0.2">
@@ -14963,10 +15010,10 @@
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="105" t="s">
+      <c r="E140" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="F140" s="155">
+      <c r="F140" s="154">
         <f>F138/F16</f>
         <v>1.0352602531914381</v>
       </c>
@@ -14999,8 +15046,8 @@
       <c r="AG140" s="8"/>
       <c r="AH140" s="8"/>
       <c r="AI140" s="8"/>
-      <c r="AJ140" s="153"/>
-      <c r="AK140" s="153"/>
+      <c r="AJ140" s="152"/>
+      <c r="AK140" s="152"/>
       <c r="AL140" s="9"/>
     </row>
     <row r="141" spans="1:39" x14ac:dyDescent="0.2">
@@ -15008,10 +15055,10 @@
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="105" t="s">
+      <c r="E141" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="F141" s="155">
+      <c r="F141" s="154">
         <f>F137/F17</f>
         <v>8.2158589204317654</v>
       </c>
@@ -15044,8 +15091,8 @@
       <c r="AG141" s="8"/>
       <c r="AH141" s="8"/>
       <c r="AI141" s="8"/>
-      <c r="AJ141" s="153"/>
-      <c r="AK141" s="153"/>
+      <c r="AJ141" s="152"/>
+      <c r="AK141" s="152"/>
       <c r="AL141" s="9"/>
     </row>
     <row r="142" spans="1:39" x14ac:dyDescent="0.2">
@@ -15053,14 +15100,14 @@
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="105" t="s">
+      <c r="E142" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="F142" s="155">
+      <c r="F142" s="154">
         <f>F138/F17</f>
         <v>7.2941608764280854</v>
       </c>
-      <c r="G142" s="131"/>
+      <c r="G142" s="130"/>
       <c r="H142" s="35"/>
       <c r="I142" s="35"/>
       <c r="J142" s="35"/>
@@ -15089,8 +15136,8 @@
       <c r="AG142" s="35"/>
       <c r="AH142" s="35"/>
       <c r="AI142" s="35"/>
-      <c r="AJ142" s="132"/>
-      <c r="AK142" s="132"/>
+      <c r="AJ142" s="131"/>
+      <c r="AK142" s="131"/>
       <c r="AL142" s="9"/>
     </row>
     <row r="143" spans="1:39" x14ac:dyDescent="0.2">
@@ -15182,7 +15229,7 @@
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
-      <c r="E145" s="136"/>
+      <c r="E145" s="135"/>
       <c r="F145" s="65"/>
       <c r="G145" s="65"/>
       <c r="H145" s="65"/>
@@ -15216,29 +15263,29 @@
       <c r="AJ145" s="65"/>
       <c r="AK145" s="65"/>
       <c r="AL145" s="65"/>
-      <c r="AM145" s="137"/>
+      <c r="AM145" s="136"/>
     </row>
     <row r="146" spans="1:39" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-      <c r="B146" s="135"/>
-      <c r="C146" s="135"/>
-      <c r="D146" s="135"/>
+      <c r="B146" s="134"/>
+      <c r="C146" s="134"/>
+      <c r="D146" s="134"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="184" t="s">
+      <c r="F146" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="G146" s="185"/>
-      <c r="H146" s="185"/>
-      <c r="I146" s="185"/>
-      <c r="J146" s="185"/>
-      <c r="K146" s="185"/>
-      <c r="L146" s="185"/>
-      <c r="M146" s="185"/>
-      <c r="N146" s="185"/>
-      <c r="O146" s="185"/>
-      <c r="P146" s="185"/>
-      <c r="Q146" s="185"/>
-      <c r="R146" s="186"/>
+      <c r="G146" s="201"/>
+      <c r="H146" s="201"/>
+      <c r="I146" s="201"/>
+      <c r="J146" s="201"/>
+      <c r="K146" s="201"/>
+      <c r="L146" s="201"/>
+      <c r="M146" s="201"/>
+      <c r="N146" s="201"/>
+      <c r="O146" s="201"/>
+      <c r="P146" s="201"/>
+      <c r="Q146" s="201"/>
+      <c r="R146" s="202"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
@@ -15267,23 +15314,23 @@
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="176" t="s">
+      <c r="F147" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="G147" s="177"/>
-      <c r="H147" s="177"/>
-      <c r="I147" s="177"/>
-      <c r="J147" s="177"/>
-      <c r="K147" s="178"/>
+      <c r="G147" s="209"/>
+      <c r="H147" s="209"/>
+      <c r="I147" s="209"/>
+      <c r="J147" s="209"/>
+      <c r="K147" s="210"/>
       <c r="L147" s="9"/>
-      <c r="M147" s="176" t="s">
+      <c r="M147" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="N147" s="177"/>
-      <c r="O147" s="177"/>
-      <c r="P147" s="177"/>
-      <c r="Q147" s="177"/>
-      <c r="R147" s="178"/>
+      <c r="N147" s="209"/>
+      <c r="O147" s="209"/>
+      <c r="P147" s="209"/>
+      <c r="Q147" s="209"/>
+      <c r="R147" s="210"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
@@ -15312,33 +15359,33 @@
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-      <c r="F148" s="191" t="s">
+      <c r="F148" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="G148" s="192"/>
-      <c r="H148" s="193" t="s">
+      <c r="G148" s="187"/>
+      <c r="H148" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I148" s="193"/>
-      <c r="J148" s="196">
+      <c r="I148" s="188"/>
+      <c r="J148" s="189">
         <f>F66</f>
         <v>206500000</v>
       </c>
-      <c r="K148" s="197"/>
+      <c r="K148" s="190"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="191" t="s">
+      <c r="M148" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="N148" s="192"/>
-      <c r="O148" s="193" t="s">
+      <c r="N148" s="187"/>
+      <c r="O148" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="P148" s="193"/>
-      <c r="Q148" s="196">
+      <c r="P148" s="188"/>
+      <c r="Q148" s="189">
         <f>$F$61</f>
         <v>90</v>
       </c>
-      <c r="R148" s="197"/>
+      <c r="R148" s="190"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
@@ -15366,7 +15413,7 @@
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="134"/>
+      <c r="E149" s="133"/>
       <c r="F149" s="37" t="s">
         <v>35</v>
       </c>
@@ -15431,7 +15478,7 @@
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="134"/>
+      <c r="E150" s="133"/>
       <c r="F150" s="37"/>
       <c r="G150" s="38" t="s">
         <v>37</v>
@@ -15492,17 +15539,17 @@
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="134"/>
+      <c r="E151" s="133"/>
       <c r="F151" s="40" t="s">
         <v>38</v>
       </c>
       <c r="G151" s="41"/>
       <c r="H151" s="41"/>
-      <c r="I151" s="157">
+      <c r="I151" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="J151" s="157">
+      <c r="J151" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -15513,11 +15560,11 @@
       </c>
       <c r="N151" s="41"/>
       <c r="O151" s="41"/>
-      <c r="P151" s="157">
+      <c r="P151" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="Q151" s="157">
+      <c r="Q151" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -17013,10 +17060,10 @@
       <c r="H172" s="51">
         <v>500000000</v>
       </c>
-      <c r="I172" s="158">
+      <c r="I172" s="157">
         <v>1.8496360567378332</v>
       </c>
-      <c r="J172" s="158">
+      <c r="J172" s="157">
         <v>1.6421342054859438</v>
       </c>
       <c r="K172" s="52">
@@ -17035,10 +17082,10 @@
       <c r="O172" s="51">
         <v>98</v>
       </c>
-      <c r="P172" s="158">
+      <c r="P172" s="157">
         <v>1.1250323497417747</v>
       </c>
-      <c r="Q172" s="158">
+      <c r="Q172" s="157">
         <v>0.99882033390261216</v>
       </c>
       <c r="R172" s="52">
@@ -17073,12 +17120,12 @@
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="159"/>
-      <c r="G173" s="164"/>
-      <c r="H173" s="164"/>
-      <c r="I173" s="167"/>
-      <c r="J173" s="167"/>
-      <c r="K173" s="164"/>
+      <c r="F173" s="158"/>
+      <c r="G173" s="163"/>
+      <c r="H173" s="163"/>
+      <c r="I173" s="166"/>
+      <c r="J173" s="166"/>
+      <c r="K173" s="163"/>
       <c r="L173" s="2"/>
       <c r="M173" s="9"/>
       <c r="N173" s="9"/>
@@ -17155,23 +17202,23 @@
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="188" t="s">
+      <c r="F175" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="G175" s="189"/>
-      <c r="H175" s="189"/>
-      <c r="I175" s="189"/>
-      <c r="J175" s="189"/>
-      <c r="K175" s="190"/>
+      <c r="G175" s="184"/>
+      <c r="H175" s="184"/>
+      <c r="I175" s="184"/>
+      <c r="J175" s="184"/>
+      <c r="K175" s="185"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="188" t="s">
+      <c r="M175" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="N175" s="189"/>
-      <c r="O175" s="189"/>
-      <c r="P175" s="189"/>
-      <c r="Q175" s="189"/>
-      <c r="R175" s="190"/>
+      <c r="N175" s="184"/>
+      <c r="O175" s="184"/>
+      <c r="P175" s="184"/>
+      <c r="Q175" s="184"/>
+      <c r="R175" s="185"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
@@ -17200,33 +17247,33 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="191" t="s">
+      <c r="F176" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="G176" s="192"/>
-      <c r="H176" s="193" t="s">
+      <c r="G176" s="187"/>
+      <c r="H176" s="188" t="s">
         <v>156</v>
       </c>
-      <c r="I176" s="193"/>
-      <c r="J176" s="194">
+      <c r="I176" s="188"/>
+      <c r="J176" s="196">
         <f>F28</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="K176" s="195"/>
+      <c r="K176" s="197"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="191" t="s">
+      <c r="M176" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="N176" s="192"/>
-      <c r="O176" s="193" t="s">
+      <c r="N176" s="187"/>
+      <c r="O176" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="P176" s="193"/>
-      <c r="Q176" s="196">
+      <c r="P176" s="188"/>
+      <c r="Q176" s="189">
         <f>$F$62</f>
         <v>5</v>
       </c>
-      <c r="R176" s="197"/>
+      <c r="R176" s="190"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
@@ -17386,11 +17433,11 @@
       </c>
       <c r="G179" s="41"/>
       <c r="H179" s="41"/>
-      <c r="I179" s="157">
+      <c r="I179" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="J179" s="157">
+      <c r="J179" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -17401,11 +17448,11 @@
       </c>
       <c r="N179" s="41"/>
       <c r="O179" s="41"/>
-      <c r="P179" s="157">
+      <c r="P179" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="Q179" s="157">
+      <c r="Q179" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -17446,7 +17493,7 @@
         <f t="shared" ref="G180:G200" si="36">IF(ISERROR((H180-H$190)/H$190*100),"error",(H180-H$190)/H$190*100)</f>
         <v>-100</v>
       </c>
-      <c r="H180" s="168">
+      <c r="H180" s="167">
         <v>0</v>
       </c>
       <c r="I180" s="23">
@@ -17519,7 +17566,7 @@
         <f t="shared" si="36"/>
         <v>-89.999999999999986</v>
       </c>
-      <c r="H181" s="169">
+      <c r="H181" s="168">
         <f>H190+F181*(H190-H180)/10</f>
         <v>3.8700000000000045</v>
       </c>
@@ -17592,7 +17639,7 @@
         <f t="shared" si="36"/>
         <v>-80</v>
       </c>
-      <c r="H182" s="169">
+      <c r="H182" s="168">
         <f>H190+F182*(H190-H180)/10</f>
         <v>7.740000000000002</v>
       </c>
@@ -17665,7 +17712,7 @@
         <f t="shared" si="36"/>
         <v>-70</v>
       </c>
-      <c r="H183" s="169">
+      <c r="H183" s="168">
         <f>H190+F183*(H190-H180)/10</f>
         <v>11.61</v>
       </c>
@@ -17738,7 +17785,7 @@
         <f t="shared" si="36"/>
         <v>-60</v>
       </c>
-      <c r="H184" s="169">
+      <c r="H184" s="168">
         <f>H190+F184*(H190-H180)/10</f>
         <v>15.48</v>
       </c>
@@ -17811,7 +17858,7 @@
         <f t="shared" si="36"/>
         <v>-50</v>
       </c>
-      <c r="H185" s="169">
+      <c r="H185" s="168">
         <f>H190+F185*(H190-H180)/10</f>
         <v>19.350000000000001</v>
       </c>
@@ -17884,7 +17931,7 @@
         <f t="shared" si="36"/>
         <v>-40</v>
       </c>
-      <c r="H186" s="169">
+      <c r="H186" s="168">
         <f>H190+F186*(H190-H180)/10</f>
         <v>23.220000000000002</v>
       </c>
@@ -17957,7 +18004,7 @@
         <f t="shared" si="36"/>
         <v>-30</v>
       </c>
-      <c r="H187" s="169">
+      <c r="H187" s="168">
         <f>H190+F187*(H190-H180)/10</f>
         <v>27.090000000000003</v>
       </c>
@@ -18030,7 +18077,7 @@
         <f t="shared" si="36"/>
         <v>-20.000000000000004</v>
       </c>
-      <c r="H188" s="169">
+      <c r="H188" s="168">
         <f>H190+F188*(H190-H180)/10</f>
         <v>30.96</v>
       </c>
@@ -18102,7 +18149,7 @@
         <f t="shared" si="36"/>
         <v>-9.9999999999999929</v>
       </c>
-      <c r="H189" s="169">
+      <c r="H189" s="168">
         <f>H190+F189*(H190-H180)/10</f>
         <v>34.830000000000005</v>
       </c>
@@ -18173,7 +18220,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H190" s="168">
+      <c r="H190" s="167">
         <v>38.700000000000003</v>
       </c>
       <c r="I190" s="23">
@@ -18242,7 +18289,7 @@
         <f t="shared" si="36"/>
         <v>15.839793281653753</v>
       </c>
-      <c r="H191" s="169">
+      <c r="H191" s="168">
         <f>H190+F191*(H200-H190)/10</f>
         <v>44.830000000000005</v>
       </c>
@@ -18314,7 +18361,7 @@
         <f t="shared" si="36"/>
         <v>31.679586563307488</v>
       </c>
-      <c r="H192" s="169">
+      <c r="H192" s="168">
         <f>H190+F192*(H200-H190)/10</f>
         <v>50.96</v>
       </c>
@@ -18387,7 +18434,7 @@
         <f t="shared" si="36"/>
         <v>47.519379844961243</v>
       </c>
-      <c r="H193" s="169">
+      <c r="H193" s="168">
         <f>H190+F193*(H200-H190)/10</f>
         <v>57.09</v>
       </c>
@@ -18460,7 +18507,7 @@
         <f t="shared" si="36"/>
         <v>63.359173126614976</v>
       </c>
-      <c r="H194" s="169">
+      <c r="H194" s="168">
         <f>H190+F194*(H200-H190)/10</f>
         <v>63.22</v>
       </c>
@@ -18533,7 +18580,7 @@
         <f t="shared" si="36"/>
         <v>79.198966408268703</v>
       </c>
-      <c r="H195" s="169">
+      <c r="H195" s="168">
         <f>H190+F195*(H200-H190)/10</f>
         <v>69.349999999999994</v>
       </c>
@@ -18606,7 +18653,7 @@
         <f t="shared" si="36"/>
         <v>95.038759689922443</v>
       </c>
-      <c r="H196" s="169">
+      <c r="H196" s="168">
         <f>H190+F196*(H200-H190)/10</f>
         <v>75.47999999999999</v>
       </c>
@@ -18679,7 +18726,7 @@
         <f t="shared" si="36"/>
         <v>110.8785529715762</v>
       </c>
-      <c r="H197" s="169">
+      <c r="H197" s="168">
         <f>H190+F197*(H200-H190)/10</f>
         <v>81.61</v>
       </c>
@@ -18752,7 +18799,7 @@
         <f t="shared" si="36"/>
         <v>126.71834625322998</v>
       </c>
-      <c r="H198" s="169">
+      <c r="H198" s="168">
         <f>H190+F198*(H200-H190)/10</f>
         <v>87.740000000000009</v>
       </c>
@@ -18825,7 +18872,7 @@
         <f t="shared" si="36"/>
         <v>142.55813953488371</v>
       </c>
-      <c r="H199" s="169">
+      <c r="H199" s="168">
         <f>H190+F199*(H200-H190)/10</f>
         <v>93.87</v>
       </c>
@@ -18898,13 +18945,13 @@
         <f t="shared" si="36"/>
         <v>158.39793281653743</v>
       </c>
-      <c r="H200" s="170">
+      <c r="H200" s="169">
         <v>100</v>
       </c>
-      <c r="I200" s="158">
+      <c r="I200" s="157">
         <v>1.985963354111308</v>
       </c>
-      <c r="J200" s="158">
+      <c r="J200" s="157">
         <v>1.7631675932937421</v>
       </c>
       <c r="K200" s="52">
@@ -18923,10 +18970,10 @@
       <c r="O200" s="53">
         <v>15</v>
       </c>
-      <c r="P200" s="158">
+      <c r="P200" s="157">
         <v>1.45118366211558</v>
       </c>
-      <c r="Q200" s="158">
+      <c r="Q200" s="157">
         <v>1.2883822854347187</v>
       </c>
       <c r="R200" s="52">
@@ -18961,12 +19008,12 @@
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
-      <c r="F201" s="159"/>
-      <c r="G201" s="164"/>
-      <c r="H201" s="164"/>
-      <c r="I201" s="165"/>
-      <c r="J201" s="166"/>
-      <c r="K201" s="164"/>
+      <c r="F201" s="158"/>
+      <c r="G201" s="163"/>
+      <c r="H201" s="163"/>
+      <c r="I201" s="164"/>
+      <c r="J201" s="165"/>
+      <c r="K201" s="163"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -19002,23 +19049,23 @@
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="188" t="s">
+      <c r="F202" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="G202" s="189"/>
-      <c r="H202" s="189"/>
-      <c r="I202" s="189"/>
-      <c r="J202" s="189"/>
-      <c r="K202" s="190"/>
+      <c r="G202" s="184"/>
+      <c r="H202" s="184"/>
+      <c r="I202" s="184"/>
+      <c r="J202" s="184"/>
+      <c r="K202" s="185"/>
       <c r="L202" s="2"/>
-      <c r="M202" s="188" t="s">
+      <c r="M202" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="N202" s="189"/>
-      <c r="O202" s="189"/>
-      <c r="P202" s="189"/>
-      <c r="Q202" s="189"/>
-      <c r="R202" s="190"/>
+      <c r="N202" s="184"/>
+      <c r="O202" s="184"/>
+      <c r="P202" s="184"/>
+      <c r="Q202" s="184"/>
+      <c r="R202" s="185"/>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
@@ -19047,33 +19094,33 @@
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="191" t="s">
+      <c r="F203" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="G203" s="192"/>
-      <c r="H203" s="193" t="s">
+      <c r="G203" s="187"/>
+      <c r="H203" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="I203" s="193"/>
-      <c r="J203" s="194">
+      <c r="I203" s="188"/>
+      <c r="J203" s="196">
         <f>F8</f>
         <v>60.5</v>
       </c>
-      <c r="K203" s="195"/>
+      <c r="K203" s="197"/>
       <c r="L203" s="2"/>
-      <c r="M203" s="191" t="s">
+      <c r="M203" s="186" t="s">
         <v>161</v>
       </c>
-      <c r="N203" s="192"/>
-      <c r="O203" s="193" t="s">
+      <c r="N203" s="187"/>
+      <c r="O203" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="P203" s="193"/>
-      <c r="Q203" s="196">
+      <c r="P203" s="188"/>
+      <c r="Q203" s="189">
         <f>F64</f>
         <v>15</v>
       </c>
-      <c r="R203" s="197"/>
+      <c r="R203" s="190"/>
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
@@ -19233,11 +19280,11 @@
       </c>
       <c r="G206" s="41"/>
       <c r="H206" s="41"/>
-      <c r="I206" s="157">
+      <c r="I206" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="J206" s="157">
+      <c r="J206" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -19248,11 +19295,11 @@
       </c>
       <c r="N206" s="41"/>
       <c r="O206" s="41"/>
-      <c r="P206" s="157">
+      <c r="P206" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="Q206" s="157">
+      <c r="Q206" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -19293,7 +19340,7 @@
         <f t="shared" ref="G207:G216" si="42">IF(ISERROR((H207-H$217)/H$217*100),"error",(H207-H$217)/H$217*100)</f>
         <v>-80.165289256198349</v>
       </c>
-      <c r="H207" s="168">
+      <c r="H207" s="167">
         <v>12</v>
       </c>
       <c r="I207" s="23">
@@ -19320,7 +19367,7 @@
         <v>0.1</v>
       </c>
       <c r="P207" s="23">
-        <f t="dataTable" ref="P207:Q227" dt2D="0" dtr="0" r1="F64" ca="1"/>
+        <f t="dataTable" ref="P207:Q227" dt2D="0" dtr="0" r1="F64"/>
         <v>1.0825042789178061</v>
       </c>
       <c r="Q207" s="23">
@@ -19366,7 +19413,7 @@
         <f t="shared" si="42"/>
         <v>-72.148760330578511</v>
       </c>
-      <c r="H208" s="169">
+      <c r="H208" s="168">
         <f>H217+F208*(H217-H207)/10</f>
         <v>16.850000000000001</v>
       </c>
@@ -19439,7 +19486,7 @@
         <f t="shared" si="42"/>
         <v>-64.132231404958674</v>
       </c>
-      <c r="H209" s="169">
+      <c r="H209" s="168">
         <f>H217+F209*(H217-H207)/10</f>
         <v>21.700000000000003</v>
       </c>
@@ -19512,7 +19559,7 @@
         <f t="shared" si="42"/>
         <v>-56.11570247933885</v>
       </c>
-      <c r="H210" s="169">
+      <c r="H210" s="168">
         <f>H217+F210*(H217-H207)/10</f>
         <v>26.549999999999997</v>
       </c>
@@ -19585,7 +19632,7 @@
         <f t="shared" si="42"/>
         <v>-48.099173553719012</v>
       </c>
-      <c r="H211" s="169">
+      <c r="H211" s="168">
         <f>H217+F211*(H217-H207)/10</f>
         <v>31.4</v>
       </c>
@@ -19658,7 +19705,7 @@
         <f t="shared" si="42"/>
         <v>-40.082644628099175</v>
       </c>
-      <c r="H212" s="169">
+      <c r="H212" s="168">
         <f>H217+F212*(H217-H207)/10</f>
         <v>36.25</v>
       </c>
@@ -19731,7 +19778,7 @@
         <f t="shared" si="42"/>
         <v>-32.066115702479337</v>
       </c>
-      <c r="H213" s="169">
+      <c r="H213" s="168">
         <f>H217+F213*(H217-H207)/10</f>
         <v>41.1</v>
       </c>
@@ -19804,7 +19851,7 @@
         <f t="shared" si="42"/>
         <v>-24.049586776859499</v>
       </c>
-      <c r="H214" s="169">
+      <c r="H214" s="168">
         <f>H217+F214*(H217-H207)/10</f>
         <v>45.95</v>
       </c>
@@ -19877,7 +19924,7 @@
         <f t="shared" si="42"/>
         <v>-16.033057851239676</v>
       </c>
-      <c r="H215" s="169">
+      <c r="H215" s="168">
         <f>H217+F215*(H217-H207)/10</f>
         <v>50.8</v>
       </c>
@@ -19949,7 +19996,7 @@
         <f t="shared" si="42"/>
         <v>-8.0165289256198378</v>
       </c>
-      <c r="H216" s="169">
+      <c r="H216" s="168">
         <f>H217+F216*(H217-H207)/10</f>
         <v>55.65</v>
       </c>
@@ -20020,7 +20067,7 @@
         <f>IF(ISERROR((H217-H$217)/H$217*100),"error",(H217-H$217)/H$217*100)</f>
         <v>0</v>
       </c>
-      <c r="H217" s="168">
+      <c r="H217" s="167">
         <v>60.5</v>
       </c>
       <c r="I217" s="23">
@@ -20089,7 +20136,7 @@
         <f>IF(ISERROR((H218-H$217)/H$217*100),"error",(H218-H$217)/H$217*100)</f>
         <v>2.3966942148760375</v>
       </c>
-      <c r="H218" s="169">
+      <c r="H218" s="168">
         <f>H217+F218*(H227-H217)/10</f>
         <v>61.95</v>
       </c>
@@ -20161,7 +20208,7 @@
         <f t="shared" ref="G219:G227" si="46">IF(ISERROR((H219-H$217)/H$217*100),"error",(H219-H$217)/H$217*100)</f>
         <v>4.7933884297520635</v>
       </c>
-      <c r="H219" s="169">
+      <c r="H219" s="168">
         <f>H217+F219*(H227-H217)/10</f>
         <v>63.4</v>
       </c>
@@ -20234,7 +20281,7 @@
         <f t="shared" si="46"/>
         <v>7.1900826446280899</v>
       </c>
-      <c r="H220" s="169">
+      <c r="H220" s="168">
         <f>H217+F220*(H227-H217)/10</f>
         <v>64.849999999999994</v>
       </c>
@@ -20307,7 +20354,7 @@
         <f t="shared" si="46"/>
         <v>9.5867768595041269</v>
       </c>
-      <c r="H221" s="169">
+      <c r="H221" s="168">
         <f>H217+F221*(H227-H217)/10</f>
         <v>66.3</v>
       </c>
@@ -20380,7 +20427,7 @@
         <f t="shared" si="46"/>
         <v>11.983471074380166</v>
       </c>
-      <c r="H222" s="169">
+      <c r="H222" s="168">
         <f>H217+F222*(H227-H217)/10</f>
         <v>67.75</v>
       </c>
@@ -20453,7 +20500,7 @@
         <f t="shared" si="46"/>
         <v>14.380165289256203</v>
       </c>
-      <c r="H223" s="169">
+      <c r="H223" s="168">
         <f>H217+F223*(H227-H217)/10</f>
         <v>69.2</v>
       </c>
@@ -20526,7 +20573,7 @@
         <f t="shared" si="46"/>
         <v>16.77685950413224</v>
       </c>
-      <c r="H224" s="169">
+      <c r="H224" s="168">
         <f>H217+F224*(H227-H217)/10</f>
         <v>70.650000000000006</v>
       </c>
@@ -20599,7 +20646,7 @@
         <f t="shared" si="46"/>
         <v>19.173553719008254</v>
       </c>
-      <c r="H225" s="169">
+      <c r="H225" s="168">
         <f>H217+F225*(H227-H217)/10</f>
         <v>72.099999999999994</v>
       </c>
@@ -20672,7 +20719,7 @@
         <f t="shared" si="46"/>
         <v>21.570247933884293</v>
       </c>
-      <c r="H226" s="169">
+      <c r="H226" s="168">
         <f>H217+F226*(H227-H217)/10</f>
         <v>73.55</v>
       </c>
@@ -20741,17 +20788,17 @@
         <f t="shared" si="47"/>
         <v>10</v>
       </c>
-      <c r="G227" s="133">
+      <c r="G227" s="132">
         <f t="shared" si="46"/>
         <v>23.966942148760332</v>
       </c>
-      <c r="H227" s="170">
+      <c r="H227" s="169">
         <v>75</v>
       </c>
-      <c r="I227" s="158">
+      <c r="I227" s="157">
         <v>1.0660052289332818</v>
       </c>
-      <c r="J227" s="158">
+      <c r="J227" s="157">
         <v>0.94641518437177352</v>
       </c>
       <c r="K227" s="52">
@@ -20763,17 +20810,17 @@
         <f t="shared" si="48"/>
         <v>10</v>
       </c>
-      <c r="N227" s="133">
+      <c r="N227" s="132">
         <f t="shared" si="45"/>
         <v>200</v>
       </c>
       <c r="O227" s="53">
         <v>45</v>
       </c>
-      <c r="P227" s="158">
+      <c r="P227" s="157">
         <v>1.39875372869777</v>
       </c>
-      <c r="Q227" s="158">
+      <c r="Q227" s="157">
         <v>1.307875111602306</v>
       </c>
       <c r="R227" s="52">
@@ -20808,12 +20855,12 @@
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-      <c r="F228" s="159"/>
-      <c r="G228" s="164"/>
-      <c r="H228" s="164"/>
-      <c r="I228" s="165"/>
-      <c r="J228" s="166"/>
-      <c r="K228" s="164"/>
+      <c r="F228" s="158"/>
+      <c r="G228" s="163"/>
+      <c r="H228" s="163"/>
+      <c r="I228" s="164"/>
+      <c r="J228" s="165"/>
+      <c r="K228" s="163"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -20849,23 +20896,23 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="188" t="s">
+      <c r="F229" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="G229" s="189"/>
-      <c r="H229" s="189"/>
-      <c r="I229" s="189"/>
-      <c r="J229" s="189"/>
-      <c r="K229" s="190"/>
+      <c r="G229" s="184"/>
+      <c r="H229" s="184"/>
+      <c r="I229" s="184"/>
+      <c r="J229" s="184"/>
+      <c r="K229" s="185"/>
       <c r="L229" s="2"/>
-      <c r="M229" s="188" t="s">
+      <c r="M229" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="N229" s="189"/>
-      <c r="O229" s="189"/>
-      <c r="P229" s="189"/>
-      <c r="Q229" s="189"/>
-      <c r="R229" s="190"/>
+      <c r="N229" s="184"/>
+      <c r="O229" s="184"/>
+      <c r="P229" s="184"/>
+      <c r="Q229" s="184"/>
+      <c r="R229" s="185"/>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
       <c r="U229" s="2"/>
@@ -20894,33 +20941,33 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="191" t="s">
+      <c r="F230" s="186" t="s">
         <v>165</v>
       </c>
-      <c r="G230" s="192"/>
-      <c r="H230" s="193" t="s">
+      <c r="G230" s="187"/>
+      <c r="H230" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="I230" s="193"/>
-      <c r="J230" s="194">
+      <c r="I230" s="188"/>
+      <c r="J230" s="196">
         <f>F11</f>
         <v>91.324200913242009</v>
       </c>
-      <c r="K230" s="195"/>
+      <c r="K230" s="197"/>
       <c r="L230" s="2"/>
-      <c r="M230" s="191" t="s">
+      <c r="M230" s="186" t="s">
         <v>162</v>
       </c>
-      <c r="N230" s="192"/>
-      <c r="O230" s="193" t="s">
+      <c r="N230" s="187"/>
+      <c r="O230" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="P230" s="193"/>
-      <c r="Q230" s="196">
+      <c r="P230" s="188"/>
+      <c r="Q230" s="189">
         <f>F65</f>
         <v>15</v>
       </c>
-      <c r="R230" s="197"/>
+      <c r="R230" s="190"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
       <c r="U230" s="2"/>
@@ -21080,11 +21127,11 @@
       </c>
       <c r="G233" s="41"/>
       <c r="H233" s="41"/>
-      <c r="I233" s="157">
+      <c r="I233" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="J233" s="157">
+      <c r="J233" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -21095,11 +21142,11 @@
       </c>
       <c r="N233" s="41"/>
       <c r="O233" s="41"/>
-      <c r="P233" s="157">
+      <c r="P233" s="156">
         <f>F139</f>
         <v>1.1660768565768804</v>
       </c>
-      <c r="Q233" s="157">
+      <c r="Q233" s="156">
         <f>F140</f>
         <v>1.0352602531914381</v>
       </c>
@@ -21140,11 +21187,11 @@
         <f t="shared" ref="G234:G243" si="50">IF(ISERROR((H234-H$244)/H$244*100),"error",(H234-H$244)/H$244*100)</f>
         <v>-72.623740692071834</v>
       </c>
-      <c r="H234" s="168">
+      <c r="H234" s="167">
         <v>25</v>
       </c>
       <c r="I234" s="23">
-        <f t="dataTable" ref="I234:J254" dt2D="0" dtr="0" r1="F11"/>
+        <f t="dataTable" ref="I234:J254" dt2D="0" dtr="0" r1="F11" ca="1"/>
         <v>2.8999404629255867</v>
       </c>
       <c r="J234" s="23">
@@ -21213,7 +21260,7 @@
         <f t="shared" si="50"/>
         <v>-65.361366622864651</v>
       </c>
-      <c r="H235" s="169">
+      <c r="H235" s="168">
         <f>H244+F235*(H244-H234)/10</f>
         <v>31.632000000000005</v>
       </c>
@@ -21286,7 +21333,7 @@
         <f t="shared" si="50"/>
         <v>-58.098992553657467</v>
       </c>
-      <c r="H236" s="169">
+      <c r="H236" s="168">
         <f>H244+F236*(H244-H234)/10</f>
         <v>38.263999999999996</v>
       </c>
@@ -21359,7 +21406,7 @@
         <f t="shared" si="50"/>
         <v>-50.836618484450277</v>
       </c>
-      <c r="H237" s="169">
+      <c r="H237" s="168">
         <f>H244+F237*(H244-H234)/10</f>
         <v>44.896000000000001</v>
       </c>
@@ -21432,7 +21479,7 @@
         <f t="shared" si="50"/>
         <v>-43.574244415243093</v>
       </c>
-      <c r="H238" s="169">
+      <c r="H238" s="168">
         <f>H244+F238*(H244-H234)/10</f>
         <v>51.527999999999999</v>
       </c>
@@ -21505,7 +21552,7 @@
         <f t="shared" si="50"/>
         <v>-36.311870346035917</v>
       </c>
-      <c r="H239" s="169">
+      <c r="H239" s="168">
         <f>H244+F239*(H244-H234)/10</f>
         <v>58.16</v>
       </c>
@@ -21578,7 +21625,7 @@
         <f t="shared" si="50"/>
         <v>-29.04949627682873</v>
       </c>
-      <c r="H240" s="169">
+      <c r="H240" s="168">
         <f>H244+F240*(H244-H234)/10</f>
         <v>64.792000000000002</v>
       </c>
@@ -21651,7 +21698,7 @@
         <f t="shared" si="50"/>
         <v>-21.787122207621554</v>
       </c>
-      <c r="H241" s="169">
+      <c r="H241" s="168">
         <f>H244+F241*(H244-H234)/10</f>
         <v>71.423999999999992</v>
       </c>
@@ -21724,7 +21771,7 @@
         <f t="shared" si="50"/>
         <v>-14.524748138414365</v>
       </c>
-      <c r="H242" s="169">
+      <c r="H242" s="168">
         <f>H244+F242*(H244-H234)/10</f>
         <v>78.055999999999997</v>
       </c>
@@ -21796,7 +21843,7 @@
         <f t="shared" si="50"/>
         <v>-7.2623740692071888</v>
       </c>
-      <c r="H243" s="169">
+      <c r="H243" s="168">
         <f>H244+F243*(H244-H234)/10</f>
         <v>84.687999999999988</v>
       </c>
@@ -21867,7 +21914,7 @@
         <f>IF(ISERROR((H244-H$244)/H$244*100),"error",(H244-H$244)/H$244*100)</f>
         <v>0</v>
       </c>
-      <c r="H244" s="168">
+      <c r="H244" s="167">
         <v>91.32</v>
       </c>
       <c r="I244" s="23">
@@ -21936,7 +21983,7 @@
         <f t="shared" ref="G245:G254" si="53">IF(ISERROR((H245-H$244)/H$244*100),"error",(H245-H$244)/H$244*100)</f>
         <v>0.95050372317126053</v>
       </c>
-      <c r="H245" s="169">
+      <c r="H245" s="168">
         <f>H244+F245*(H254-H244)/10</f>
         <v>92.187999999999988</v>
       </c>
@@ -22008,7 +22055,7 @@
         <f t="shared" si="53"/>
         <v>1.9010074463425366</v>
       </c>
-      <c r="H246" s="169">
+      <c r="H246" s="168">
         <f>H244+F246*(H254-H244)/10</f>
         <v>93.055999999999997</v>
       </c>
@@ -22081,7 +22128,7 @@
         <f t="shared" si="53"/>
         <v>2.8515111695137971</v>
       </c>
-      <c r="H247" s="169">
+      <c r="H247" s="168">
         <f>H244+F247*(H254-H244)/10</f>
         <v>93.923999999999992</v>
       </c>
@@ -22154,7 +22201,7 @@
         <f t="shared" si="53"/>
         <v>3.8020148926850732</v>
       </c>
-      <c r="H248" s="169">
+      <c r="H248" s="168">
         <f>H244+F248*(H254-H244)/10</f>
         <v>94.792000000000002</v>
       </c>
@@ -22227,7 +22274,7 @@
         <f t="shared" si="53"/>
         <v>4.7525186158563333</v>
       </c>
-      <c r="H249" s="169">
+      <c r="H249" s="168">
         <f>H244+F249*(H254-H244)/10</f>
         <v>95.66</v>
       </c>
@@ -22300,7 +22347,7 @@
         <f t="shared" si="53"/>
         <v>5.7030223390275943</v>
       </c>
-      <c r="H250" s="169">
+      <c r="H250" s="168">
         <f>H244+F250*(H254-H244)/10</f>
         <v>96.527999999999992</v>
       </c>
@@ -22373,7 +22420,7 @@
         <f t="shared" si="53"/>
         <v>6.6535260621988694</v>
       </c>
-      <c r="H251" s="169">
+      <c r="H251" s="168">
         <f>H244+F251*(H254-H244)/10</f>
         <v>97.396000000000001</v>
       </c>
@@ -22446,7 +22493,7 @@
         <f t="shared" si="53"/>
         <v>7.6040297853701313</v>
       </c>
-      <c r="H252" s="169">
+      <c r="H252" s="168">
         <f>H244+F252*(H254-H244)/10</f>
         <v>98.263999999999996</v>
       </c>
@@ -22519,7 +22566,7 @@
         <f t="shared" si="53"/>
         <v>8.5545335085414074</v>
       </c>
-      <c r="H253" s="169">
+      <c r="H253" s="168">
         <f>H244+F253*(H254-H244)/10</f>
         <v>99.132000000000005</v>
       </c>
@@ -22588,17 +22635,17 @@
         <f t="shared" si="55"/>
         <v>10</v>
       </c>
-      <c r="G254" s="133">
+      <c r="G254" s="132">
         <f t="shared" si="53"/>
         <v>9.5050372317126666</v>
       </c>
-      <c r="H254" s="170">
+      <c r="H254" s="169">
         <v>100</v>
       </c>
-      <c r="I254" s="158">
+      <c r="I254" s="157">
         <v>1.109375637092155</v>
       </c>
-      <c r="J254" s="158">
+      <c r="J254" s="157">
         <v>0.9849200732033534</v>
       </c>
       <c r="K254" s="52">
@@ -22610,17 +22657,17 @@
         <f t="shared" si="56"/>
         <v>10</v>
       </c>
-      <c r="N254" s="133">
+      <c r="N254" s="132">
         <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="O254" s="53">
         <v>30</v>
       </c>
-      <c r="P254" s="158">
+      <c r="P254" s="157">
         <v>1.0502339092346973</v>
       </c>
-      <c r="Q254" s="158">
+      <c r="Q254" s="157">
         <v>0.89652146064173677</v>
       </c>
       <c r="R254" s="52">
@@ -22655,12 +22702,12 @@
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
-      <c r="F255" s="159"/>
-      <c r="G255" s="164"/>
-      <c r="H255" s="164"/>
-      <c r="I255" s="165"/>
-      <c r="J255" s="166"/>
-      <c r="K255" s="164"/>
+      <c r="F255" s="158"/>
+      <c r="G255" s="163"/>
+      <c r="H255" s="163"/>
+      <c r="I255" s="164"/>
+      <c r="J255" s="165"/>
+      <c r="K255" s="163"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -22696,12 +22743,12 @@
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
-      <c r="F256" s="159"/>
-      <c r="G256" s="164"/>
-      <c r="H256" s="164"/>
-      <c r="I256" s="165"/>
-      <c r="J256" s="166"/>
-      <c r="K256" s="164"/>
+      <c r="F256" s="158"/>
+      <c r="G256" s="163"/>
+      <c r="H256" s="163"/>
+      <c r="I256" s="164"/>
+      <c r="J256" s="165"/>
+      <c r="K256" s="163"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -22737,12 +22784,12 @@
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
-      <c r="F257" s="159"/>
-      <c r="G257" s="164"/>
-      <c r="H257" s="164"/>
-      <c r="I257" s="165"/>
-      <c r="J257" s="166"/>
-      <c r="K257" s="164"/>
+      <c r="F257" s="158"/>
+      <c r="G257" s="163"/>
+      <c r="H257" s="163"/>
+      <c r="I257" s="164"/>
+      <c r="J257" s="165"/>
+      <c r="K257" s="163"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -22860,12 +22907,12 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
-      <c r="F260" s="209"/>
-      <c r="G260" s="209"/>
-      <c r="H260" s="209"/>
-      <c r="I260" s="209"/>
-      <c r="J260" s="209"/>
-      <c r="K260" s="209"/>
+      <c r="F260" s="194"/>
+      <c r="G260" s="194"/>
+      <c r="H260" s="194"/>
+      <c r="I260" s="194"/>
+      <c r="J260" s="194"/>
+      <c r="K260" s="194"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -22901,12 +22948,12 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-      <c r="F261" s="206"/>
-      <c r="G261" s="206"/>
-      <c r="H261" s="207"/>
-      <c r="I261" s="207"/>
-      <c r="J261" s="208"/>
-      <c r="K261" s="208"/>
+      <c r="F261" s="191"/>
+      <c r="G261" s="191"/>
+      <c r="H261" s="192"/>
+      <c r="I261" s="192"/>
+      <c r="J261" s="193"/>
+      <c r="K261" s="193"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -22942,12 +22989,12 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
-      <c r="F262" s="160"/>
-      <c r="G262" s="160"/>
-      <c r="H262" s="160"/>
-      <c r="I262" s="160"/>
-      <c r="J262" s="160"/>
-      <c r="K262" s="160"/>
+      <c r="F262" s="159"/>
+      <c r="G262" s="159"/>
+      <c r="H262" s="159"/>
+      <c r="I262" s="159"/>
+      <c r="J262" s="159"/>
+      <c r="K262" s="159"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -22983,12 +23030,12 @@
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
-      <c r="F263" s="160"/>
-      <c r="G263" s="160"/>
-      <c r="H263" s="160"/>
-      <c r="I263" s="160"/>
-      <c r="J263" s="160"/>
-      <c r="K263" s="159"/>
+      <c r="F263" s="159"/>
+      <c r="G263" s="159"/>
+      <c r="H263" s="159"/>
+      <c r="I263" s="159"/>
+      <c r="J263" s="159"/>
+      <c r="K263" s="158"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -23024,12 +23071,12 @@
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
-      <c r="F264" s="161"/>
-      <c r="G264" s="160"/>
-      <c r="H264" s="160"/>
-      <c r="I264" s="162"/>
-      <c r="J264" s="163"/>
-      <c r="K264" s="159"/>
+      <c r="F264" s="160"/>
+      <c r="G264" s="159"/>
+      <c r="H264" s="159"/>
+      <c r="I264" s="161"/>
+      <c r="J264" s="162"/>
+      <c r="K264" s="158"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -23065,12 +23112,12 @@
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
-      <c r="F265" s="159"/>
-      <c r="G265" s="164"/>
-      <c r="H265" s="164"/>
-      <c r="I265" s="165"/>
-      <c r="J265" s="166"/>
-      <c r="K265" s="164"/>
+      <c r="F265" s="158"/>
+      <c r="G265" s="163"/>
+      <c r="H265" s="163"/>
+      <c r="I265" s="164"/>
+      <c r="J265" s="165"/>
+      <c r="K265" s="163"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -23106,12 +23153,12 @@
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
-      <c r="F266" s="159"/>
-      <c r="G266" s="164"/>
-      <c r="H266" s="164"/>
-      <c r="I266" s="165"/>
-      <c r="J266" s="166"/>
-      <c r="K266" s="164"/>
+      <c r="F266" s="158"/>
+      <c r="G266" s="163"/>
+      <c r="H266" s="163"/>
+      <c r="I266" s="164"/>
+      <c r="J266" s="165"/>
+      <c r="K266" s="163"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
@@ -23147,12 +23194,12 @@
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
-      <c r="F267" s="159"/>
-      <c r="G267" s="164"/>
-      <c r="H267" s="164"/>
-      <c r="I267" s="165"/>
-      <c r="J267" s="166"/>
-      <c r="K267" s="164"/>
+      <c r="F267" s="158"/>
+      <c r="G267" s="163"/>
+      <c r="H267" s="163"/>
+      <c r="I267" s="164"/>
+      <c r="J267" s="165"/>
+      <c r="K267" s="163"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -23188,12 +23235,12 @@
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
-      <c r="F268" s="159"/>
-      <c r="G268" s="164"/>
-      <c r="H268" s="164"/>
-      <c r="I268" s="165"/>
-      <c r="J268" s="166"/>
-      <c r="K268" s="164"/>
+      <c r="F268" s="158"/>
+      <c r="G268" s="163"/>
+      <c r="H268" s="163"/>
+      <c r="I268" s="164"/>
+      <c r="J268" s="165"/>
+      <c r="K268" s="163"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
@@ -23229,12 +23276,12 @@
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
-      <c r="F269" s="159"/>
-      <c r="G269" s="164"/>
-      <c r="H269" s="164"/>
-      <c r="I269" s="165"/>
-      <c r="J269" s="166"/>
-      <c r="K269" s="164"/>
+      <c r="F269" s="158"/>
+      <c r="G269" s="163"/>
+      <c r="H269" s="163"/>
+      <c r="I269" s="164"/>
+      <c r="J269" s="165"/>
+      <c r="K269" s="163"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
@@ -23270,12 +23317,12 @@
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
-      <c r="F270" s="159"/>
-      <c r="G270" s="164"/>
-      <c r="H270" s="164"/>
-      <c r="I270" s="165"/>
-      <c r="J270" s="166"/>
-      <c r="K270" s="164"/>
+      <c r="F270" s="158"/>
+      <c r="G270" s="163"/>
+      <c r="H270" s="163"/>
+      <c r="I270" s="164"/>
+      <c r="J270" s="165"/>
+      <c r="K270" s="163"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -23311,12 +23358,12 @@
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
-      <c r="F271" s="159"/>
-      <c r="G271" s="164"/>
-      <c r="H271" s="164"/>
-      <c r="I271" s="165"/>
-      <c r="J271" s="166"/>
-      <c r="K271" s="164"/>
+      <c r="F271" s="158"/>
+      <c r="G271" s="163"/>
+      <c r="H271" s="163"/>
+      <c r="I271" s="164"/>
+      <c r="J271" s="165"/>
+      <c r="K271" s="163"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -23352,12 +23399,12 @@
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
-      <c r="F272" s="159"/>
-      <c r="G272" s="164"/>
-      <c r="H272" s="164"/>
-      <c r="I272" s="165"/>
-      <c r="J272" s="166"/>
-      <c r="K272" s="164"/>
+      <c r="F272" s="158"/>
+      <c r="G272" s="163"/>
+      <c r="H272" s="163"/>
+      <c r="I272" s="164"/>
+      <c r="J272" s="165"/>
+      <c r="K272" s="163"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
@@ -23393,12 +23440,12 @@
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
-      <c r="F273" s="159"/>
-      <c r="G273" s="164"/>
-      <c r="H273" s="164"/>
-      <c r="I273" s="165"/>
-      <c r="J273" s="166"/>
-      <c r="K273" s="164"/>
+      <c r="F273" s="158"/>
+      <c r="G273" s="163"/>
+      <c r="H273" s="163"/>
+      <c r="I273" s="164"/>
+      <c r="J273" s="165"/>
+      <c r="K273" s="163"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -23434,12 +23481,12 @@
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
-      <c r="F274" s="159"/>
-      <c r="G274" s="164"/>
-      <c r="H274" s="164"/>
-      <c r="I274" s="165"/>
-      <c r="J274" s="166"/>
-      <c r="K274" s="164"/>
+      <c r="F274" s="158"/>
+      <c r="G274" s="163"/>
+      <c r="H274" s="163"/>
+      <c r="I274" s="164"/>
+      <c r="J274" s="165"/>
+      <c r="K274" s="163"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -23475,12 +23522,12 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
-      <c r="F275" s="159"/>
-      <c r="G275" s="164"/>
-      <c r="H275" s="164"/>
-      <c r="I275" s="165"/>
-      <c r="J275" s="166"/>
-      <c r="K275" s="164"/>
+      <c r="F275" s="158"/>
+      <c r="G275" s="163"/>
+      <c r="H275" s="163"/>
+      <c r="I275" s="164"/>
+      <c r="J275" s="165"/>
+      <c r="K275" s="163"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
@@ -23516,12 +23563,12 @@
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
-      <c r="F276" s="159"/>
-      <c r="G276" s="164"/>
-      <c r="H276" s="164"/>
-      <c r="I276" s="165"/>
-      <c r="J276" s="166"/>
-      <c r="K276" s="164"/>
+      <c r="F276" s="158"/>
+      <c r="G276" s="163"/>
+      <c r="H276" s="163"/>
+      <c r="I276" s="164"/>
+      <c r="J276" s="165"/>
+      <c r="K276" s="163"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -23557,12 +23604,12 @@
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
-      <c r="F277" s="159"/>
-      <c r="G277" s="164"/>
-      <c r="H277" s="164"/>
-      <c r="I277" s="165"/>
-      <c r="J277" s="166"/>
-      <c r="K277" s="164"/>
+      <c r="F277" s="158"/>
+      <c r="G277" s="163"/>
+      <c r="H277" s="163"/>
+      <c r="I277" s="164"/>
+      <c r="J277" s="165"/>
+      <c r="K277" s="163"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -23598,12 +23645,12 @@
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
-      <c r="F278" s="159"/>
-      <c r="G278" s="164"/>
-      <c r="H278" s="164"/>
-      <c r="I278" s="165"/>
-      <c r="J278" s="166"/>
-      <c r="K278" s="164"/>
+      <c r="F278" s="158"/>
+      <c r="G278" s="163"/>
+      <c r="H278" s="163"/>
+      <c r="I278" s="164"/>
+      <c r="J278" s="165"/>
+      <c r="K278" s="163"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -23639,12 +23686,12 @@
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
-      <c r="F279" s="159"/>
-      <c r="G279" s="164"/>
-      <c r="H279" s="164"/>
-      <c r="I279" s="165"/>
-      <c r="J279" s="166"/>
-      <c r="K279" s="164"/>
+      <c r="F279" s="158"/>
+      <c r="G279" s="163"/>
+      <c r="H279" s="163"/>
+      <c r="I279" s="164"/>
+      <c r="J279" s="165"/>
+      <c r="K279" s="163"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -23680,12 +23727,12 @@
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
-      <c r="F280" s="159"/>
-      <c r="G280" s="164"/>
-      <c r="H280" s="164"/>
-      <c r="I280" s="165"/>
-      <c r="J280" s="166"/>
-      <c r="K280" s="164"/>
+      <c r="F280" s="158"/>
+      <c r="G280" s="163"/>
+      <c r="H280" s="163"/>
+      <c r="I280" s="164"/>
+      <c r="J280" s="165"/>
+      <c r="K280" s="163"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -23721,12 +23768,12 @@
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
-      <c r="F281" s="159"/>
-      <c r="G281" s="164"/>
-      <c r="H281" s="164"/>
-      <c r="I281" s="165"/>
-      <c r="J281" s="166"/>
-      <c r="K281" s="164"/>
+      <c r="F281" s="158"/>
+      <c r="G281" s="163"/>
+      <c r="H281" s="163"/>
+      <c r="I281" s="164"/>
+      <c r="J281" s="165"/>
+      <c r="K281" s="163"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -23762,12 +23809,12 @@
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
-      <c r="F282" s="159"/>
-      <c r="G282" s="164"/>
-      <c r="H282" s="164"/>
-      <c r="I282" s="165"/>
-      <c r="J282" s="166"/>
-      <c r="K282" s="164"/>
+      <c r="F282" s="158"/>
+      <c r="G282" s="163"/>
+      <c r="H282" s="163"/>
+      <c r="I282" s="164"/>
+      <c r="J282" s="165"/>
+      <c r="K282" s="163"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -23803,12 +23850,12 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
-      <c r="F283" s="159"/>
-      <c r="G283" s="164"/>
-      <c r="H283" s="164"/>
-      <c r="I283" s="165"/>
-      <c r="J283" s="166"/>
-      <c r="K283" s="164"/>
+      <c r="F283" s="158"/>
+      <c r="G283" s="163"/>
+      <c r="H283" s="163"/>
+      <c r="I283" s="164"/>
+      <c r="J283" s="165"/>
+      <c r="K283" s="163"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -23844,12 +23891,12 @@
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
-      <c r="F284" s="159"/>
-      <c r="G284" s="164"/>
-      <c r="H284" s="164"/>
-      <c r="I284" s="165"/>
-      <c r="J284" s="166"/>
-      <c r="K284" s="164"/>
+      <c r="F284" s="158"/>
+      <c r="G284" s="163"/>
+      <c r="H284" s="163"/>
+      <c r="I284" s="164"/>
+      <c r="J284" s="165"/>
+      <c r="K284" s="163"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -23885,12 +23932,12 @@
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
-      <c r="F285" s="159"/>
-      <c r="G285" s="164"/>
-      <c r="H285" s="164"/>
-      <c r="I285" s="165"/>
-      <c r="J285" s="166"/>
-      <c r="K285" s="164"/>
+      <c r="F285" s="158"/>
+      <c r="G285" s="163"/>
+      <c r="H285" s="163"/>
+      <c r="I285" s="164"/>
+      <c r="J285" s="165"/>
+      <c r="K285" s="163"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -25156,12 +25203,12 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-      <c r="F316" s="209"/>
-      <c r="G316" s="209"/>
-      <c r="H316" s="209"/>
-      <c r="I316" s="209"/>
-      <c r="J316" s="209"/>
-      <c r="K316" s="209"/>
+      <c r="F316" s="194"/>
+      <c r="G316" s="194"/>
+      <c r="H316" s="194"/>
+      <c r="I316" s="194"/>
+      <c r="J316" s="194"/>
+      <c r="K316" s="194"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -25197,12 +25244,12 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
-      <c r="F317" s="206"/>
-      <c r="G317" s="206"/>
-      <c r="H317" s="207"/>
-      <c r="I317" s="207"/>
-      <c r="J317" s="208"/>
-      <c r="K317" s="208"/>
+      <c r="F317" s="191"/>
+      <c r="G317" s="191"/>
+      <c r="H317" s="192"/>
+      <c r="I317" s="192"/>
+      <c r="J317" s="193"/>
+      <c r="K317" s="193"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -25238,12 +25285,12 @@
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
-      <c r="F318" s="160"/>
-      <c r="G318" s="160"/>
-      <c r="H318" s="160"/>
-      <c r="I318" s="160"/>
-      <c r="J318" s="160"/>
-      <c r="K318" s="160"/>
+      <c r="F318" s="159"/>
+      <c r="G318" s="159"/>
+      <c r="H318" s="159"/>
+      <c r="I318" s="159"/>
+      <c r="J318" s="159"/>
+      <c r="K318" s="159"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -25279,12 +25326,12 @@
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
-      <c r="F319" s="160"/>
-      <c r="G319" s="160"/>
-      <c r="H319" s="160"/>
-      <c r="I319" s="160"/>
-      <c r="J319" s="160"/>
-      <c r="K319" s="159"/>
+      <c r="F319" s="159"/>
+      <c r="G319" s="159"/>
+      <c r="H319" s="159"/>
+      <c r="I319" s="159"/>
+      <c r="J319" s="159"/>
+      <c r="K319" s="158"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
@@ -25320,12 +25367,12 @@
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
-      <c r="F320" s="161"/>
-      <c r="G320" s="160"/>
-      <c r="H320" s="160"/>
-      <c r="I320" s="162"/>
-      <c r="J320" s="163"/>
-      <c r="K320" s="159"/>
+      <c r="F320" s="160"/>
+      <c r="G320" s="159"/>
+      <c r="H320" s="159"/>
+      <c r="I320" s="161"/>
+      <c r="J320" s="162"/>
+      <c r="K320" s="158"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -25361,12 +25408,12 @@
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
-      <c r="F321" s="159"/>
-      <c r="G321" s="164"/>
-      <c r="H321" s="164"/>
-      <c r="I321" s="165"/>
-      <c r="J321" s="166"/>
-      <c r="K321" s="164"/>
+      <c r="F321" s="158"/>
+      <c r="G321" s="163"/>
+      <c r="H321" s="163"/>
+      <c r="I321" s="164"/>
+      <c r="J321" s="165"/>
+      <c r="K321" s="163"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -25402,12 +25449,12 @@
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
-      <c r="F322" s="159"/>
-      <c r="G322" s="164"/>
-      <c r="H322" s="164"/>
-      <c r="I322" s="165"/>
-      <c r="J322" s="166"/>
-      <c r="K322" s="164"/>
+      <c r="F322" s="158"/>
+      <c r="G322" s="163"/>
+      <c r="H322" s="163"/>
+      <c r="I322" s="164"/>
+      <c r="J322" s="165"/>
+      <c r="K322" s="163"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
@@ -25443,12 +25490,12 @@
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
-      <c r="F323" s="159"/>
-      <c r="G323" s="164"/>
-      <c r="H323" s="164"/>
-      <c r="I323" s="165"/>
-      <c r="J323" s="166"/>
-      <c r="K323" s="164"/>
+      <c r="F323" s="158"/>
+      <c r="G323" s="163"/>
+      <c r="H323" s="163"/>
+      <c r="I323" s="164"/>
+      <c r="J323" s="165"/>
+      <c r="K323" s="163"/>
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -25484,12 +25531,12 @@
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
-      <c r="F324" s="159"/>
-      <c r="G324" s="164"/>
-      <c r="H324" s="164"/>
-      <c r="I324" s="165"/>
-      <c r="J324" s="166"/>
-      <c r="K324" s="164"/>
+      <c r="F324" s="158"/>
+      <c r="G324" s="163"/>
+      <c r="H324" s="163"/>
+      <c r="I324" s="164"/>
+      <c r="J324" s="165"/>
+      <c r="K324" s="163"/>
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
@@ -25525,12 +25572,12 @@
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
-      <c r="F325" s="159"/>
-      <c r="G325" s="164"/>
-      <c r="H325" s="164"/>
-      <c r="I325" s="165"/>
-      <c r="J325" s="166"/>
-      <c r="K325" s="164"/>
+      <c r="F325" s="158"/>
+      <c r="G325" s="163"/>
+      <c r="H325" s="163"/>
+      <c r="I325" s="164"/>
+      <c r="J325" s="165"/>
+      <c r="K325" s="163"/>
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
@@ -25566,12 +25613,12 @@
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
-      <c r="F326" s="159"/>
-      <c r="G326" s="164"/>
-      <c r="H326" s="164"/>
-      <c r="I326" s="165"/>
-      <c r="J326" s="166"/>
-      <c r="K326" s="164"/>
+      <c r="F326" s="158"/>
+      <c r="G326" s="163"/>
+      <c r="H326" s="163"/>
+      <c r="I326" s="164"/>
+      <c r="J326" s="165"/>
+      <c r="K326" s="163"/>
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
@@ -25607,12 +25654,12 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
-      <c r="F327" s="159"/>
-      <c r="G327" s="164"/>
-      <c r="H327" s="164"/>
-      <c r="I327" s="165"/>
-      <c r="J327" s="166"/>
-      <c r="K327" s="164"/>
+      <c r="F327" s="158"/>
+      <c r="G327" s="163"/>
+      <c r="H327" s="163"/>
+      <c r="I327" s="164"/>
+      <c r="J327" s="165"/>
+      <c r="K327" s="163"/>
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
@@ -25648,12 +25695,12 @@
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
-      <c r="F328" s="159"/>
-      <c r="G328" s="164"/>
-      <c r="H328" s="164"/>
-      <c r="I328" s="165"/>
-      <c r="J328" s="166"/>
-      <c r="K328" s="164"/>
+      <c r="F328" s="158"/>
+      <c r="G328" s="163"/>
+      <c r="H328" s="163"/>
+      <c r="I328" s="164"/>
+      <c r="J328" s="165"/>
+      <c r="K328" s="163"/>
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -25689,12 +25736,12 @@
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
-      <c r="F329" s="159"/>
-      <c r="G329" s="164"/>
-      <c r="H329" s="164"/>
-      <c r="I329" s="165"/>
-      <c r="J329" s="166"/>
-      <c r="K329" s="164"/>
+      <c r="F329" s="158"/>
+      <c r="G329" s="163"/>
+      <c r="H329" s="163"/>
+      <c r="I329" s="164"/>
+      <c r="J329" s="165"/>
+      <c r="K329" s="163"/>
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -25730,12 +25777,12 @@
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
-      <c r="F330" s="159"/>
-      <c r="G330" s="164"/>
-      <c r="H330" s="164"/>
-      <c r="I330" s="165"/>
-      <c r="J330" s="166"/>
-      <c r="K330" s="164"/>
+      <c r="F330" s="158"/>
+      <c r="G330" s="163"/>
+      <c r="H330" s="163"/>
+      <c r="I330" s="164"/>
+      <c r="J330" s="165"/>
+      <c r="K330" s="163"/>
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -25771,12 +25818,12 @@
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
-      <c r="F331" s="159"/>
-      <c r="G331" s="164"/>
-      <c r="H331" s="164"/>
-      <c r="I331" s="165"/>
-      <c r="J331" s="166"/>
-      <c r="K331" s="164"/>
+      <c r="F331" s="158"/>
+      <c r="G331" s="163"/>
+      <c r="H331" s="163"/>
+      <c r="I331" s="164"/>
+      <c r="J331" s="165"/>
+      <c r="K331" s="163"/>
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -25812,12 +25859,12 @@
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
-      <c r="F332" s="159"/>
-      <c r="G332" s="164"/>
-      <c r="H332" s="164"/>
-      <c r="I332" s="165"/>
-      <c r="J332" s="166"/>
-      <c r="K332" s="164"/>
+      <c r="F332" s="158"/>
+      <c r="G332" s="163"/>
+      <c r="H332" s="163"/>
+      <c r="I332" s="164"/>
+      <c r="J332" s="165"/>
+      <c r="K332" s="163"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -25853,12 +25900,12 @@
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
-      <c r="F333" s="159"/>
-      <c r="G333" s="164"/>
-      <c r="H333" s="164"/>
-      <c r="I333" s="165"/>
-      <c r="J333" s="166"/>
-      <c r="K333" s="164"/>
+      <c r="F333" s="158"/>
+      <c r="G333" s="163"/>
+      <c r="H333" s="163"/>
+      <c r="I333" s="164"/>
+      <c r="J333" s="165"/>
+      <c r="K333" s="163"/>
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
@@ -25894,12 +25941,12 @@
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
-      <c r="F334" s="159"/>
-      <c r="G334" s="164"/>
-      <c r="H334" s="164"/>
-      <c r="I334" s="165"/>
-      <c r="J334" s="166"/>
-      <c r="K334" s="164"/>
+      <c r="F334" s="158"/>
+      <c r="G334" s="163"/>
+      <c r="H334" s="163"/>
+      <c r="I334" s="164"/>
+      <c r="J334" s="165"/>
+      <c r="K334" s="163"/>
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
@@ -25935,12 +25982,12 @@
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
-      <c r="F335" s="159"/>
-      <c r="G335" s="164"/>
-      <c r="H335" s="164"/>
-      <c r="I335" s="165"/>
-      <c r="J335" s="166"/>
-      <c r="K335" s="164"/>
+      <c r="F335" s="158"/>
+      <c r="G335" s="163"/>
+      <c r="H335" s="163"/>
+      <c r="I335" s="164"/>
+      <c r="J335" s="165"/>
+      <c r="K335" s="163"/>
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
@@ -25976,12 +26023,12 @@
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
-      <c r="F336" s="159"/>
-      <c r="G336" s="164"/>
-      <c r="H336" s="164"/>
-      <c r="I336" s="165"/>
-      <c r="J336" s="166"/>
-      <c r="K336" s="164"/>
+      <c r="F336" s="158"/>
+      <c r="G336" s="163"/>
+      <c r="H336" s="163"/>
+      <c r="I336" s="164"/>
+      <c r="J336" s="165"/>
+      <c r="K336" s="163"/>
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
@@ -26017,12 +26064,12 @@
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
-      <c r="F337" s="159"/>
-      <c r="G337" s="164"/>
-      <c r="H337" s="164"/>
-      <c r="I337" s="165"/>
-      <c r="J337" s="166"/>
-      <c r="K337" s="164"/>
+      <c r="F337" s="158"/>
+      <c r="G337" s="163"/>
+      <c r="H337" s="163"/>
+      <c r="I337" s="164"/>
+      <c r="J337" s="165"/>
+      <c r="K337" s="163"/>
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
@@ -26058,12 +26105,12 @@
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
-      <c r="F338" s="159"/>
-      <c r="G338" s="164"/>
-      <c r="H338" s="164"/>
-      <c r="I338" s="165"/>
-      <c r="J338" s="166"/>
-      <c r="K338" s="164"/>
+      <c r="F338" s="158"/>
+      <c r="G338" s="163"/>
+      <c r="H338" s="163"/>
+      <c r="I338" s="164"/>
+      <c r="J338" s="165"/>
+      <c r="K338" s="163"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
@@ -26099,12 +26146,12 @@
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
-      <c r="F339" s="159"/>
-      <c r="G339" s="164"/>
-      <c r="H339" s="164"/>
-      <c r="I339" s="165"/>
-      <c r="J339" s="166"/>
-      <c r="K339" s="164"/>
+      <c r="F339" s="158"/>
+      <c r="G339" s="163"/>
+      <c r="H339" s="163"/>
+      <c r="I339" s="164"/>
+      <c r="J339" s="165"/>
+      <c r="K339" s="163"/>
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
@@ -26140,12 +26187,12 @@
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
-      <c r="F340" s="159"/>
-      <c r="G340" s="164"/>
-      <c r="H340" s="164"/>
-      <c r="I340" s="165"/>
-      <c r="J340" s="166"/>
-      <c r="K340" s="164"/>
+      <c r="F340" s="158"/>
+      <c r="G340" s="163"/>
+      <c r="H340" s="163"/>
+      <c r="I340" s="164"/>
+      <c r="J340" s="165"/>
+      <c r="K340" s="163"/>
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
@@ -26181,12 +26228,12 @@
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
-      <c r="F341" s="159"/>
-      <c r="G341" s="164"/>
-      <c r="H341" s="164"/>
-      <c r="I341" s="165"/>
-      <c r="J341" s="166"/>
-      <c r="K341" s="164"/>
+      <c r="F341" s="158"/>
+      <c r="G341" s="163"/>
+      <c r="H341" s="163"/>
+      <c r="I341" s="164"/>
+      <c r="J341" s="165"/>
+      <c r="K341" s="163"/>
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -26342,13 +26389,41 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="58">
-    <mergeCell ref="M229:R229"/>
-    <mergeCell ref="M230:N230"/>
-    <mergeCell ref="O230:P230"/>
-    <mergeCell ref="Q230:R230"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="M147:R147"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F147:K147"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F146:R146"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="F229:K229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="F175:K175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="F202:K202"/>
+    <mergeCell ref="F203:G203"/>
     <mergeCell ref="M175:R175"/>
     <mergeCell ref="M148:N148"/>
     <mergeCell ref="O148:P148"/>
@@ -26365,41 +26440,13 @@
     <mergeCell ref="M203:N203"/>
     <mergeCell ref="O203:P203"/>
     <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="F229:K229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="F175:K175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="F202:K202"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="F146:R146"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="E96:I96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="M147:R147"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F147:K147"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="M229:R229"/>
+    <mergeCell ref="M230:N230"/>
+    <mergeCell ref="O230:P230"/>
+    <mergeCell ref="Q230:R230"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G135:AJ135">
